--- a/Glass-Compound-Analysis/dataset/Add_features.xlsx
+++ b/Glass-Compound-Analysis/dataset/Add_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Machine_Learning_with_TensorFlow\Glass-Compound-Analysis\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD336E4-D1C4-49FD-ADEB-177814321BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2493055A-5704-49B0-BA7E-447ABEF68455}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="shear" sheetId="4" r:id="rId4"/>
     <sheet name="combined" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="structured_data" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Erbium</t>
   </si>
@@ -281,6 +282,9 @@
   </si>
   <si>
     <t>SV 5 SQUARE</t>
+  </si>
+  <si>
+    <t>Erbium Concentration</t>
   </si>
 </sst>
 </file>
@@ -3542,7 +3546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
@@ -5238,8 +5242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CE30"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12905,4 +12909,2101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3922BCE-2639-4CF8-BB49-23A2E999D01D}">
+  <dimension ref="A1:N201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178:N178"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>60.505570734569638</v>
+      </c>
+      <c r="B2">
+        <v>20.125896504490292</v>
+      </c>
+      <c r="C2">
+        <v>33.671042061915912</v>
+      </c>
+      <c r="D2">
+        <v>50.346610317499398</v>
+      </c>
+      <c r="E2">
+        <v>0.2507917425260176</v>
+      </c>
+      <c r="F2">
+        <v>3.3436930653238259</v>
+      </c>
+      <c r="G2">
+        <v>2.3908848995504015</v>
+      </c>
+      <c r="H2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>61.749309150887406</v>
+      </c>
+      <c r="B3">
+        <v>20.539599744399879</v>
+      </c>
+      <c r="C3">
+        <v>34.363176158354236</v>
+      </c>
+      <c r="D3">
+        <v>51.381523510169735</v>
+      </c>
+      <c r="E3">
+        <v>0.25079174252601755</v>
+      </c>
+      <c r="F3">
+        <v>3.412425241009966</v>
+      </c>
+      <c r="G3">
+        <v>2.3908848995504015</v>
+      </c>
+      <c r="H3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>60.20615222693759</v>
+      </c>
+      <c r="B4">
+        <v>20.026301280067617</v>
+      </c>
+      <c r="C4">
+        <v>33.504417186847434</v>
+      </c>
+      <c r="D4">
+        <v>50.097464548893583</v>
+      </c>
+      <c r="E4">
+        <v>0.25079174252601755</v>
+      </c>
+      <c r="F4">
+        <v>3.3271464304364233</v>
+      </c>
+      <c r="G4">
+        <v>2.3908848995504015</v>
+      </c>
+      <c r="H4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>62.014179369177299</v>
+      </c>
+      <c r="B5">
+        <v>20.627703212158401</v>
+      </c>
+      <c r="C5">
+        <v>34.510575086299433</v>
+      </c>
+      <c r="D5">
+        <v>51.601921690090272</v>
+      </c>
+      <c r="E5">
+        <v>0.25079174252601755</v>
+      </c>
+      <c r="F5">
+        <v>3.4270626487949771</v>
+      </c>
+      <c r="G5">
+        <v>2.3908848995504015</v>
+      </c>
+      <c r="H5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>62.83182221694176</v>
+      </c>
+      <c r="B6">
+        <v>20.899674786543407</v>
+      </c>
+      <c r="C6">
+        <v>34.965589168217221</v>
+      </c>
+      <c r="D6">
+        <v>52.282281288975405</v>
+      </c>
+      <c r="E6">
+        <v>0.25079174252601755</v>
+      </c>
+      <c r="F6">
+        <v>3.4722476902182722</v>
+      </c>
+      <c r="G6">
+        <v>2.3908848995504011</v>
+      </c>
+      <c r="H6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>64.017980151022584</v>
+      </c>
+      <c r="B7">
+        <v>21.294225098679398</v>
+      </c>
+      <c r="C7">
+        <v>31.583530166417329</v>
+      </c>
+      <c r="D7">
+        <v>52.16020358844446</v>
+      </c>
+      <c r="E7">
+        <v>0.25079174252601755</v>
+      </c>
+      <c r="F7">
+        <v>3.4641400865857372</v>
+      </c>
+      <c r="G7">
+        <v>2.6968771364667123</v>
+      </c>
+      <c r="H7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>59.975830297989859</v>
+      </c>
+      <c r="B8">
+        <v>19.949689568973252</v>
+      </c>
+      <c r="C8">
+        <v>33.376244206025525</v>
+      </c>
+      <c r="D8">
+        <v>49.905813957658339</v>
+      </c>
+      <c r="E8">
+        <v>0.2507917425260176</v>
+      </c>
+      <c r="F8">
+        <v>3.3144182497538046</v>
+      </c>
+      <c r="G8">
+        <v>2.3908848995504015</v>
+      </c>
+      <c r="H8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>59.79157275483167</v>
+      </c>
+      <c r="B9">
+        <v>19.888400200097756</v>
+      </c>
+      <c r="C9">
+        <v>33.273705821367997</v>
+      </c>
+      <c r="D9">
+        <v>49.75249348467014</v>
+      </c>
+      <c r="E9">
+        <v>0.2507917425260176</v>
+      </c>
+      <c r="F9">
+        <v>3.3042357052077098</v>
+      </c>
+      <c r="G9">
+        <v>2.3908848995504011</v>
+      </c>
+      <c r="H9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60.378893673648392</v>
+      </c>
+      <c r="B10">
+        <v>20.083760063388393</v>
+      </c>
+      <c r="C10">
+        <v>33.60054692246387</v>
+      </c>
+      <c r="D10">
+        <v>50.241202492320028</v>
+      </c>
+      <c r="E10">
+        <v>0.2507917425260176</v>
+      </c>
+      <c r="F10">
+        <v>3.336692565948387</v>
+      </c>
+      <c r="G10">
+        <v>2.3908848995504011</v>
+      </c>
+      <c r="H10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60.240700516279752</v>
+      </c>
+      <c r="B11">
+        <v>20.037793036731774</v>
+      </c>
+      <c r="C11">
+        <v>33.523643133970722</v>
+      </c>
+      <c r="D11">
+        <v>50.126212137578875</v>
+      </c>
+      <c r="E11">
+        <v>0.2507917425260176</v>
+      </c>
+      <c r="F11">
+        <v>3.3290556575388162</v>
+      </c>
+      <c r="G11">
+        <v>2.3908848995504015</v>
+      </c>
+      <c r="H11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60.233516588594334</v>
+      </c>
+      <c r="H12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>61.471662723266626</v>
+      </c>
+      <c r="H13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>59.935444370988044</v>
+      </c>
+      <c r="H14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>61.735341992687573</v>
+      </c>
+      <c r="H15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>62.549308433073989</v>
+      </c>
+      <c r="H16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>63.730132987437372</v>
+      </c>
+      <c r="H17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>59.706158049752446</v>
+      </c>
+      <c r="H18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>59.522728992763959</v>
+      </c>
+      <c r="H19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>60.107409111914762</v>
+      </c>
+      <c r="H20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>59.969837319173386</v>
+      </c>
+      <c r="H21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>61.775623513456317</v>
+      </c>
+      <c r="H22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>63.045468838818579</v>
+      </c>
+      <c r="H23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>61.469920009202447</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24">
+        <v>0.01</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>63.315898861812386</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25">
+        <v>0.01</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>64.150704584967215</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26">
+        <v>0.01</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>65.361760774896027</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27">
+        <v>0.01</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>61.234763467468696</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28">
+        <v>0.01</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>61.046638234081698</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29">
+        <v>0.01</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>61.646287415502762</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30">
+        <v>0.01</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>61.50519349046251</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31">
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>60.065644627839426</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32">
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>61.300340025594792</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33">
+        <v>0.01</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>59.768403143194618</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34">
+        <v>0.01</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>61.563284415857503</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35">
+        <v>0.01</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>62.374982316233719</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36">
+        <v>0.01</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>63.552515890018917</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37">
+        <v>0.01</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>59.539755847313998</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38">
+        <v>0.01</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>59.356838010609501</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39">
+        <v>0.01</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>59.93988861510509</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40">
+        <v>0.01</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>59.802700237576708</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>58.219074322103502</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42">
+        <v>0.01</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>59.415812050841076</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43">
+        <v>0.01</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>57.930970794814833</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44">
+        <v>0.01</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>59.67067286344259</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45">
+        <v>0.01</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>60.457417111038595</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46">
+        <v>0.01</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>61.598750315297565</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47">
+        <v>0.01</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>57.709352696900474</v>
+      </c>
+      <c r="H48">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>57.532058218568984</v>
+      </c>
+      <c r="H49">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>58.097184368250609</v>
+      </c>
+      <c r="H50">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>57.964213509501988</v>
+      </c>
+      <c r="H51">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>60.865441389529444</v>
+      </c>
+      <c r="H52">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>61.719309092476081</v>
+      </c>
+      <c r="H53">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>59.60653387877479</v>
+      </c>
+      <c r="H54">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>50.454823626680074</v>
+      </c>
+      <c r="H55">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>60.471348603554077</v>
+      </c>
+      <c r="H56">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>62.879693406736891</v>
+      </c>
+      <c r="H57">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>53.782718263805428</v>
+      </c>
+      <c r="H58">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57.778381232722374</v>
+      </c>
+      <c r="H59">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59.475169616782999</v>
+      </c>
+      <c r="H60">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>56.399056481808586</v>
+      </c>
+      <c r="H61">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>64.445426316065038</v>
+      </c>
+      <c r="H62">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>65.349516829132142</v>
+      </c>
+      <c r="H63">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63.112472354491757</v>
+      </c>
+      <c r="H64">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>53.42247659905464</v>
+      </c>
+      <c r="H65">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64.028153771572534</v>
+      </c>
+      <c r="H66">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66.578152654582297</v>
+      </c>
+      <c r="H67">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>56.946111419213594</v>
+      </c>
+      <c r="H68">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>61.176791384207064</v>
+      </c>
+      <c r="H69">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>62.973381506327584</v>
+      </c>
+      <c r="H70">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>59.716337478483297</v>
+      </c>
+      <c r="H71">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>65.341752128367844</v>
+      </c>
+      <c r="H72">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>66.258416996355749</v>
+      </c>
+      <c r="H73">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>63.990259053770316</v>
+      </c>
+      <c r="H74">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>54.16549200713083</v>
+      </c>
+      <c r="H75">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>64.91867603545036</v>
+      </c>
+      <c r="H76">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>67.504141047723905</v>
+      </c>
+      <c r="H77">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>57.738134569545196</v>
+      </c>
+      <c r="H78">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>62.027656067180843</v>
+      </c>
+      <c r="H79">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>63.849233689464484</v>
+      </c>
+      <c r="H80">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>60.546889741969636</v>
+      </c>
+      <c r="H81">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>64.419126065281887</v>
+      </c>
+      <c r="H82">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>65.322847617996274</v>
+      </c>
+      <c r="H83">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>63.086716083715814</v>
+      </c>
+      <c r="H84">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>53.400674826418026</v>
+      </c>
+      <c r="H85">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>64.002023810182948</v>
+      </c>
+      <c r="H86">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>66.550982035787612</v>
+      </c>
+      <c r="H87">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>56.922871647253587</v>
+      </c>
+      <c r="H88">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>61.151825067006797</v>
+      </c>
+      <c r="H89">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>62.947681998682825</v>
+      </c>
+      <c r="H90">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>59.691967174160489</v>
+      </c>
+      <c r="H91">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>60.261955843810277</v>
+      </c>
+      <c r="H92">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>61.107357382626326</v>
+      </c>
+      <c r="H93">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>59.015530498119965</v>
+      </c>
+      <c r="H94">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>49.954560159014676</v>
+      </c>
+      <c r="H95">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>59.871770518202879</v>
+      </c>
+      <c r="H96">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>62.256236396914794</v>
+      </c>
+      <c r="H97">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>53.249458464143878</v>
+      </c>
+      <c r="H98">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>57.205504126552277</v>
+      </c>
+      <c r="H99">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>58.885468722917494</v>
+      </c>
+      <c r="H100">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>55.839855486926368</v>
+      </c>
+      <c r="H101">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>60.199468829440576</v>
+      </c>
+      <c r="H102">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>60.520916922987574</v>
+      </c>
+      <c r="H103">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>60.476579254912131</v>
+      </c>
+      <c r="H104">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>60.831280599515722</v>
+      </c>
+      <c r="H105">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>59.079942710535491</v>
+      </c>
+      <c r="H106">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>61.474176786609732</v>
+      </c>
+      <c r="H107">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>59.423559638120217</v>
+      </c>
+      <c r="H108">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>59.157533629667526</v>
+      </c>
+      <c r="H109">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>60.243806497516019</v>
+      </c>
+      <c r="H110">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>55.776786438914563</v>
+      </c>
+      <c r="H111">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>64.661664537919577</v>
+      </c>
+      <c r="H112">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>65.006939491261448</v>
+      </c>
+      <c r="H113">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>64.959315359766023</v>
+      </c>
+      <c r="H114">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>65.340308411729453</v>
+      </c>
+      <c r="H115">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>63.459155217659983</v>
+      </c>
+      <c r="H116">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>66.030858318413181</v>
+      </c>
+      <c r="H117">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>63.82824223674956</v>
+      </c>
+      <c r="H118">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>63.542497447776981</v>
+      </c>
+      <c r="H119">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>64.709288669415002</v>
+      </c>
+      <c r="H120">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>59.911157421250472</v>
+      </c>
+      <c r="H121">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>63.21037237656585</v>
+      </c>
+      <c r="H122">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>63.547897841290656</v>
+      </c>
+      <c r="H123">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>63.501342604776895</v>
+      </c>
+      <c r="H124">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>63.873784496887019</v>
+      </c>
+      <c r="H125">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>62.034852654593259</v>
+      </c>
+      <c r="H126">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>64.548835426336623</v>
+      </c>
+      <c r="H127">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>62.395655737574941</v>
+      </c>
+      <c r="H128">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>62.116324318492346</v>
+      </c>
+      <c r="H129">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>63.256927613079611</v>
+      </c>
+      <c r="H130">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>58.566487534317687</v>
+      </c>
+      <c r="H131">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>62.92783038539762</v>
+      </c>
+      <c r="H132">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>63.263847156006449</v>
+      </c>
+      <c r="H133">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>63.217500015232822</v>
+      </c>
+      <c r="H134">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>63.588277141421869</v>
+      </c>
+      <c r="H135">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>61.757565080863436</v>
+      </c>
+      <c r="H136">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>64.260310682639513</v>
+      </c>
+      <c r="H137">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>62.116755421859075</v>
+      </c>
+      <c r="H138">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>61.838672577217288</v>
+      </c>
+      <c r="H139">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>62.974177526171246</v>
+      </c>
+      <c r="H140">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>58.304703093227921</v>
+      </c>
+      <c r="H141">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>63.202167596987337</v>
+      </c>
+      <c r="H142">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>63.539649250515716</v>
+      </c>
+      <c r="H143">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>63.493100056925599</v>
+      </c>
+      <c r="H144">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>63.86549360564657</v>
+      </c>
+      <c r="H145">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>62.026800458836775</v>
+      </c>
+      <c r="H146">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>64.540456912703334</v>
+      </c>
+      <c r="H147">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>62.387556709160208</v>
+      </c>
+      <c r="H148">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>62.108261547619485</v>
+      </c>
+      <c r="H149">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>63.248716790577454</v>
+      </c>
+      <c r="H150">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>58.558885536372728</v>
+      </c>
+      <c r="H151">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>63.914115435513999</v>
+      </c>
+      <c r="H152">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>58.786939142335406</v>
+      </c>
+      <c r="H153">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>64.253586012002998</v>
+      </c>
+      <c r="I154" s="5"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>61.689997865413694</v>
+      </c>
+      <c r="D155">
+        <v>0.05</v>
+      </c>
+      <c r="E155">
+        <v>69.637767494939496</v>
+      </c>
+      <c r="F155">
+        <v>65.367009018817399</v>
+      </c>
+      <c r="G155">
+        <v>66.855673401922814</v>
+      </c>
+      <c r="H155">
+        <v>71.638922895179576</v>
+      </c>
+      <c r="I155">
+        <v>64.549463824816883</v>
+      </c>
+      <c r="J155">
+        <v>65.330402517593498</v>
+      </c>
+      <c r="K155">
+        <v>64.0613771418315</v>
+      </c>
+      <c r="L155">
+        <v>69.259500315625829</v>
+      </c>
+      <c r="M155">
+        <v>65.305998183444231</v>
+      </c>
+      <c r="N155">
+        <v>67.648814261774064</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="5">
+        <v>75.022997404067624</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>61.760233157101069</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>62.485997837870649</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>63.281997810327596</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>57.323703898848365</v>
+      </c>
+      <c r="I160" s="5"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>65.166644803938908</v>
+      </c>
+      <c r="D161">
+        <v>0.05</v>
+      </c>
+      <c r="E161">
+        <v>68.630062198509592</v>
+      </c>
+      <c r="F161">
+        <v>64.421104467744158</v>
+      </c>
+      <c r="G161">
+        <v>65.888226876753833</v>
+      </c>
+      <c r="H161">
+        <v>70.602259535211118</v>
+      </c>
+      <c r="I161">
+        <v>63.61538970214049</v>
+      </c>
+      <c r="J161">
+        <v>64.385027687194736</v>
+      </c>
+      <c r="K161">
+        <v>63.134365961481578</v>
+      </c>
+      <c r="L161">
+        <v>68.257268799498945</v>
+      </c>
+      <c r="M161">
+        <v>64.360976500161797</v>
+      </c>
+      <c r="N161">
+        <v>66.669890455324548</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>64.884242401559106</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>59.679242736379095</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>65.228865667061896</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>62.626365834471876</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" s="5">
+        <v>76.16174167611581</v>
+      </c>
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>62.697667199748317</v>
+      </c>
+      <c r="D167">
+        <v>0.05</v>
+      </c>
+      <c r="E167">
+        <v>70.805473643959758</v>
+      </c>
+      <c r="F167">
+        <v>66.463101859241704</v>
+      </c>
+      <c r="G167">
+        <v>67.97672859562914</v>
+      </c>
+      <c r="H167">
+        <v>72.840184994513365</v>
+      </c>
+      <c r="I167">
+        <v>65.631847831881387</v>
+      </c>
+      <c r="J167">
+        <v>66.425881529658412</v>
+      </c>
+      <c r="K167">
+        <v>65.135576770770754</v>
+      </c>
+      <c r="L167">
+        <v>70.420863571599014</v>
+      </c>
+      <c r="M167">
+        <v>66.401067976602874</v>
+      </c>
+      <c r="N167">
+        <v>68.783169069933919</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>63.434447974271521</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>64.242530114071158</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>58.193797626453289</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>66.155783415655591</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>62.793117663600945</v>
+      </c>
+      <c r="I172" s="5"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>57.75586756531208</v>
+      </c>
+      <c r="D173">
+        <v>0.05</v>
+      </c>
+      <c r="E173">
+        <v>57.836632442184033</v>
+      </c>
+      <c r="F173">
+        <v>54.289616259467302</v>
+      </c>
+      <c r="G173">
+        <v>55.526004757442841</v>
+      </c>
+      <c r="H173">
+        <v>59.49866288208559</v>
+      </c>
+      <c r="I173">
+        <v>53.610616018775808</v>
+      </c>
+      <c r="J173">
+        <v>54.259213263615436</v>
+      </c>
+      <c r="K173">
+        <v>53.205242740751039</v>
+      </c>
+      <c r="L173">
+        <v>57.52246815171484</v>
+      </c>
+      <c r="M173">
+        <v>54.238944599714202</v>
+      </c>
+      <c r="N173">
+        <v>56.184736334233094</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>63.126634222620069</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>60.608009173475637</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" s="5">
+        <v>73.707159543226823</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>60.677012599479596</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>61.390048001520491</v>
+      </c>
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>62.17208682956533</v>
+      </c>
+      <c r="D179">
+        <v>0.05</v>
+      </c>
+      <c r="E179">
+        <v>62.115384651684622</v>
+      </c>
+      <c r="F179">
+        <v>58.305960325753375</v>
+      </c>
+      <c r="G179">
+        <v>59.633816805077984</v>
+      </c>
+      <c r="H179">
+        <v>63.900372050120978</v>
+      </c>
+      <c r="I179">
+        <v>57.576727669075105</v>
+      </c>
+      <c r="J179">
+        <v>58.273308117245392</v>
+      </c>
+      <c r="K179">
+        <v>57.141364888968681</v>
+      </c>
+      <c r="L179">
+        <v>61.77797849710214</v>
+      </c>
+      <c r="M179">
+        <v>58.251539978240075</v>
+      </c>
+      <c r="N179">
+        <v>60.341281322750923</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>56.318296190229646</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>64.023678760671515</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>62.600632841097941</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>57.578823832965909</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>62.933127044832709</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>60.42222254076669</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" s="5">
+        <v>73.481219025384007</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>60.491014444987677</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>61.201864121937881</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>61.981505703109057</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>56.145659161695356</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>63.82742179970554</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>62.847785831563165</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>57.806150264855354</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>63.181592752646559</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>60.660774969292653</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="5">
+        <v>73.7713295594301</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>60.72983847020646</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>61.443494646315784</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>62.226214323338915</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>56.367327329151074</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>64.079418264526041</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Glass-Compound-Analysis/dataset/Add_features.xlsx
+++ b/Glass-Compound-Analysis/dataset/Add_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Machine_Learning_with_TensorFlow\Glass-Compound-Analysis\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2493055A-5704-49B0-BA7E-447ABEF68455}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAB3392-87D8-43CA-980A-84B35D5B73B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5242,8 +5242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CE30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K30"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12913,10 +12913,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3922BCE-2639-4CF8-BB49-23A2E999D01D}">
-  <dimension ref="A1:N201"/>
+  <dimension ref="A1:U251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178:N178"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12931,7 +12931,7 @@
     <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>60.505570734569638</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>61.749309150887406</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>60.20615222693759</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>62.014179369177299</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>62.83182221694176</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>64.017980151022584</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>59.975830297989859</v>
       </c>
@@ -13138,8 +13138,20 @@
       <c r="H8">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>59.79157275483167</v>
       </c>
@@ -13164,8 +13176,20 @@
       <c r="H9">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60.378893673648392</v>
       </c>
@@ -13190,8 +13214,20 @@
       <c r="H10">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60.240700516279752</v>
       </c>
@@ -13216,253 +13252,333 @@
       <c r="H11">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>60.233516588594334</v>
       </c>
+      <c r="B12">
+        <v>20.179983224008186</v>
+      </c>
+      <c r="C12" s="4">
+        <v>33.32687228991675</v>
+      </c>
       <c r="H12">
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>61.471662723266626</v>
       </c>
+      <c r="B13">
+        <v>20.594798257923852</v>
+      </c>
+      <c r="C13" s="4">
+        <v>34.01193171270149</v>
+      </c>
       <c r="H13">
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>59.935444370988044</v>
       </c>
+      <c r="B14">
+        <v>20.080120345472938</v>
+      </c>
+      <c r="C14" s="4">
+        <v>33.161950577024129</v>
+      </c>
       <c r="H14">
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>61.735341992687573</v>
       </c>
+      <c r="B15">
+        <v>20.683138496628111</v>
+      </c>
+      <c r="C15" s="4">
+        <v>34.157823997183428</v>
+      </c>
       <c r="H15">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>62.549308433073989</v>
       </c>
+      <c r="B16">
+        <v>20.955840972628224</v>
+      </c>
+      <c r="C16" s="4">
+        <v>34.60818713623636</v>
+      </c>
       <c r="H16">
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>63.730132987437372</v>
       </c>
+      <c r="B17">
+        <v>21.351451606825567</v>
+      </c>
+      <c r="C17" s="4">
+        <v>35.261530845003286</v>
+      </c>
       <c r="H17">
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>59.706158049752446</v>
       </c>
+      <c r="B18">
+        <v>20.003302746599669</v>
+      </c>
+      <c r="C18" s="4">
+        <v>33.035087720952887</v>
+      </c>
       <c r="H18">
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>59.522728992763959</v>
       </c>
+      <c r="B19">
+        <v>19.941848667501052</v>
+      </c>
+      <c r="C19" s="4">
+        <v>32.933597436095894</v>
+      </c>
       <c r="H19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>60.107409111914762</v>
       </c>
+      <c r="B20">
+        <v>20.137733544627892</v>
+      </c>
+      <c r="C20" s="4">
+        <v>33.257097719077578</v>
+      </c>
       <c r="H20">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>59.969837319173386</v>
       </c>
+      <c r="B21">
+        <v>20.091642985303928</v>
+      </c>
+      <c r="C21" s="4">
+        <v>33.180980005434819</v>
+      </c>
       <c r="H21">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>61.775623513456317</v>
       </c>
+      <c r="B22">
+        <v>19.950840951849411</v>
+      </c>
+      <c r="C22" s="4">
+        <v>35.174502244323769</v>
+      </c>
       <c r="H22">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>63.045468838818579</v>
       </c>
+      <c r="B23">
+        <v>20.360945790600791</v>
+      </c>
+      <c r="C23" s="4">
+        <v>35.897541118017529</v>
+      </c>
       <c r="H23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>61.469920009202447</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B24">
+        <v>19.852112009187046</v>
+      </c>
+      <c r="C24" s="4">
+        <v>35.000437330286388</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24">
         <v>0.01</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>63.315898861812386</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="B25">
+        <v>20.448282932186732</v>
+      </c>
+      <c r="C25" s="4">
+        <v>36.051521618896743</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25">
         <v>0.01</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>64.150704584967215</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="B26">
+        <v>20.717888890995511</v>
+      </c>
+      <c r="C26" s="4">
+        <v>36.526852730306537</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26">
         <v>0.01</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>65.361760774896027</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="B27">
+        <v>21.109007394619507</v>
+      </c>
+      <c r="C27" s="4">
+        <v>37.216417582070022</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27">
         <v>0.01</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>61.234763467468696</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="B28">
+        <v>19.776166668677533</v>
+      </c>
+      <c r="C28" s="4">
+        <v>34.866541242565319</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28">
         <v>0.01</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>61.046638234081698</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="B29">
+        <v>19.71541039626992</v>
+      </c>
+      <c r="C29" s="4">
+        <v>34.759424372388473</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29">
         <v>0.01</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>61.646287415502762</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="B30">
+        <v>19.909071014569182</v>
+      </c>
+      <c r="C30" s="4">
+        <v>35.100859396077183</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30">
         <v>0.01</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>61.50519349046251</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="B31">
+        <v>19.86350381026347</v>
+      </c>
+      <c r="C31" s="4">
+        <v>35.020521743444547</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31">
         <v>0.01</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>60.065644627839426</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="B32">
+        <v>20.058997843630959</v>
+      </c>
+      <c r="C32" s="4">
+        <v>33.320314169664812</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -13471,16 +13587,17 @@
         <v>0.01</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>61.300340025594792</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33">
+        <v>20.471325930252991</v>
+      </c>
+      <c r="C33" s="4">
+        <v>34.005238785257475</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -13489,16 +13606,17 @@
         <v>0.01</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>59.768403143194618</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34">
+        <v>20.058997843630959</v>
+      </c>
+      <c r="C34" s="4">
+        <v>33.023072685020011</v>
+      </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -13507,16 +13625,17 @@
         <v>0.01</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>61.563284415857503</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="B35">
+        <v>20.559136541292865</v>
+      </c>
+      <c r="C35" s="4">
+        <v>34.151102360800351</v>
+      </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -13525,16 +13644,17 @@
         <v>0.01</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>62.374982316233719</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="B36">
+        <v>20.830204079720314</v>
+      </c>
+      <c r="C36" s="4">
+        <v>34.601376876606636</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -13543,16 +13663,17 @@
         <v>0.01</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>63.552515890018917</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37">
+        <v>21.223442903072804</v>
+      </c>
+      <c r="C37" s="4">
+        <v>35.254592019255178</v>
+      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -13561,16 +13682,17 @@
         <v>0.01</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>59.539755847313998</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="B38">
+        <v>19.883376621551207</v>
+      </c>
+      <c r="C38" s="4">
+        <v>33.02858701857906</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -13579,16 +13701,17 @@
         <v>0.01</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>59.356838010609501</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="B39">
+        <v>19.822290979088685</v>
+      </c>
+      <c r="C39" s="4">
+        <v>32.927116705157921</v>
+      </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -13597,16 +13720,17 @@
         <v>0.01</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>59.93988861510509</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="B40">
+        <v>20.017001464437978</v>
+      </c>
+      <c r="C40" s="4">
+        <v>33.250553329187788</v>
+      </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -13615,16 +13739,17 @@
         <v>0.01</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>59.802700237576708</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="B41">
+        <v>19.971187232591085</v>
+      </c>
+      <c r="C41" s="4">
+        <v>33.174450594121929</v>
+      </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -13633,16 +13758,17 @@
         <v>0.01</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>58.219074322103502</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="B42">
+        <v>19.949220511277989</v>
+      </c>
+      <c r="C42" s="4">
+        <v>31.620113640399516</v>
+      </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -13654,13 +13780,26 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>59.415812050841076</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="B43">
+        <v>20.359292040630489</v>
+      </c>
+      <c r="C43" s="4">
+        <v>32.270089330000424</v>
+      </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -13672,13 +13811,26 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>57.930970794814833</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="B44">
+        <v>19.850499587544981</v>
+      </c>
+      <c r="C44" s="4">
+        <v>31.463638011421526</v>
+      </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -13690,13 +13842,26 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>59.67067286344259</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="B45">
+        <v>20.44662208854815</v>
+      </c>
+      <c r="C45" s="4">
+        <v>32.408510078711728</v>
+      </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -13709,12 +13874,16 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>60.457417111038595</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="B46">
+        <v>20.716206149511368</v>
+      </c>
+      <c r="C46" s="4">
+        <v>32.835808911690108</v>
+      </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -13727,12 +13896,16 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>61.598750315297565</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="B47">
+        <v>21.107292885838287</v>
+      </c>
+      <c r="C47" s="4">
+        <v>33.455693134179853</v>
+      </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -13745,9 +13918,15 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>57.709352696900474</v>
+      </c>
+      <c r="B48">
+        <v>19.774560415442668</v>
+      </c>
+      <c r="C48" s="4">
+        <v>31.343272142976918</v>
       </c>
       <c r="H48">
         <v>0.01</v>
@@ -13757,6 +13936,12 @@
       <c r="A49">
         <v>57.532058218568984</v>
       </c>
+      <c r="B49">
+        <v>19.713809077760818</v>
+      </c>
+      <c r="C49" s="4">
+        <v>31.246979448221229</v>
+      </c>
       <c r="H49">
         <v>0.01</v>
       </c>
@@ -13765,6 +13950,12 @@
       <c r="A50">
         <v>58.097184368250609</v>
       </c>
+      <c r="B50">
+        <v>19.90745396662172</v>
+      </c>
+      <c r="C50" s="4">
+        <v>31.553912412754983</v>
+      </c>
       <c r="H50">
         <v>0.01</v>
       </c>
@@ -13773,6 +13964,12 @@
       <c r="A51">
         <v>57.964213509501988</v>
       </c>
+      <c r="B51">
+        <v>19.861890463360329</v>
+      </c>
+      <c r="C51" s="4">
+        <v>31.481692891688219</v>
+      </c>
       <c r="H51">
         <v>0.01</v>
       </c>
@@ -13781,6 +13978,12 @@
       <c r="A52">
         <v>60.865441389529444</v>
       </c>
+      <c r="B52">
+        <v>20.793221611679392</v>
+      </c>
+      <c r="C52" s="4">
+        <v>33.141145907290252</v>
+      </c>
       <c r="H52">
         <v>0.02</v>
       </c>
@@ -13789,6 +13992,12 @@
       <c r="A53">
         <v>61.719309092476081</v>
       </c>
+      <c r="B53">
+        <v>21.08492508033245</v>
+      </c>
+      <c r="C53" s="4">
+        <v>33.606075652032814</v>
+      </c>
       <c r="H53">
         <v>0.02</v>
       </c>
@@ -13797,6 +14006,12 @@
       <c r="A54">
         <v>59.60653387877479</v>
       </c>
+      <c r="B54">
+        <v>20.36314598481912</v>
+      </c>
+      <c r="C54" s="4">
+        <v>32.455672565682633</v>
+      </c>
       <c r="H54">
         <v>0.02</v>
       </c>
@@ -13805,6 +14020,12 @@
       <c r="A55">
         <v>50.454823626680074</v>
       </c>
+      <c r="B55">
+        <v>17.236683166947902</v>
+      </c>
+      <c r="C55" s="4">
+        <v>27.472579404082872</v>
+      </c>
       <c r="H55">
         <v>0.02</v>
       </c>
@@ -13813,6 +14034,12 @@
       <c r="A56">
         <v>60.471348603554077</v>
       </c>
+      <c r="B56">
+        <v>20.658589241531832</v>
+      </c>
+      <c r="C56" s="4">
+        <v>32.926562948178301</v>
+      </c>
       <c r="H56">
         <v>0.02</v>
       </c>
@@ -13821,6 +14048,12 @@
       <c r="A57">
         <v>62.879693406736891</v>
       </c>
+      <c r="B57">
+        <v>21.481342614655834</v>
+      </c>
+      <c r="C57" s="4">
+        <v>25.140928110930986</v>
+      </c>
       <c r="H57">
         <v>0.02</v>
       </c>
@@ -13829,6 +14062,12 @@
       <c r="A58">
         <v>53.782718263805428</v>
       </c>
+      <c r="B58">
+        <v>18.373578737082891</v>
+      </c>
+      <c r="C58" s="4">
+        <v>29.284613281028243</v>
+      </c>
       <c r="H58">
         <v>0.02</v>
       </c>
@@ -13837,6 +14076,12 @@
       <c r="A59">
         <v>57.778381232722374</v>
       </c>
+      <c r="B59">
+        <v>19.738601378856806</v>
+      </c>
+      <c r="C59" s="4">
+        <v>31.460246060913299</v>
+      </c>
       <c r="H59">
         <v>0.02</v>
       </c>
@@ -13845,6 +14090,12 @@
       <c r="A60">
         <v>59.475169616782999</v>
       </c>
+      <c r="B60">
+        <v>20.318268528103264</v>
+      </c>
+      <c r="C60" s="4">
+        <v>32.384144912645311</v>
+      </c>
       <c r="H60">
         <v>0.02</v>
       </c>
@@ -13853,6 +14104,12 @@
       <c r="A61">
         <v>56.399056481808586</v>
       </c>
+      <c r="B61">
+        <v>19.267388083340332</v>
+      </c>
+      <c r="C61" s="4">
+        <v>30.709205704021478</v>
+      </c>
       <c r="H61">
         <v>0.02</v>
       </c>
@@ -13861,6 +14118,12 @@
       <c r="A62">
         <v>64.445426316065038</v>
       </c>
+      <c r="B62">
+        <v>20.0723041697408</v>
+      </c>
+      <c r="C62" s="4">
+        <v>37.682354089743974</v>
+      </c>
       <c r="H62">
         <v>0.02</v>
       </c>
@@ -13869,6 +14132,12 @@
       <c r="A63">
         <v>65.349516829132142</v>
       </c>
+      <c r="B63">
+        <v>20.353894048381051</v>
+      </c>
+      <c r="C63" s="4">
+        <v>38.210991431290743</v>
+      </c>
       <c r="H63">
         <v>0.02</v>
       </c>
@@ -13877,6 +14146,12 @@
       <c r="A64">
         <v>63.112472354491757</v>
       </c>
+      <c r="B64">
+        <v>19.657139605078896</v>
+      </c>
+      <c r="C64" s="4">
+        <v>36.902952881053231</v>
+      </c>
       <c r="H64">
         <v>0.02</v>
       </c>
@@ -13885,6 +14160,12 @@
       <c r="A65">
         <v>53.42247659905464</v>
       </c>
+      <c r="B65">
+        <v>16.639073726319307</v>
+      </c>
+      <c r="C65" s="4">
+        <v>31.237044963962234</v>
+      </c>
       <c r="H65">
         <v>0.02</v>
       </c>
@@ -13893,6 +14174,12 @@
       <c r="A66">
         <v>64.028153771572534</v>
       </c>
+      <c r="B66">
+        <v>19.942339610368379</v>
+      </c>
+      <c r="C66" s="4">
+        <v>37.438367624414695</v>
+      </c>
       <c r="H66">
         <v>0.02</v>
       </c>
@@ -13901,6 +14188,12 @@
       <c r="A67">
         <v>66.578152654582297</v>
       </c>
+      <c r="B67">
+        <v>20.736567473199848</v>
+      </c>
+      <c r="C67" s="4">
+        <v>38.929396023649169</v>
+      </c>
       <c r="H67">
         <v>0.02</v>
       </c>
@@ -13909,6 +14202,12 @@
       <c r="A68">
         <v>56.946111419213594</v>
       </c>
+      <c r="B68">
+        <v>17.736552227686431</v>
+      </c>
+      <c r="C68" s="4">
+        <v>33.297375115631688</v>
+      </c>
       <c r="H68">
         <v>0.02</v>
       </c>
@@ -13917,6 +14216,12 @@
       <c r="A69">
         <v>61.176791384207064</v>
       </c>
+      <c r="B69">
+        <v>19.054248454656822</v>
+      </c>
+      <c r="C69" s="4">
+        <v>35.771126777997971</v>
+      </c>
       <c r="H69">
         <v>0.02</v>
       </c>
@@ -13925,6 +14230,12 @@
       <c r="A70">
         <v>62.973381506327584</v>
       </c>
+      <c r="B70">
+        <v>19.613818085288088</v>
+      </c>
+      <c r="C70" s="4">
+        <v>36.8216240592768</v>
+      </c>
       <c r="H70">
         <v>0.02</v>
       </c>
@@ -13933,6 +14244,12 @@
       <c r="A71">
         <v>59.716337478483297</v>
       </c>
+      <c r="B71">
+        <v>18.599372496853348</v>
+      </c>
+      <c r="C71" s="4">
+        <v>34.917174149345499</v>
+      </c>
       <c r="H71">
         <v>0.02</v>
       </c>
@@ -13941,6 +14258,12 @@
       <c r="A72">
         <v>65.341752128367844</v>
       </c>
+      <c r="B72">
+        <v>20.254290650565142</v>
+      </c>
+      <c r="C72" s="4">
+        <v>38.336031260947657</v>
+      </c>
       <c r="H72">
         <v>0.02</v>
       </c>
@@ -13949,6 +14272,12 @@
       <c r="A73">
         <v>66.258416996355749</v>
       </c>
+      <c r="B73">
+        <v>20.538433576957964</v>
+      </c>
+      <c r="C73" s="4">
+        <v>38.87383889374513</v>
+      </c>
       <c r="H73">
         <v>0.02</v>
       </c>
@@ -13957,6 +14286,12 @@
       <c r="A74">
         <v>63.990259053770316</v>
       </c>
+      <c r="B74">
+        <v>19.83536197703727</v>
+      </c>
+      <c r="C74" s="4">
+        <v>37.543109751053962</v>
+      </c>
       <c r="H74">
         <v>0.02</v>
       </c>
@@ -13965,6 +14300,12 @@
       <c r="A75">
         <v>54.16549200713083</v>
       </c>
+      <c r="B75">
+        <v>16.789932663391141</v>
+      </c>
+      <c r="C75" s="4">
+        <v>31.778915122609309</v>
+      </c>
       <c r="H75">
         <v>0.02</v>
       </c>
@@ -13973,6 +14314,12 @@
       <c r="A76">
         <v>64.91867603545036</v>
       </c>
+      <c r="B76">
+        <v>20.123147761460768</v>
+      </c>
+      <c r="C76" s="4">
+        <v>38.08781235350267</v>
+      </c>
       <c r="H76">
         <v>0.02</v>
       </c>
@@ -13981,6 +14328,12 @@
       <c r="A77">
         <v>67.504141047723905</v>
       </c>
+      <c r="B77">
+        <v>20.924576528209744</v>
+      </c>
+      <c r="C77" s="4">
+        <v>39.604705676777584</v>
+      </c>
       <c r="H77">
         <v>0.02</v>
       </c>
@@ -13989,6 +14342,12 @@
       <c r="A78">
         <v>57.738134569545196</v>
       </c>
+      <c r="B78">
+        <v>17.897361504717008</v>
+      </c>
+      <c r="C78" s="4">
+        <v>33.874985896589187</v>
+      </c>
       <c r="H78">
         <v>0.02</v>
       </c>
@@ -13997,6 +14356,12 @@
       <c r="A79">
         <v>62.027656067180843</v>
       </c>
+      <c r="B79">
+        <v>19.227004685914178</v>
+      </c>
+      <c r="C79" s="4">
+        <v>36.391649819295274</v>
+      </c>
       <c r="H79">
         <v>0.02</v>
       </c>
@@ -14005,6 +14370,12 @@
       <c r="A80">
         <v>63.849233689464484</v>
       </c>
+      <c r="B80">
+        <v>19.79164768066914</v>
+      </c>
+      <c r="C80" s="4">
+        <v>37.460370115238966</v>
+      </c>
       <c r="H80">
         <v>0.02</v>
       </c>
@@ -14013,6 +14384,12 @@
       <c r="A81">
         <v>60.546889741969636</v>
       </c>
+      <c r="B81">
+        <v>18.768004574048852</v>
+      </c>
+      <c r="C81" s="4">
+        <v>35.522883643237833</v>
+      </c>
       <c r="H81">
         <v>0.02</v>
       </c>
@@ -14021,6 +14398,12 @@
       <c r="A82">
         <v>64.419126065281887</v>
       </c>
+      <c r="B82">
+        <v>20.342303612910019</v>
+      </c>
+      <c r="C82" s="4">
+        <v>37.296054581401862</v>
+      </c>
       <c r="H82">
         <v>0.02</v>
       </c>
@@ -14029,6 +14412,12 @@
       <c r="A83">
         <v>65.322847617996274</v>
       </c>
+      <c r="B83">
+        <v>20.627681253522788</v>
+      </c>
+      <c r="C83" s="4">
+        <v>37.819272613299226</v>
+      </c>
       <c r="H83">
         <v>0.02</v>
       </c>
@@ -14037,6 +14426,12 @@
       <c r="A84">
         <v>63.086716083715814</v>
       </c>
+      <c r="B84">
+        <v>20.342303612910019</v>
+      </c>
+      <c r="C84" s="4">
+        <v>35.963644599835789</v>
+      </c>
       <c r="H84">
         <v>0.02</v>
       </c>
@@ -14045,6 +14440,12 @@
       <c r="A85">
         <v>53.400674826418026</v>
       </c>
+      <c r="B85">
+        <v>16.862891610054369</v>
+      </c>
+      <c r="C85" s="4">
+        <v>30.916819346345534</v>
+      </c>
       <c r="H85">
         <v>0.02</v>
       </c>
@@ -14053,6 +14454,12 @@
       <c r="A86">
         <v>64.002023810182948</v>
       </c>
+      <c r="B86">
+        <v>20.21059085570413</v>
+      </c>
+      <c r="C86" s="4">
+        <v>37.054569335910777</v>
+      </c>
       <c r="H86">
         <v>0.02</v>
       </c>
@@ -14061,6 +14468,12 @@
       <c r="A87">
         <v>66.550982035787612</v>
       </c>
+      <c r="B87">
+        <v>21.015502149740136</v>
+      </c>
+      <c r="C87" s="4">
+        <v>38.530312502800768</v>
+      </c>
       <c r="H87">
         <v>0.02</v>
       </c>
@@ -14069,6 +14482,12 @@
       <c r="A88">
         <v>56.922871647253587</v>
       </c>
+      <c r="B88">
+        <v>17.975132670904127</v>
+      </c>
+      <c r="C88" s="4">
+        <v>32.956028086048086</v>
+      </c>
       <c r="H88">
         <v>0.02</v>
       </c>
@@ -14077,6 +14496,12 @@
       <c r="A89">
         <v>61.151825067006797</v>
       </c>
+      <c r="B89">
+        <v>19.310553681463865</v>
+      </c>
+      <c r="C89" s="4">
+        <v>35.404420158388312</v>
+      </c>
       <c r="H89">
         <v>0.02</v>
       </c>
@@ -14085,6 +14510,12 @@
       <c r="A90">
         <v>62.947681998682825</v>
       </c>
+      <c r="B90">
+        <v>19.877650274989232</v>
+      </c>
+      <c r="C90" s="4">
+        <v>36.444148298697186</v>
+      </c>
       <c r="H90">
         <v>0.02</v>
       </c>
@@ -14093,6 +14524,12 @@
       <c r="A91">
         <v>59.691967174160489</v>
       </c>
+      <c r="B91">
+        <v>18.849559031243242</v>
+      </c>
+      <c r="C91" s="4">
+        <v>34.559221799169499</v>
+      </c>
       <c r="H91">
         <v>0.02</v>
       </c>
@@ -14101,6 +14538,12 @@
       <c r="A92">
         <v>60.261955843810277</v>
       </c>
+      <c r="B92">
+        <v>20.928771371225444</v>
+      </c>
+      <c r="C92" s="4">
+        <v>32.356927348843016</v>
+      </c>
       <c r="H92">
         <v>0.02</v>
       </c>
@@ -14109,6 +14552,12 @@
       <c r="A93">
         <v>61.107357382626326</v>
       </c>
+      <c r="B93">
+        <v>21.22237643722465</v>
+      </c>
+      <c r="C93" s="4">
+        <v>32.810855466326792</v>
+      </c>
       <c r="H93">
         <v>0.02</v>
       </c>
@@ -14117,6 +14566,12 @@
       <c r="A94">
         <v>59.015530498119965</v>
       </c>
+      <c r="B94">
+        <v>20.49589210725226</v>
+      </c>
+      <c r="C94" s="4">
+        <v>31.687674355116954</v>
+      </c>
       <c r="H94">
         <v>0.02</v>
       </c>
@@ -14125,6 +14580,12 @@
       <c r="A95">
         <v>49.954560159014676</v>
       </c>
+      <c r="B95">
+        <v>17.349048066542821</v>
+      </c>
+      <c r="C95" s="4">
+        <v>26.822496070290917</v>
+      </c>
       <c r="H95">
         <v>0.02</v>
       </c>
@@ -14133,874 +14594,2740 @@
       <c r="A96">
         <v>59.871770518202879</v>
       </c>
+      <c r="B96">
+        <v>20.793261340764275</v>
+      </c>
+      <c r="C96" s="4">
+        <v>32.147422063850513</v>
+      </c>
       <c r="H96">
         <v>0.02</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>62.256236396914794</v>
       </c>
+      <c r="B97">
+        <v>21.621378193582547</v>
+      </c>
+      <c r="C97" s="4">
+        <v>33.427732138804728</v>
+      </c>
       <c r="H97">
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>53.249458464143878</v>
       </c>
+      <c r="B98">
+        <v>18.493354990437162</v>
+      </c>
+      <c r="C98" s="4">
+        <v>28.591651810227663</v>
+      </c>
       <c r="H98">
         <v>0.02</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>57.205504126552277</v>
       </c>
+      <c r="B99">
+        <v>19.867276132612933</v>
+      </c>
+      <c r="C99" s="4">
+        <v>30.715802616401703</v>
+      </c>
       <c r="H99">
         <v>0.02</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>58.885468722917494</v>
       </c>
+      <c r="B100">
+        <v>20.450722097098534</v>
+      </c>
+      <c r="C100" s="4">
+        <v>31.61783926011945</v>
+      </c>
       <c r="H100">
         <v>0.02</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>55.839855486926368</v>
       </c>
+      <c r="B101">
+        <v>19.392991025998832</v>
+      </c>
+      <c r="C101" s="4">
+        <v>29.982534118927926</v>
+      </c>
       <c r="H101">
         <v>0.02</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>60.199468829440576</v>
       </c>
+      <c r="B102">
+        <v>20.355720459362519</v>
+      </c>
+      <c r="C102" s="4">
+        <v>33.058508216957222</v>
+      </c>
       <c r="H102">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>60.520916922987574</v>
       </c>
+      <c r="B103">
+        <v>20.464414234601243</v>
+      </c>
+      <c r="C103" s="4">
+        <v>33.235031276852581</v>
+      </c>
       <c r="H103">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>60.476579254912131</v>
       </c>
+      <c r="B104">
+        <v>20.449421989740731</v>
+      </c>
+      <c r="C104" s="4">
+        <v>33.210683268591154</v>
+      </c>
       <c r="H104">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>60.831280599515722</v>
       </c>
+      <c r="B105">
+        <v>20.56935994862484</v>
+      </c>
+      <c r="C105" s="4">
+        <v>33.405467334682605</v>
+      </c>
       <c r="H105">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>59.079942710535491</v>
       </c>
+      <c r="B106">
+        <v>19.977166276634545</v>
+      </c>
+      <c r="C106" s="4">
+        <v>32.4437210083561</v>
+      </c>
       <c r="H106">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T106" s="4"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>61.474176786609732</v>
       </c>
+      <c r="B107">
+        <v>20.78674749910229</v>
+      </c>
+      <c r="C107" s="4">
+        <v>31.70789630598383</v>
+      </c>
       <c r="H107">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T107" s="4"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>59.423559638120217</v>
       </c>
+      <c r="B108">
+        <v>20.093356174303526</v>
+      </c>
+      <c r="C108" s="4">
+        <v>32.63241807238218</v>
+      </c>
       <c r="H108">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T108" s="4"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>59.157533629667526</v>
       </c>
+      <c r="B109">
+        <v>20.003402705140445</v>
+      </c>
+      <c r="C109" s="4">
+        <v>32.486330022813604</v>
+      </c>
       <c r="H109">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T109" s="4"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>60.243806497516019</v>
       </c>
+      <c r="B110">
+        <v>20.370712704223031</v>
+      </c>
+      <c r="C110" s="4">
+        <v>33.082856225218649</v>
+      </c>
       <c r="H110">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T110" s="4"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>55.776786438914563</v>
       </c>
+      <c r="B111">
+        <v>18.860244034526275</v>
+      </c>
+      <c r="C111" s="4">
+        <v>30.629794392879532</v>
+      </c>
       <c r="H111">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T111" s="4"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>64.661664537919577</v>
       </c>
+      <c r="B112">
+        <v>20.667371717314893</v>
+      </c>
+      <c r="C112" s="4">
+        <v>37.105168914833058</v>
+      </c>
       <c r="H112">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T112" s="4"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>65.006939491261448</v>
       </c>
+      <c r="B113">
+        <v>20.777729621900075</v>
+      </c>
+      <c r="C113" s="4">
+        <v>37.303299995394681</v>
+      </c>
       <c r="H113">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T113" s="4"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>64.959315359766023</v>
       </c>
+      <c r="B114">
+        <v>20.762507841957294</v>
+      </c>
+      <c r="C114" s="4">
+        <v>37.275971570489631</v>
+      </c>
       <c r="H114">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T114" s="4"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>65.340308411729453</v>
       </c>
+      <c r="B115">
+        <v>20.884282081499563</v>
+      </c>
+      <c r="C115" s="4">
+        <v>37.494598969730035</v>
+      </c>
       <c r="H115">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T115" s="4"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>63.459155217659983</v>
       </c>
+      <c r="B116">
+        <v>20.283021773759597</v>
+      </c>
+      <c r="C116" s="4">
+        <v>36.415126185980526</v>
+      </c>
       <c r="H116">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T116" s="4"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>66.030858318413181</v>
       </c>
+      <c r="B117">
+        <v>21.104997890669932</v>
+      </c>
+      <c r="C117" s="4">
+        <v>37.890861130853274</v>
+      </c>
       <c r="H117">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T117" s="4"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>63.82824223674956</v>
       </c>
+      <c r="B118">
+        <v>20.400990568316171</v>
+      </c>
+      <c r="C118" s="4">
+        <v>36.626921478994667</v>
+      </c>
       <c r="H118">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T118" s="4"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>63.542497447776981</v>
       </c>
+      <c r="B119">
+        <v>20.309659888659468</v>
+      </c>
+      <c r="C119" s="4">
+        <v>36.462950929564357</v>
+      </c>
       <c r="H119">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T119" s="4"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>64.709288669415002</v>
       </c>
+      <c r="B120">
+        <v>20.682593497257674</v>
+      </c>
+      <c r="C120" s="4">
+        <v>37.132497339738109</v>
+      </c>
       <c r="H120">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T120" s="4"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>59.911157421250472</v>
       </c>
+      <c r="B121">
+        <v>19.148999168022193</v>
+      </c>
+      <c r="C121" s="4">
+        <v>34.379158530554214</v>
+      </c>
       <c r="H121">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T121" s="4"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>63.21037237656585</v>
       </c>
+      <c r="B122">
+        <v>18.882754039410734</v>
+      </c>
+      <c r="C122" s="4">
+        <v>38.033366990684868</v>
+      </c>
       <c r="H122">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T122" s="4"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>63.547897841290656</v>
       </c>
+      <c r="B123">
+        <v>18.983582591637379</v>
+      </c>
+      <c r="C123" s="4">
+        <v>38.236454385774152</v>
+      </c>
       <c r="H123">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T123" s="4"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>63.501342604776895</v>
       </c>
+      <c r="B124">
+        <v>18.969675205123359</v>
+      </c>
+      <c r="C124" s="4">
+        <v>38.208442331279088</v>
+      </c>
       <c r="H124">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T124" s="4"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>63.873784496887019</v>
       </c>
+      <c r="B125">
+        <v>19.080934297235519</v>
+      </c>
+      <c r="C125" s="4">
+        <v>38.432538767239663</v>
+      </c>
       <c r="H125">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T125" s="4"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>62.034852654593259</v>
       </c>
+      <c r="B126">
+        <v>18.531592529931725</v>
+      </c>
+      <c r="C126" s="4">
+        <v>37.32606261468429</v>
+      </c>
       <c r="H126">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T126" s="4"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>64.548835426336623</v>
       </c>
+      <c r="B127">
+        <v>19.282591401688812</v>
+      </c>
+      <c r="C127" s="4">
+        <v>38.83871355741821</v>
+      </c>
       <c r="H127">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T127" s="4"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>62.395655737574941</v>
       </c>
+      <c r="B128">
+        <v>18.63937477541538</v>
+      </c>
+      <c r="C128" s="4">
+        <v>37.543156037021106</v>
+      </c>
       <c r="H128">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T128" s="4"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>62.116324318492346</v>
       </c>
+      <c r="B129">
+        <v>18.555930456331261</v>
+      </c>
+      <c r="C129" s="4">
+        <v>37.375083710050667</v>
+      </c>
       <c r="H129">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T129" s="4"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>63.256927613079611</v>
       </c>
+      <c r="B130">
+        <v>18.896661425924751</v>
+      </c>
+      <c r="C130" s="4">
+        <v>38.061379045179947</v>
+      </c>
       <c r="H130">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T130" s="4"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>58.566487534317687</v>
       </c>
+      <c r="B131">
+        <v>17.495492234637233</v>
+      </c>
+      <c r="C131" s="4">
+        <v>35.239164554801377</v>
+      </c>
       <c r="H131">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T131" s="4"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>62.92783038539762</v>
       </c>
+      <c r="B132">
+        <v>20.372591556338733</v>
+      </c>
+      <c r="C132" s="4">
+        <v>35.764374976945973</v>
+      </c>
       <c r="H132">
         <v>0.03</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>63.263847156006449</v>
       </c>
+      <c r="B133">
+        <v>20.481375418451385</v>
+      </c>
+      <c r="C133" s="4">
+        <v>35.955346598071273</v>
+      </c>
       <c r="H133">
         <v>0.03</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>63.217500015232822</v>
       </c>
+      <c r="B134">
+        <v>20.372591556338733</v>
+      </c>
+      <c r="C134" s="4">
+        <v>36.054044606781176</v>
+      </c>
       <c r="H134">
         <v>0.03</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>63.588277141421869</v>
       </c>
+      <c r="B135">
+        <v>20.586408112904984</v>
+      </c>
+      <c r="C135" s="4">
+        <v>36.139732990881896</v>
+      </c>
       <c r="H135">
         <v>0.03</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>61.757565080863436</v>
       </c>
+      <c r="B136">
+        <v>19.993723622773974</v>
+      </c>
+      <c r="C136" s="4">
+        <v>35.099266917164805</v>
+      </c>
       <c r="H136">
         <v>0.03</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>64.260310682639513</v>
       </c>
+      <c r="B137">
+        <v>20.803975837130292</v>
+      </c>
+      <c r="C137" s="4">
+        <v>36.52167623313246</v>
+      </c>
       <c r="H137">
         <v>0.03</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>62.116755421859075</v>
       </c>
+      <c r="B138">
+        <v>20.110009820204738</v>
+      </c>
+      <c r="C138" s="4">
+        <v>35.303408994919423</v>
+      </c>
       <c r="H138">
         <v>0.03</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>61.838672577217288</v>
       </c>
+      <c r="B139">
+        <v>20.01998179638737</v>
+      </c>
+      <c r="C139" s="4">
+        <v>35.145363515367464</v>
+      </c>
       <c r="H139">
         <v>0.03</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>62.974177526171246</v>
       </c>
+      <c r="B140">
+        <v>20.38759622697496</v>
+      </c>
+      <c r="C140" s="4">
+        <v>35.790715890204638</v>
+      </c>
       <c r="H140">
         <v>0.03</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>58.304703093227921</v>
       </c>
+      <c r="B141">
+        <v>18.875875660374977</v>
+      </c>
+      <c r="C141" s="4">
+        <v>33.136868879394619</v>
+      </c>
       <c r="H141">
         <v>0.03</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>63.202167596987337</v>
       </c>
+      <c r="B142">
+        <v>20.384369825580386</v>
+      </c>
+      <c r="C142" s="4">
+        <v>36.023007829546827</v>
+      </c>
       <c r="H142">
         <v>0.03</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>63.539649250515716</v>
       </c>
+      <c r="B143">
+        <v>20.493216580310975</v>
+      </c>
+      <c r="C143" s="4">
+        <v>36.215360476767749</v>
+      </c>
       <c r="H143">
         <v>0.03</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>63.493100056925599</v>
       </c>
+      <c r="B144">
+        <v>20.478203234830897</v>
+      </c>
+      <c r="C144" s="4">
+        <v>36.18882907715107</v>
+      </c>
       <c r="H144">
         <v>0.03</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>63.86549360564657</v>
       </c>
+      <c r="B145">
+        <v>20.598309998671546</v>
+      </c>
+      <c r="C145" s="4">
+        <v>36.401080274084507</v>
+      </c>
       <c r="H145">
         <v>0.03</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>62.026800458836775</v>
       </c>
+      <c r="B146">
+        <v>20.005282852208332</v>
+      </c>
+      <c r="C146" s="4">
+        <v>35.353089989225666</v>
+      </c>
       <c r="H146">
         <v>0.03</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>64.540456912703334</v>
       </c>
+      <c r="B147">
+        <v>20.816003508132724</v>
+      </c>
+      <c r="C147" s="4">
+        <v>36.785785568526371</v>
+      </c>
       <c r="H147">
         <v>0.03</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>62.387556709160208</v>
       </c>
+      <c r="B148">
+        <v>20.121636279678963</v>
+      </c>
+      <c r="C148" s="4">
+        <v>35.558708336254924</v>
+      </c>
       <c r="H148">
         <v>0.03</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>62.108261547619485</v>
       </c>
+      <c r="B149">
+        <v>20.031556206798474</v>
+      </c>
+      <c r="C149" s="4">
+        <v>35.399519938554853</v>
+      </c>
       <c r="H149">
         <v>0.03</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>63.248716790577454</v>
       </c>
+      <c r="B150">
+        <v>20.399383171060464</v>
+      </c>
+      <c r="C150" s="4">
+        <v>36.0495392291635</v>
+      </c>
       <c r="H150">
         <v>0.03</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>58.558885536372728</v>
       </c>
+      <c r="B151">
+        <v>18.886788613942276</v>
+      </c>
+      <c r="C151" s="4">
+        <v>33.376500717783031</v>
+      </c>
       <c r="H151">
         <v>0.03</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>63.914115435513999</v>
       </c>
+      <c r="B152">
+        <v>20.682717906767191</v>
+      </c>
+      <c r="C152" s="4">
+        <v>36.337158226491077</v>
+      </c>
       <c r="H152">
         <v>0.04</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>58.786939142335406</v>
       </c>
+      <c r="B153">
+        <v>19.023554821938614</v>
+      </c>
+      <c r="C153" s="4">
+        <v>33.422199379750587</v>
+      </c>
       <c r="H153">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
+      <c r="R153" s="4"/>
+      <c r="S153" s="4"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>64.253586012002998</v>
       </c>
-      <c r="I154" s="5"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>20.792571170374561</v>
+      </c>
+      <c r="C154" s="4">
+        <v>36.530157784836916</v>
+      </c>
+      <c r="H154">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>61.689997865413694</v>
       </c>
-      <c r="D155">
-        <v>0.05</v>
-      </c>
-      <c r="E155">
-        <v>69.637767494939496</v>
-      </c>
-      <c r="F155">
-        <v>65.367009018817399</v>
-      </c>
-      <c r="G155">
-        <v>66.855673401922814</v>
+      <c r="B155">
+        <v>19.962989627960273</v>
+      </c>
+      <c r="C155" s="4">
+        <v>35.072678361466664</v>
       </c>
       <c r="H155">
-        <v>71.638922895179576</v>
-      </c>
-      <c r="I155">
-        <v>64.549463824816883</v>
-      </c>
-      <c r="J155">
-        <v>65.330402517593498</v>
-      </c>
-      <c r="K155">
-        <v>64.0613771418315</v>
-      </c>
-      <c r="L155">
-        <v>69.259500315625829</v>
-      </c>
-      <c r="M155">
-        <v>65.305998183444231</v>
-      </c>
-      <c r="N155">
-        <v>67.648814261774064</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>75.022997404067624</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B156" s="5">
+        <v>24.277571257229106</v>
+      </c>
+      <c r="C156" s="4">
+        <v>42.652902394428821</v>
+      </c>
+      <c r="H156">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>61.760233157101069</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>19.98571788939628</v>
+      </c>
+      <c r="C157" s="4">
+        <v>35.838373985342272</v>
+      </c>
+      <c r="H157">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>62.485997837870649</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>20.220576590901697</v>
+      </c>
+      <c r="C158" s="4">
+        <v>35.52522905000172</v>
+      </c>
+      <c r="H158">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>63.281997810327596</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>20.478163553843117</v>
+      </c>
+      <c r="C159" s="4">
+        <v>35.977779738536775</v>
+      </c>
+      <c r="H159">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>57.323703898848365</v>
       </c>
-      <c r="I160" s="5"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>18.550049375355119</v>
+      </c>
+      <c r="C160" s="4">
+        <v>32.590304731708208</v>
+      </c>
+      <c r="H160">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>65.166644803938908</v>
       </c>
-      <c r="D161">
-        <v>0.05</v>
-      </c>
-      <c r="E161">
-        <v>68.630062198509592</v>
-      </c>
-      <c r="F161">
-        <v>64.421104467744158</v>
-      </c>
-      <c r="G161">
-        <v>65.888226876753833</v>
+      <c r="B161">
+        <v>21.088038569042666</v>
+      </c>
+      <c r="C161" s="4">
+        <v>37.049260045215355</v>
       </c>
       <c r="H161">
-        <v>70.602259535211118</v>
-      </c>
-      <c r="I161">
-        <v>63.61538970214049</v>
-      </c>
-      <c r="J161">
-        <v>64.385027687194736</v>
-      </c>
-      <c r="K161">
-        <v>63.134365961481578</v>
-      </c>
-      <c r="L161">
-        <v>68.257268799498945</v>
-      </c>
-      <c r="M161">
-        <v>64.360976500161797</v>
-      </c>
-      <c r="N161">
-        <v>66.669890455324548</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>64.884242401559106</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>20.492432363009954</v>
+      </c>
+      <c r="C162" s="4">
+        <v>37.560999250879171</v>
+      </c>
+      <c r="H162">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>59.679242736379095</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>18.848533942680586</v>
+      </c>
+      <c r="C163" s="4">
+        <v>34.547864146138316</v>
+      </c>
+      <c r="H163">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>65.228865667061896</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>20.601274952483816</v>
+      </c>
+      <c r="C164" s="4">
+        <v>37.760499063750146</v>
+      </c>
+      <c r="H164">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>62.626365834471876</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>19.779325742319131</v>
+      </c>
+      <c r="C165" s="4">
+        <v>36.253931511379704</v>
+      </c>
+      <c r="H165">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>76.16174167611581</v>
       </c>
-      <c r="I166" s="5"/>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B166" s="5">
+        <v>24.054212273723586</v>
+      </c>
+      <c r="C166" s="4">
+        <v>44.089458644484367</v>
+      </c>
+      <c r="H166">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>62.697667199748317</v>
       </c>
-      <c r="D167">
-        <v>0.05</v>
-      </c>
-      <c r="E167">
-        <v>70.805473643959758</v>
-      </c>
-      <c r="F167">
-        <v>66.463101859241704</v>
-      </c>
-      <c r="G167">
-        <v>67.97672859562914</v>
+      <c r="B167">
+        <v>19.801844898761999</v>
+      </c>
+      <c r="C167" s="4">
+        <v>36.295207334732318</v>
       </c>
       <c r="H167">
-        <v>72.840184994513365</v>
-      </c>
-      <c r="I167">
-        <v>65.631847831881387</v>
-      </c>
-      <c r="J167">
-        <v>66.425881529658412</v>
-      </c>
-      <c r="K167">
-        <v>65.135576770770754</v>
-      </c>
-      <c r="L167">
-        <v>70.420863571599014</v>
-      </c>
-      <c r="M167">
-        <v>66.401067976602874</v>
-      </c>
-      <c r="N167">
-        <v>68.783169069933919</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>63.434447974271521</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>20.034542848671634</v>
+      </c>
+      <c r="C168" s="4">
+        <v>36.721724176042677</v>
+      </c>
+      <c r="H168">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>64.242530114071158</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>20.289759955024138</v>
+      </c>
+      <c r="C169" s="4">
+        <v>37.189516840705643</v>
+      </c>
+      <c r="H169">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>58.193797626453289</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>18.379384850120832</v>
+      </c>
+      <c r="C170" s="4">
+        <v>33.687951159625513</v>
+      </c>
+      <c r="H170">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>66.155783415655591</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>20.894023986241102</v>
+      </c>
+      <c r="C171" s="4">
+        <v>38.297084767334127</v>
+      </c>
+      <c r="H171">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>62.793117663600945</v>
       </c>
-      <c r="I172" s="5"/>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>20.146123936294693</v>
+      </c>
+      <c r="C172" s="4">
+        <v>35.931619081874686</v>
+      </c>
+      <c r="H172">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>57.75586756531208</v>
       </c>
-      <c r="D173">
-        <v>0.05</v>
-      </c>
-      <c r="E173">
-        <v>57.836632442184033</v>
-      </c>
-      <c r="F173">
-        <v>54.289616259467302</v>
-      </c>
-      <c r="G173">
-        <v>55.526004757442841</v>
+      <c r="B173">
+        <v>18.530006301844679</v>
+      </c>
+      <c r="C173" s="4">
+        <v>33.049192496185839</v>
       </c>
       <c r="H173">
-        <v>59.49866288208559</v>
-      </c>
-      <c r="I173">
-        <v>53.610616018775808</v>
-      </c>
-      <c r="J173">
-        <v>54.259213263615436</v>
-      </c>
-      <c r="K173">
-        <v>53.205242740751039</v>
-      </c>
-      <c r="L173">
-        <v>57.52246815171484</v>
-      </c>
-      <c r="M173">
-        <v>54.238944599714202</v>
-      </c>
-      <c r="N173">
-        <v>56.184736334233094</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>63.126634222620069</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>20.253127158666953</v>
+      </c>
+      <c r="C174" s="4">
+        <v>36.122464677730804</v>
+      </c>
+      <c r="H174">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>60.608009173475637</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>19.445068341441946</v>
+      </c>
+      <c r="C175" s="4">
+        <v>34.68125138488638</v>
+      </c>
+      <c r="H175">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>73.707159543226823</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B176" s="5">
+        <v>23.647712144269722</v>
+      </c>
+      <c r="C176" s="4">
+        <v>42.176876684200529</v>
+      </c>
+      <c r="H176">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>60.677012599479596</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>19.467206939174137</v>
+      </c>
+      <c r="C177" s="4">
+        <v>34.72073668058075</v>
+      </c>
+      <c r="H177">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>61.390048001520491</v>
       </c>
-      <c r="I178" s="5"/>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>19.695972449073455</v>
+      </c>
+      <c r="C178" s="4">
+        <v>35.128751402755881</v>
+      </c>
+      <c r="H178">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>62.17208682956533</v>
       </c>
-      <c r="D179">
-        <v>0.05</v>
-      </c>
-      <c r="E179">
-        <v>62.115384651684622</v>
-      </c>
-      <c r="F179">
-        <v>58.305960325753375</v>
-      </c>
-      <c r="G179">
-        <v>59.633816805077984</v>
+      <c r="B179">
+        <v>19.946876556704964</v>
+      </c>
+      <c r="C179" s="4">
+        <v>35.576251420625383</v>
       </c>
       <c r="H179">
-        <v>63.900372050120978</v>
-      </c>
-      <c r="I179">
-        <v>57.576727669075105</v>
-      </c>
-      <c r="J179">
-        <v>58.273308117245392</v>
-      </c>
-      <c r="K179">
-        <v>57.141364888968681</v>
-      </c>
-      <c r="L179">
-        <v>61.77797849710214</v>
-      </c>
-      <c r="M179">
-        <v>58.251539978240075</v>
-      </c>
-      <c r="N179">
-        <v>60.341281322750923</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>56.318296190229646</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>18.068785515757348</v>
+      </c>
+      <c r="C180" s="4">
+        <v>32.226582169219853</v>
+      </c>
+      <c r="H180">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>64.023678760671515</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>20.540928929185448</v>
+      </c>
+      <c r="C181" s="4">
+        <v>36.635773521757585</v>
+      </c>
+      <c r="H181">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>62.600632841097941</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>20.479873806582347</v>
+      </c>
+      <c r="C182" s="4">
+        <v>35.294134432321478</v>
+      </c>
+      <c r="H182">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>57.578823832965909</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>18.836982830889479</v>
+      </c>
+      <c r="C183" s="4">
+        <v>32.462846725113273</v>
+      </c>
+      <c r="H183">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>62.933127044832709</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>20.479873806582347</v>
+      </c>
+      <c r="C184" s="4">
+        <v>35.626628636056246</v>
+      </c>
+      <c r="H184">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>60.42222254076669</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>19.767204205254387</v>
+      </c>
+      <c r="C185" s="4">
+        <v>34.065950267094173</v>
+      </c>
+      <c r="H185">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>73.481219025384007</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B186" s="5">
+        <v>24.039470920583565</v>
+      </c>
+      <c r="C186" s="4">
+        <v>41.42859113127259</v>
+      </c>
+      <c r="H186">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>60.491014444987677</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>19.7897095610858</v>
+      </c>
+      <c r="C187" s="4">
+        <v>34.104735030206612</v>
+      </c>
+      <c r="H187">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>61.201864121937881</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>20.022264904677026</v>
+      </c>
+      <c r="C188" s="4">
+        <v>34.505510915701848</v>
+      </c>
+      <c r="H188">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>61.981505703109057</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>20.277325604099666</v>
+      </c>
+      <c r="C189" s="4">
+        <v>34.945071564309501</v>
+      </c>
+      <c r="H189">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>56.145659161695356</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>18.368121251068455</v>
+      </c>
+      <c r="C190" s="4">
+        <v>31.654830826937417</v>
+      </c>
+      <c r="H190">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>63.82742179970554</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>20.881219318909146</v>
+      </c>
+      <c r="C191" s="4">
+        <v>35.985796041160015</v>
+      </c>
+      <c r="H191">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>62.847785831563165</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>20.814313108354778</v>
+      </c>
+      <c r="C192" s="4">
+        <v>35.095368353756797</v>
+      </c>
+      <c r="H192">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>57.806150264855354</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>19.14459348537687</v>
+      </c>
+      <c r="C193" s="4">
+        <v>32.280025617686192</v>
+      </c>
+      <c r="H193">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>63.181592752646559</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>20.924865320835053</v>
+      </c>
+      <c r="C194" s="4">
+        <v>35.281772324866488</v>
+      </c>
+      <c r="H194">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>60.660774969292653</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>20.090005509346096</v>
+      </c>
+      <c r="C195" s="4">
+        <v>33.874100956831192</v>
+      </c>
+      <c r="H195">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>73.7713295594301</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" s="5">
+        <v>24.432038958140254</v>
+      </c>
+      <c r="C196" s="4">
+        <v>41.1952776152431</v>
+      </c>
+      <c r="H196">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>60.72983847020646</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>20.11287838089374</v>
+      </c>
+      <c r="C197" s="4">
+        <v>33.912667295681473</v>
+      </c>
+      <c r="H197">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>61.443494646315784</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>20.349231386886046</v>
+      </c>
+      <c r="C198" s="4">
+        <v>34.311186130467725</v>
+      </c>
+      <c r="H198">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>62.226214323338915</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>20.608457264425994</v>
+      </c>
+      <c r="C199" s="4">
+        <v>34.748271304104257</v>
+      </c>
+      <c r="H199">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>56.367327329151074</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>18.668075328134314</v>
+      </c>
+      <c r="C200" s="4">
+        <v>31.47656022497199</v>
+      </c>
+      <c r="H200">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>64.079418264526041</v>
+      </c>
+      <c r="B201">
+        <v>21.222212650954408</v>
+      </c>
+      <c r="C201" s="4">
+        <v>35.783134729920164</v>
+      </c>
+      <c r="H201">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>69.637767494939496</v>
+      </c>
+      <c r="B202">
+        <v>21.384652624149478</v>
+      </c>
+      <c r="C202" s="4">
+        <v>41.124897329406863</v>
+      </c>
+      <c r="H202">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>65.367009018817399</v>
+      </c>
+      <c r="B203">
+        <v>20.073170511226348</v>
+      </c>
+      <c r="C203" s="4">
+        <v>38.602781670515604</v>
+      </c>
+      <c r="H203">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>66.855673401922814</v>
+      </c>
+      <c r="B204">
+        <v>20.530315704873839</v>
+      </c>
+      <c r="C204" s="4">
+        <v>39.481919128757696</v>
+      </c>
+      <c r="H204">
+        <v>0.05</v>
+      </c>
+      <c r="I204" s="4"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
+      <c r="R204" s="4"/>
+      <c r="S204" s="4"/>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>71.638922895179576</v>
+      </c>
+      <c r="B205">
+        <v>21.99917567134775</v>
+      </c>
+      <c r="C205" s="4">
+        <v>42.306688666715914</v>
+      </c>
+      <c r="H205">
+        <v>0.05</v>
+      </c>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="4"/>
+      <c r="S205" s="4"/>
+      <c r="T205" s="4"/>
+      <c r="U205" s="4"/>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>64.549463824816883</v>
+      </c>
+      <c r="B206">
+        <v>19.822115363895346</v>
+      </c>
+      <c r="C206" s="4">
+        <v>38.119976672956426</v>
+      </c>
+      <c r="H206">
+        <v>0.05</v>
+      </c>
+      <c r="I206" s="4"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+      <c r="R206" s="4"/>
+      <c r="S206" s="4"/>
+      <c r="T206" s="4"/>
+      <c r="U206" s="4"/>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>65.330402517593498</v>
+      </c>
+      <c r="B207">
+        <v>20.06192923597272</v>
+      </c>
+      <c r="C207" s="4">
+        <v>37.312138160534545</v>
+      </c>
+      <c r="H207">
+        <v>0.05</v>
+      </c>
+      <c r="I207" s="4"/>
+      <c r="J207" s="4"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="4"/>
+      <c r="O207" s="4"/>
+      <c r="P207" s="4"/>
+      <c r="Q207" s="4"/>
+      <c r="R207" s="4"/>
+      <c r="S207" s="4"/>
+      <c r="T207" s="4"/>
+      <c r="U207" s="4"/>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>64.0613771418315</v>
+      </c>
+      <c r="B208">
+        <v>19.672231693846989</v>
+      </c>
+      <c r="C208" s="4">
+        <v>37.831734883368853</v>
+      </c>
+      <c r="H208">
+        <v>0.05</v>
+      </c>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="4"/>
+      <c r="P208" s="4"/>
+      <c r="Q208" s="4"/>
+      <c r="R208" s="4"/>
+      <c r="S208" s="4"/>
+      <c r="T208" s="4"/>
+      <c r="U208" s="4"/>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>69.259500315625829</v>
+      </c>
+      <c r="B209">
+        <v>21.268492779862001</v>
+      </c>
+      <c r="C209" s="4">
+        <v>40.901509942476494</v>
+      </c>
+      <c r="H209">
+        <v>0.05</v>
+      </c>
+      <c r="I209" s="4"/>
+      <c r="J209" s="4"/>
+      <c r="K209" s="4"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="4"/>
+      <c r="O209" s="4"/>
+      <c r="P209" s="4"/>
+      <c r="Q209" s="4"/>
+      <c r="R209" s="4"/>
+      <c r="S209" s="4"/>
+      <c r="T209" s="4"/>
+      <c r="U209" s="4"/>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>65.305998183444231</v>
+      </c>
+      <c r="B210">
+        <v>20.054435052470303</v>
+      </c>
+      <c r="C210" s="4">
+        <v>38.566751446817165</v>
+      </c>
+      <c r="H210">
+        <v>0.05</v>
+      </c>
+      <c r="I210" s="4"/>
+      <c r="J210" s="4"/>
+      <c r="K210" s="4"/>
+      <c r="L210" s="4"/>
+      <c r="M210" s="4"/>
+      <c r="N210" s="4"/>
+      <c r="O210" s="4"/>
+      <c r="P210" s="4"/>
+      <c r="Q210" s="4"/>
+      <c r="R210" s="4"/>
+      <c r="S210" s="4"/>
+      <c r="T210" s="4"/>
+      <c r="U210" s="4"/>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>67.648814261774064</v>
+      </c>
+      <c r="B211">
+        <v>20.773876668702417</v>
+      </c>
+      <c r="C211" s="4">
+        <v>39.950312036837509</v>
+      </c>
+      <c r="H211">
+        <v>0.05</v>
+      </c>
+      <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
+      <c r="K211" s="4"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="4"/>
+      <c r="N211" s="4"/>
+      <c r="O211" s="4"/>
+      <c r="P211" s="4"/>
+      <c r="Q211" s="4"/>
+      <c r="R211" s="4"/>
+      <c r="S211" s="4"/>
+      <c r="T211" s="4"/>
+      <c r="U211" s="4"/>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>68.630062198509592</v>
+      </c>
+      <c r="B212">
+        <v>21.235734082317116</v>
+      </c>
+      <c r="C212" s="4">
+        <v>40.31575008875344</v>
+      </c>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212">
+        <v>0.05</v>
+      </c>
+      <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
+      <c r="K212" s="4"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="4"/>
+      <c r="N212" s="4"/>
+      <c r="O212" s="4"/>
+      <c r="P212" s="4"/>
+      <c r="Q212" s="4"/>
+      <c r="R212" s="4"/>
+      <c r="S212" s="4"/>
+      <c r="T212" s="4"/>
+      <c r="U212" s="4"/>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>64.421104467744158</v>
+      </c>
+      <c r="B213">
+        <v>19.933384874535271</v>
+      </c>
+      <c r="C213" s="4">
+        <v>37.843257968363801</v>
+      </c>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213">
+        <v>0.05</v>
+      </c>
+      <c r="I213" s="4"/>
+      <c r="J213" s="4"/>
+      <c r="K213" s="4"/>
+      <c r="L213" s="4"/>
+      <c r="M213" s="4"/>
+      <c r="N213" s="4"/>
+      <c r="O213" s="4"/>
+      <c r="P213" s="4"/>
+      <c r="Q213" s="4"/>
+      <c r="R213" s="4"/>
+      <c r="S213" s="4"/>
+      <c r="T213" s="4"/>
+      <c r="U213" s="4"/>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>65.888226876753833</v>
+      </c>
+      <c r="B214">
+        <v>20.387346598390657</v>
+      </c>
+      <c r="C214" s="4">
+        <v>38.705098078899624</v>
+      </c>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214">
+        <v>0.05</v>
+      </c>
+      <c r="I214" s="4"/>
+      <c r="J214" s="4"/>
+      <c r="K214" s="4"/>
+      <c r="L214" s="4"/>
+      <c r="M214" s="4"/>
+      <c r="N214" s="4"/>
+      <c r="O214" s="4"/>
+      <c r="P214" s="4"/>
+      <c r="Q214" s="4"/>
+      <c r="R214" s="4"/>
+      <c r="S214" s="4"/>
+      <c r="T214" s="4"/>
+      <c r="U214" s="4"/>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>70.602259535211118</v>
+      </c>
+      <c r="B215">
+        <v>21.845977711106325</v>
+      </c>
+      <c r="C215" s="4">
+        <v>41.474289253736018</v>
+      </c>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215">
+        <v>0.05</v>
+      </c>
+      <c r="I215" s="4"/>
+      <c r="J215" s="4"/>
+      <c r="K215" s="4"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="4"/>
+      <c r="N215" s="4"/>
+      <c r="O215" s="4"/>
+      <c r="P215" s="4"/>
+      <c r="Q215" s="4"/>
+      <c r="R215" s="4"/>
+      <c r="S215" s="4"/>
+      <c r="T215" s="4"/>
+      <c r="U215" s="4"/>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>63.61538970214049</v>
+      </c>
+      <c r="B216">
+        <v>19.684078026188462</v>
+      </c>
+      <c r="C216" s="4">
+        <v>37.369952333889209</v>
+      </c>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216">
+        <v>0.05</v>
+      </c>
+      <c r="I216" s="4"/>
+      <c r="J216" s="4"/>
+      <c r="K216" s="4"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="4"/>
+      <c r="N216" s="4"/>
+      <c r="O216" s="4"/>
+      <c r="P216" s="4"/>
+      <c r="Q216" s="4"/>
+      <c r="R216" s="4"/>
+      <c r="S216" s="4"/>
+      <c r="T216" s="4"/>
+      <c r="U216" s="4"/>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>64.385027687194736</v>
+      </c>
+      <c r="B217">
+        <v>19.922221881325715</v>
+      </c>
+      <c r="C217" s="4">
+        <v>37.822065178760454</v>
+      </c>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217">
+        <v>0.05</v>
+      </c>
+      <c r="I217" s="4"/>
+      <c r="J217" s="4"/>
+      <c r="K217" s="4"/>
+      <c r="L217" s="4"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="4"/>
+      <c r="O217" s="4"/>
+      <c r="P217" s="4"/>
+      <c r="Q217" s="4"/>
+      <c r="R217" s="4"/>
+      <c r="S217" s="4"/>
+      <c r="T217" s="4"/>
+      <c r="U217" s="4"/>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>63.134365961481578</v>
+      </c>
+      <c r="B218">
+        <v>19.53523811672768</v>
+      </c>
+      <c r="C218" s="4">
+        <v>37.087381805844672</v>
+      </c>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218">
+        <v>0.05</v>
+      </c>
+      <c r="I218" s="4"/>
+      <c r="J218" s="4"/>
+      <c r="K218" s="4"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="4"/>
+      <c r="N218" s="4"/>
+      <c r="O218" s="4"/>
+      <c r="P218" s="4"/>
+      <c r="Q218" s="4"/>
+      <c r="R218" s="4"/>
+      <c r="S218" s="4"/>
+      <c r="T218" s="4"/>
+      <c r="U218" s="4"/>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>68.257268799498945</v>
+      </c>
+      <c r="B219">
+        <v>21.120383152485012</v>
+      </c>
+      <c r="C219" s="4">
+        <v>40.09675792951893</v>
+      </c>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219">
+        <v>0.05</v>
+      </c>
+      <c r="I219" s="4"/>
+      <c r="J219" s="4"/>
+      <c r="K219" s="4"/>
+      <c r="L219" s="4"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="4"/>
+      <c r="O219" s="4"/>
+      <c r="P219" s="4"/>
+      <c r="Q219" s="4"/>
+      <c r="R219" s="4"/>
+      <c r="S219" s="4"/>
+      <c r="T219" s="4"/>
+      <c r="U219" s="4"/>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>64.360976500161797</v>
+      </c>
+      <c r="B220">
+        <v>19.914779885852674</v>
+      </c>
+      <c r="C220" s="4">
+        <v>37.807936652358237</v>
+      </c>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+      <c r="H220">
+        <v>0.05</v>
+      </c>
+      <c r="I220" s="4"/>
+      <c r="J220" s="4"/>
+      <c r="K220" s="4"/>
+      <c r="L220" s="4"/>
+      <c r="M220" s="4"/>
+      <c r="N220" s="4"/>
+      <c r="O220" s="4"/>
+      <c r="P220" s="4"/>
+      <c r="Q220" s="4"/>
+      <c r="R220" s="4"/>
+      <c r="S220" s="4"/>
+      <c r="T220" s="4"/>
+      <c r="U220" s="4"/>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>66.669890455324548</v>
+      </c>
+      <c r="B221">
+        <v>20.629211451264428</v>
+      </c>
+      <c r="C221" s="4">
+        <v>39.164275186971977</v>
+      </c>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+      <c r="H221">
+        <v>0.05</v>
+      </c>
+      <c r="I221" s="4"/>
+      <c r="J221" s="4"/>
+      <c r="K221" s="4"/>
+      <c r="L221" s="4"/>
+      <c r="M221" s="4"/>
+      <c r="N221" s="4"/>
+      <c r="O221" s="4"/>
+      <c r="P221" s="4"/>
+      <c r="Q221" s="4"/>
+      <c r="R221" s="4"/>
+      <c r="S221" s="4"/>
+      <c r="T221" s="4"/>
+      <c r="U221" s="4"/>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>70.805473643959758</v>
+      </c>
+      <c r="B222">
+        <v>21.203777478232539</v>
+      </c>
+      <c r="C222" s="4">
+        <v>42.533770339649706</v>
+      </c>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222">
+        <v>0.05</v>
+      </c>
+      <c r="I222" s="4"/>
+      <c r="J222" s="4"/>
+      <c r="K222" s="4"/>
+      <c r="L222" s="4"/>
+      <c r="M222" s="4"/>
+      <c r="N222" s="4"/>
+      <c r="O222" s="4"/>
+      <c r="P222" s="4"/>
+      <c r="Q222" s="4"/>
+      <c r="R222" s="4"/>
+      <c r="S222" s="4"/>
+      <c r="T222" s="4"/>
+      <c r="U222" s="4"/>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>66.463101859241704</v>
+      </c>
+      <c r="B223">
+        <v>19.903388111247892</v>
+      </c>
+      <c r="C223" s="4">
+        <v>39.925251044244519</v>
+      </c>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223">
+        <v>0.05</v>
+      </c>
+      <c r="I223" s="4"/>
+      <c r="J223" s="4"/>
+      <c r="K223" s="4"/>
+      <c r="L223" s="4"/>
+      <c r="M223" s="4"/>
+      <c r="N223" s="4"/>
+      <c r="O223" s="4"/>
+      <c r="P223" s="4"/>
+      <c r="Q223" s="4"/>
+      <c r="R223" s="4"/>
+      <c r="S223" s="4"/>
+      <c r="T223" s="4"/>
+      <c r="U223" s="4"/>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>67.97672859562914</v>
+      </c>
+      <c r="B224">
+        <v>20.356666690596825</v>
+      </c>
+      <c r="C224" s="4">
+        <v>40.834506341500045</v>
+      </c>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="H224">
+        <v>0.05</v>
+      </c>
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="4"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="4"/>
+      <c r="N224" s="4"/>
+      <c r="O224" s="4"/>
+      <c r="P224" s="4"/>
+      <c r="Q224" s="4"/>
+      <c r="R224" s="4"/>
+      <c r="S224" s="4"/>
+      <c r="T224" s="4"/>
+      <c r="U224" s="4"/>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>72.840184994513365</v>
+      </c>
+      <c r="B225">
+        <v>21.813102781619634</v>
+      </c>
+      <c r="C225" s="4">
+        <v>43.756047952353853</v>
+      </c>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225">
+        <v>0.05</v>
+      </c>
+      <c r="I225" s="4"/>
+      <c r="J225" s="4"/>
+      <c r="K225" s="4"/>
+      <c r="L225" s="4"/>
+      <c r="M225" s="4"/>
+      <c r="N225" s="4"/>
+      <c r="O225" s="4"/>
+      <c r="P225" s="4"/>
+      <c r="Q225" s="4"/>
+      <c r="R225" s="4"/>
+      <c r="S225" s="4"/>
+      <c r="T225" s="4"/>
+      <c r="U225" s="4"/>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>65.631847831881387</v>
+      </c>
+      <c r="B226">
+        <v>19.654456432425114</v>
+      </c>
+      <c r="C226" s="4">
+        <v>39.42590592198124</v>
+      </c>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+      <c r="H226">
+        <v>0.05</v>
+      </c>
+      <c r="I226" s="4"/>
+      <c r="J226" s="4"/>
+      <c r="K226" s="4"/>
+      <c r="L226" s="4"/>
+      <c r="M226" s="4"/>
+      <c r="N226" s="4"/>
+      <c r="O226" s="4"/>
+      <c r="P226" s="4"/>
+      <c r="Q226" s="4"/>
+      <c r="R226" s="4"/>
+      <c r="S226" s="4"/>
+      <c r="T226" s="4"/>
+      <c r="U226" s="4"/>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>66.425881529658412</v>
+      </c>
+      <c r="B227">
+        <v>19.892241916673736</v>
+      </c>
+      <c r="C227" s="4">
+        <v>39.902892307426768</v>
+      </c>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+      <c r="H227">
+        <v>0.05</v>
+      </c>
+      <c r="I227" s="4"/>
+      <c r="J227" s="4"/>
+      <c r="K227" s="4"/>
+      <c r="L227" s="4"/>
+      <c r="M227" s="4"/>
+      <c r="N227" s="4"/>
+      <c r="O227" s="4"/>
+      <c r="P227" s="4"/>
+      <c r="Q227" s="4"/>
+      <c r="R227" s="4"/>
+      <c r="S227" s="4"/>
+      <c r="T227" s="4"/>
+      <c r="U227" s="4"/>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>65.135576770770754</v>
+      </c>
+      <c r="B228">
+        <v>19.505840504769726</v>
+      </c>
+      <c r="C228" s="4">
+        <v>39.127789431077787</v>
+      </c>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+      <c r="H228">
+        <v>0.05</v>
+      </c>
+      <c r="I228" s="4"/>
+      <c r="J228" s="4"/>
+      <c r="K228" s="4"/>
+      <c r="L228" s="4"/>
+      <c r="M228" s="4"/>
+      <c r="N228" s="4"/>
+      <c r="O228" s="4"/>
+      <c r="P228" s="4"/>
+      <c r="Q228" s="4"/>
+      <c r="R228" s="4"/>
+      <c r="S228" s="4"/>
+      <c r="T228" s="4"/>
+      <c r="U228" s="4"/>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>70.420863571599014</v>
+      </c>
+      <c r="B229">
+        <v>21.088600134299615</v>
+      </c>
+      <c r="C229" s="4">
+        <v>42.302730059199533</v>
+      </c>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+      <c r="H229">
+        <v>0.05</v>
+      </c>
+      <c r="I229" s="4"/>
+      <c r="J229" s="4"/>
+      <c r="K229" s="4"/>
+      <c r="L229" s="4"/>
+      <c r="M229" s="4"/>
+      <c r="N229" s="4"/>
+      <c r="O229" s="4"/>
+      <c r="P229" s="4"/>
+      <c r="Q229" s="4"/>
+      <c r="R229" s="4"/>
+      <c r="S229" s="4"/>
+      <c r="T229" s="4"/>
+      <c r="U229" s="4"/>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>66.401067976602874</v>
+      </c>
+      <c r="B230">
+        <v>19.884811120290969</v>
+      </c>
+      <c r="C230" s="4">
+        <v>39.887986482881587</v>
+      </c>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="H230">
+        <v>0.05</v>
+      </c>
+      <c r="I230" s="4"/>
+      <c r="J230" s="4"/>
+      <c r="K230" s="4"/>
+      <c r="L230" s="4"/>
+      <c r="M230" s="4"/>
+      <c r="N230" s="4"/>
+      <c r="O230" s="4"/>
+      <c r="P230" s="4"/>
+      <c r="Q230" s="4"/>
+      <c r="R230" s="4"/>
+      <c r="S230" s="4"/>
+      <c r="T230" s="4"/>
+      <c r="U230" s="4"/>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>68.783169069933919</v>
+      </c>
+      <c r="B231">
+        <v>20.598167573036829</v>
+      </c>
+      <c r="C231" s="4">
+        <v>41.31894563921815</v>
+      </c>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+      <c r="H231">
+        <v>0.05</v>
+      </c>
+      <c r="I231" s="4"/>
+      <c r="J231" s="4"/>
+      <c r="K231" s="4"/>
+      <c r="L231" s="4"/>
+      <c r="M231" s="4"/>
+      <c r="N231" s="4"/>
+      <c r="O231" s="4"/>
+      <c r="P231" s="4"/>
+      <c r="Q231" s="4"/>
+      <c r="R231" s="4"/>
+      <c r="S231" s="4"/>
+      <c r="T231" s="4"/>
+      <c r="U231" s="4"/>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>57.836632442184033</v>
+      </c>
+      <c r="B232">
+        <v>21.445278258435373</v>
+      </c>
+      <c r="C232" s="4">
+        <v>29.242928097603539</v>
+      </c>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+      <c r="H232">
+        <v>0.05</v>
+      </c>
+      <c r="I232" s="4"/>
+      <c r="J232" s="4"/>
+      <c r="K232" s="4"/>
+      <c r="L232" s="4"/>
+      <c r="M232" s="4"/>
+      <c r="N232" s="4"/>
+      <c r="O232" s="4"/>
+      <c r="P232" s="4"/>
+      <c r="Q232" s="4"/>
+      <c r="R232" s="4"/>
+      <c r="S232" s="4"/>
+      <c r="T232" s="4"/>
+      <c r="U232" s="4"/>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>54.289616259467302</v>
+      </c>
+      <c r="B233">
+        <v>20.130078084884929</v>
+      </c>
+      <c r="C233" s="4">
+        <v>27.449512146287397</v>
+      </c>
+      <c r="H233">
+        <v>0.05</v>
+      </c>
+      <c r="J233" s="4"/>
+      <c r="K233" s="4"/>
+      <c r="L233" s="4"/>
+      <c r="M233" s="4"/>
+      <c r="N233" s="4"/>
+      <c r="O233" s="4"/>
+      <c r="P233" s="4"/>
+      <c r="Q233" s="4"/>
+      <c r="R233" s="4"/>
+      <c r="S233" s="4"/>
+      <c r="T233" s="4"/>
+      <c r="U233" s="4"/>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>55.526004757442841</v>
+      </c>
+      <c r="B234">
+        <v>21.445278258435373</v>
+      </c>
+      <c r="C234" s="4">
+        <v>26.932300412862347</v>
+      </c>
+      <c r="H234">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>59.49866288208559</v>
+      </c>
+      <c r="B235">
+        <v>22.061543482613295</v>
+      </c>
+      <c r="C235" s="4">
+        <v>30.083271571934532</v>
+      </c>
+      <c r="H235">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>53.610616018775808</v>
+      </c>
+      <c r="B236">
+        <v>19.878311194519558</v>
+      </c>
+      <c r="C236" s="4">
+        <v>27.106201092749732</v>
+      </c>
+      <c r="H236">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>54.259213263615436</v>
+      </c>
+      <c r="B237">
+        <v>20.118804940540212</v>
+      </c>
+      <c r="C237" s="4">
+        <v>27.434140009561823</v>
+      </c>
+      <c r="H237">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>53.205242740751039</v>
+      </c>
+      <c r="B238">
+        <v>19.728002603256652</v>
+      </c>
+      <c r="C238" s="4">
+        <v>26.90123926974217</v>
+      </c>
+      <c r="H238">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>57.52246815171484</v>
+      </c>
+      <c r="B239">
+        <v>21.32878910020662</v>
+      </c>
+      <c r="C239" s="4">
+        <v>29.084082684772682</v>
+      </c>
+      <c r="H239">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>54.238944599714202</v>
+      </c>
+      <c r="B240">
+        <v>20.111289510977066</v>
+      </c>
+      <c r="C240" s="4">
+        <v>27.423891918411449</v>
+      </c>
+      <c r="H240">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>56.184736334233094</v>
+      </c>
+      <c r="B241">
+        <v>20.832770749039021</v>
+      </c>
+      <c r="C241" s="4">
+        <v>28.407708668847732</v>
+      </c>
+      <c r="H241">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>62.115384651684622</v>
+      </c>
+      <c r="B242">
+        <v>21.143323508258881</v>
+      </c>
+      <c r="C242" s="4">
+        <v>33.924286640672783</v>
+      </c>
+      <c r="H242">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>58.305960325753375</v>
+      </c>
+      <c r="B243">
+        <v>19.846641674039397</v>
+      </c>
+      <c r="C243" s="4">
+        <v>31.843771427034181</v>
+      </c>
+      <c r="H243">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>59.633816805077984</v>
+      </c>
+      <c r="B244">
+        <v>20.298627913395904</v>
+      </c>
+      <c r="C244" s="4">
+        <v>32.568979587216781</v>
+      </c>
+      <c r="H244">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>63.900372050120978</v>
+      </c>
+      <c r="B245">
+        <v>21.75091156772173</v>
+      </c>
+      <c r="C245" s="4">
+        <v>34.899156626492008</v>
+      </c>
+      <c r="H245">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>57.576727669075105</v>
+      </c>
+      <c r="B246">
+        <v>19.598419722917381</v>
+      </c>
+      <c r="C246" s="4">
+        <v>31.445501371851933</v>
+      </c>
+      <c r="H246">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>58.273308117245392</v>
+      </c>
+      <c r="B247">
+        <v>19.835527258317516</v>
+      </c>
+      <c r="C247" s="4">
+        <v>31.825938439488706</v>
+      </c>
+      <c r="H247">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>57.141364888968681</v>
+      </c>
+      <c r="B248">
+        <v>19.450227513292294</v>
+      </c>
+      <c r="C248" s="4">
+        <v>31.207728204578956</v>
+      </c>
+      <c r="H248">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>61.77797849710214</v>
+      </c>
+      <c r="B249">
+        <v>21.028474545799444</v>
+      </c>
+      <c r="C249" s="4">
+        <v>33.740012436036217</v>
+      </c>
+      <c r="H249">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>58.251539978240075</v>
+      </c>
+      <c r="B250">
+        <v>19.828117647836262</v>
+      </c>
+      <c r="C250" s="4">
+        <v>31.81404978112506</v>
+      </c>
+      <c r="H250">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>60.341281322750923</v>
+      </c>
+      <c r="B251">
+        <v>20.539440254036663</v>
+      </c>
+      <c r="C251" s="4">
+        <v>32.955360984035373</v>
+      </c>
+      <c r="H251">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/Glass-Compound-Analysis/dataset/Add_features.xlsx
+++ b/Glass-Compound-Analysis/dataset/Add_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Machine_Learning_with_TensorFlow\Glass-Compound-Analysis\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAB3392-87D8-43CA-980A-84B35D5B73B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4867CCB2-0E4D-4D8F-B06F-CA7CE38EBAD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5242,8 +5242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CE30"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView topLeftCell="BN12" workbookViewId="0">
+      <selection activeCell="BU3" sqref="BU3:CE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12913,4420 +12913,6548 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3922BCE-2639-4CF8-BB49-23A2E999D01D}">
-  <dimension ref="A1:U251"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="F216" sqref="F216"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>60.505570734569638</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>20.125896504490292</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>33.671042061915912</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>50.346610317499398</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>0.2507917425260176</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>3.3436930653238259</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>2.3908848995504015</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>61.749309150887406</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>20.539599744399879</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>34.363176158354236</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>51.381523510169735</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>0.25079174252601755</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>3.412425241009966</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>2.3908848995504015</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>60.20615222693759</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>20.026301280067617</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>33.504417186847434</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>50.097464548893583</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>0.25079174252601755</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>3.3271464304364233</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>2.3908848995504015</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>62.014179369177299</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>20.627703212158401</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>34.510575086299433</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>51.601921690090272</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>0.25079174252601755</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>3.4270626487949771</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>2.3908848995504015</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>62.83182221694176</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>20.899674786543407</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>34.965589168217221</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>52.282281288975405</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>0.25079174252601755</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>3.4722476902182722</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>2.3908848995504011</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>64.017980151022584</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>21.294225098679398</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>31.583530166417329</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>52.16020358844446</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>0.25079174252601755</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>3.4641400865857372</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>2.6968771364667123</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>59.975830297989859</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>19.949689568973252</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>33.376244206025525</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>49.905813957658339</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>0.2507917425260176</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>3.3144182497538046</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>2.3908848995504015</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>0.01</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>59.79157275483167</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>19.888400200097756</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>33.273705821367997</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>49.75249348467014</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>0.2507917425260176</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>3.3042357052077098</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>2.3908848995504011</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>0.01</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10">
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>60.378893673648392</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>20.083760063388393</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>33.60054692246387</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>50.241202492320028</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>0.2507917425260176</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>3.336692565948387</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>2.3908848995504011</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>0.01</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11">
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>60.240700516279752</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>20.037793036731774</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>33.523643133970722</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>50.126212137578875</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>0.2507917425260176</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>3.3290556575388162</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>2.3908848995504015</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>0.01</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12">
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>60.233516588594334</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>20.179983224008186</v>
       </c>
       <c r="C12" s="4">
         <v>33.32687228991675</v>
       </c>
-      <c r="H12">
+      <c r="D12" s="4">
+        <v>50.372763690841907</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.24808735298930482</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.3890619937275495</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2.4220674593713691</v>
+      </c>
+      <c r="H12" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>61.471662723266626</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>20.594798257923852</v>
       </c>
       <c r="C13" s="4">
         <v>34.01193171270149</v>
       </c>
-      <c r="H13">
+      <c r="D13" s="4">
+        <v>51.408214486161846</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.24808735298930473</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3.4587267625365685</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.4220674593713696</v>
+      </c>
+      <c r="H13" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>59.935444370988044</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>20.080120345472938</v>
       </c>
       <c r="C14" s="4">
         <v>33.161950577024129</v>
       </c>
-      <c r="H14">
+      <c r="D14" s="4">
+        <v>50.123488499376009</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.24808735298930476</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3.3722908456809364</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.4220674593713696</v>
+      </c>
+      <c r="H14" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>61.735341992687573</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>20.683138496628111</v>
       </c>
       <c r="C15" s="4">
         <v>34.157823997183428</v>
       </c>
-      <c r="H15">
+      <c r="D15" s="4">
+        <v>51.628727155535536</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.24808735298930479</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3.4735627781162659</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2.4220674593713691</v>
+      </c>
+      <c r="H15" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>62.549308433073989</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>20.955840972628224</v>
       </c>
       <c r="C16" s="4">
         <v>34.60818713623636</v>
       </c>
-      <c r="H16">
+      <c r="D16" s="4">
+        <v>52.309440178384754</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.24808735298930479</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3.5193609131666381</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.4220674593713691</v>
+      </c>
+      <c r="H16" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>63.730132987437372</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>21.351451606825567</v>
       </c>
       <c r="C17" s="4">
         <v>35.261530845003286</v>
       </c>
-      <c r="H17">
+      <c r="D17" s="4">
+        <v>53.296953436884316</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.24808735298930476</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3.5858004611974605</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2.4220674593713687</v>
+      </c>
+      <c r="H17" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>59.706158049752446</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>20.003302746599669</v>
       </c>
       <c r="C18" s="4">
         <v>33.035087720952887</v>
       </c>
-      <c r="H18">
+      <c r="D18" s="4">
+        <v>49.931738352094541</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.24808735298930479</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3.3593899625681547</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2.4220674593713691</v>
+      </c>
+      <c r="H18" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>59.522728992763959</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>19.941848667501052</v>
       </c>
       <c r="C19" s="4">
         <v>32.933597436095894</v>
       </c>
-      <c r="H19">
+      <c r="D19" s="4">
+        <v>49.778338234269377</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.24808735298930476</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3.3490692560779314</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2.4220674593713687</v>
+      </c>
+      <c r="H19" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>60.107409111914762</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>20.137733544627892</v>
       </c>
       <c r="C20" s="4">
         <v>33.257097719077578</v>
       </c>
-      <c r="H20">
+      <c r="D20" s="4">
+        <v>50.267301109837113</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.24808735298930479</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.3819665080155215</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2.4220674593713687</v>
+      </c>
+      <c r="H20" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>59.969837319173386</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>20.091642985303928</v>
       </c>
       <c r="C21" s="4">
         <v>33.180980005434819</v>
       </c>
-      <c r="H21">
+      <c r="D21" s="4">
+        <v>50.152251021468231</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.24808735298930476</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3.3742259781478534</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2.4220674593713691</v>
+      </c>
+      <c r="H21" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>61.775623513456317</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>19.950840951849411</v>
       </c>
       <c r="C22" s="4">
         <v>35.174502244323769</v>
       </c>
-      <c r="H22">
+      <c r="D22" s="4">
+        <v>50.335771534732785</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.26149498299886792</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3.1722504402718172</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.2687844522455407</v>
+      </c>
+      <c r="H22" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>63.045468838818579</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>20.360945790600791</v>
       </c>
       <c r="C23" s="4">
         <v>35.897541118017529</v>
       </c>
-      <c r="H23">
+      <c r="D23" s="4">
+        <v>51.370461927909638</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.26149498299886798</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3.2374584812975797</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2.2687844522455403</v>
+      </c>
+      <c r="H23" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>61.469920009202447</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>19.852112009187046</v>
       </c>
       <c r="C24" s="4">
         <v>35.000437330286388</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24">
+      <c r="D24" s="4">
+        <v>50.086679403042069</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.26149498299886792</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.1565522081730228</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2.2687844522455407</v>
+      </c>
+      <c r="H24" s="4">
         <v>0.01</v>
       </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
+    </row>
+    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>63.315898861812386</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>20.448282932186732</v>
       </c>
       <c r="C25" s="4">
         <v>36.051521618896743</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25">
+      <c r="D25" s="4">
+        <v>51.590812659789883</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.26149498299886792</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3.2513453789234368</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2.2687844522455412</v>
+      </c>
+      <c r="H25" s="4">
         <v>0.01</v>
       </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
+    </row>
+    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>64.150704584967215</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>20.717888890995511</v>
       </c>
       <c r="C26" s="4">
         <v>36.526852730306537</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26">
+      <c r="D26" s="4">
+        <v>52.27102578863763</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.26149498299886798</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3.294213628116299</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2.2687844522455407</v>
+      </c>
+      <c r="H26" s="4">
         <v>0.01</v>
       </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
+    </row>
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>65.361760774896027</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>21.109007394619507</v>
       </c>
       <c r="C27" s="4">
         <v>37.216417582070022</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27">
+      <c r="D27" s="4">
+        <v>53.257813848797021</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.26149498299886803</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3.3564027783538304</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2.2687844522455403</v>
+      </c>
+      <c r="H27" s="4">
         <v>0.01</v>
       </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
+    </row>
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>61.234763467468696</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>19.776166668677533</v>
       </c>
       <c r="C28" s="4">
         <v>34.866541242565319</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28">
+      <c r="D28" s="4">
+        <v>49.895070070972281</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.26149498299886792</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3.144476645020104</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2.2687844522455412</v>
+      </c>
+      <c r="H28" s="4">
         <v>0.01</v>
       </c>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>61.046638234081698</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>19.71541039626992</v>
       </c>
       <c r="C29" s="4">
         <v>34.759424372388473</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29">
+      <c r="D29" s="4">
+        <v>49.741782605316459</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.26149498299886792</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.1348161944977693</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2.2687844522455407</v>
+      </c>
+      <c r="H29" s="4">
         <v>0.01</v>
       </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
+    </row>
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>61.646287415502762</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>19.909071014569182</v>
       </c>
       <c r="C30" s="4">
         <v>35.100859396077183</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30">
+      <c r="D30" s="4">
+        <v>50.230386402094403</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.26149498299886798</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3.1656088805377109</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2.2687844522455412</v>
+      </c>
+      <c r="H30" s="4">
         <v>0.01</v>
       </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
+    </row>
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>61.50519349046251</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>19.86350381026347</v>
       </c>
       <c r="C31" s="4">
         <v>35.020521743444547</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31">
+      <c r="D31" s="4">
+        <v>50.115420802852533</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.26149498299886803</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3.1583635426459593</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2.2687844522455407</v>
+      </c>
+      <c r="H31" s="4">
         <v>0.01</v>
       </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
+    </row>
+    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>60.065644627839426</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>20.058997843630959</v>
       </c>
       <c r="C32" s="4">
         <v>33.320314169664812</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32">
+      <c r="D32" s="4">
+        <v>50.119579905074744</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.24930418497922321</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3.3524712086060444</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2.4080202535296498</v>
+      </c>
+      <c r="H32" s="4">
         <v>0.01</v>
       </c>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33">
+    </row>
+    <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>61.300340025594792</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>20.471325930252991</v>
       </c>
       <c r="C33" s="4">
         <v>34.005238785257475</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33">
+      <c r="D33" s="4">
+        <v>51.149826313477504</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.24930418497922321</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3.4213838257604898</v>
+      </c>
+      <c r="G33" s="4">
+        <v>2.4080202535296493</v>
+      </c>
+      <c r="H33" s="4">
         <v>0.01</v>
       </c>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34">
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>59.768403143194618</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>20.058997843630959</v>
       </c>
       <c r="C34" s="4">
         <v>33.023072685020011</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34">
+      <c r="D34" s="4">
+        <v>50.044295963266173</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.24742762209219774</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3.3775658558755657</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2.4296949027072405</v>
+      </c>
+      <c r="H34" s="4">
         <v>0.01</v>
       </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35">
+    </row>
+    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>61.563284415857503</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>20.559136541292865</v>
       </c>
       <c r="C35" s="4">
         <v>34.151102360800351</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35">
+      <c r="D35" s="4">
+        <v>51.3692306411929</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.24930418497922324</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3.4360596608952325</v>
+      </c>
+      <c r="G35" s="4">
+        <v>2.4080202535296493</v>
+      </c>
+      <c r="H35" s="4">
         <v>0.01</v>
       </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36">
+    </row>
+    <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>62.374982316233719</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>20.830204079720314</v>
       </c>
       <c r="C36" s="4">
         <v>34.601376876606636</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36">
+      <c r="D36" s="4">
+        <v>52.046522261531763</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.24930418497922321</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3.4813633258763961</v>
+      </c>
+      <c r="G36" s="4">
+        <v>2.4080202535296493</v>
+      </c>
+      <c r="H36" s="4">
         <v>0.01</v>
       </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37">
+    </row>
+    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>63.552515890018917</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>21.223442903072804</v>
       </c>
       <c r="C37" s="4">
         <v>35.254592019255178</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37">
+      <c r="D37" s="4">
+        <v>53.029072076952893</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.24930418497922319</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3.547085544088505</v>
+      </c>
+      <c r="G37" s="4">
+        <v>2.4080202535296498</v>
+      </c>
+      <c r="H37" s="4">
         <v>0.01</v>
       </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38">
+    </row>
+    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>59.539755847313998</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>19.883376621551207</v>
       </c>
       <c r="C38" s="4">
         <v>33.02858701857906</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38">
+      <c r="D38" s="4">
+        <v>49.680771249643946</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.24930418497922321</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3.323119538336559</v>
+      </c>
+      <c r="G38" s="4">
+        <v>2.4080202535296493</v>
+      </c>
+      <c r="H38" s="4">
         <v>0.01</v>
       </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39">
+    </row>
+    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>59.356838010609501</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>19.822290979088685</v>
       </c>
       <c r="C39" s="4">
         <v>32.927116705157921</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39">
+      <c r="D39" s="4">
+        <v>49.528142152102795</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.24930418497922321</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3.3129102617210857</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2.4080202535296498</v>
+      </c>
+      <c r="H39" s="4">
         <v>0.01</v>
       </c>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40">
+    </row>
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>59.93988861510509</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>20.017001464437978</v>
       </c>
       <c r="C40" s="4">
         <v>33.250553329187788</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40">
+      <c r="D40" s="4">
+        <v>50.014647400515209</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.24930418497922321</v>
+      </c>
+      <c r="F40" s="4">
+        <v>3.3454523309329072</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2.4080202535296498</v>
+      </c>
+      <c r="H40" s="4">
         <v>0.01</v>
       </c>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41">
+    </row>
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>59.802700237576708</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>19.971187232591085</v>
       </c>
       <c r="C41" s="4">
         <v>33.174450594121929</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41">
+      <c r="D41" s="4">
+        <v>49.900175577359349</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.24930418497922319</v>
+      </c>
+      <c r="F41" s="4">
+        <v>3.3377953734713031</v>
+      </c>
+      <c r="G41" s="4">
+        <v>2.4080202535296502</v>
+      </c>
+      <c r="H41" s="4">
         <v>0.01</v>
       </c>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42">
+    </row>
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>58.219074322103502</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>19.949220511277989</v>
       </c>
       <c r="C42" s="4">
         <v>31.620113640399516</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42">
+      <c r="D42" s="4">
+        <v>49.448578198558224</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.23936116126951484</v>
+      </c>
+      <c r="F42" s="4">
+        <v>3.4663611117585806</v>
+      </c>
+      <c r="G42" s="4">
+        <v>2.5236114883268246</v>
+      </c>
+      <c r="H42" s="4">
         <v>0.01</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43">
+    </row>
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>59.415812050841076</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>20.359292040630489</v>
       </c>
       <c r="C43" s="4">
         <v>32.270089330000424</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43">
+      <c r="D43" s="4">
+        <v>50.465031652201979</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.23936116126951479</v>
+      </c>
+      <c r="F43" s="4">
+        <v>3.537614823229827</v>
+      </c>
+      <c r="G43" s="4">
+        <v>2.5236114883268246</v>
+      </c>
+      <c r="H43" s="4">
         <v>0.01</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44">
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>57.930970794814833</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>19.850499587544981</v>
       </c>
       <c r="C44" s="4">
         <v>31.463638011421526</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44">
+      <c r="D44" s="4">
+        <v>49.203876441199547</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.23936116126951484</v>
+      </c>
+      <c r="F44" s="4">
+        <v>3.4492074404784661</v>
+      </c>
+      <c r="G44" s="4">
+        <v>2.5236114883268246</v>
+      </c>
+      <c r="H44" s="4">
         <v>0.01</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45">
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>59.67067286344259</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>20.44662208854815</v>
       </c>
       <c r="C45" s="4">
         <v>32.408510078711728</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45">
+      <c r="D45" s="4">
+        <v>50.681498591403894</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.23936116126951482</v>
+      </c>
+      <c r="F45" s="4">
+        <v>3.552789224746852</v>
+      </c>
+      <c r="G45" s="4">
+        <v>2.5236114883268246</v>
+      </c>
+      <c r="H45" s="4">
         <v>0.01</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46">
+    </row>
+    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>60.457417111038595</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>20.716206149511368</v>
       </c>
       <c r="C46" s="4">
         <v>32.835808911690108</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46">
+      <c r="D46" s="4">
+        <v>51.349722621114147</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.23936116126951482</v>
+      </c>
+      <c r="F46" s="4">
+        <v>3.5996319424733199</v>
+      </c>
+      <c r="G46" s="4">
+        <v>2.5236114883268241</v>
+      </c>
+      <c r="H46" s="4">
         <v>0.01</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47">
+    </row>
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>61.598750315297565</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>21.107292885838287</v>
       </c>
       <c r="C47" s="4">
         <v>33.455693134179853</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47">
+      <c r="D47" s="4">
+        <v>52.319118044496612</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.23936116126951482</v>
+      </c>
+      <c r="F47" s="4">
+        <v>3.6675868710060819</v>
+      </c>
+      <c r="G47" s="4">
+        <v>2.5236114883268246</v>
+      </c>
+      <c r="H47" s="4">
         <v>0.01</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48">
+    </row>
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>57.709352696900474</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>19.774560415442668</v>
       </c>
       <c r="C48" s="4">
         <v>31.343272142976918</v>
       </c>
-      <c r="H48">
+      <c r="D48" s="4">
+        <v>49.015644320154415</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.23936116126951487</v>
+      </c>
+      <c r="F48" s="4">
+        <v>3.4360123087245311</v>
+      </c>
+      <c r="G48" s="4">
+        <v>2.5236114883268241</v>
+      </c>
+      <c r="H48" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>57.532058218568984</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>19.713809077760818</v>
       </c>
       <c r="C49" s="4">
         <v>31.246979448221229</v>
       </c>
-      <c r="H49">
+      <c r="D49" s="4">
+        <v>48.865058623318305</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.23936116126951487</v>
+      </c>
+      <c r="F49" s="4">
+        <v>3.4254562033213838</v>
+      </c>
+      <c r="G49" s="4">
+        <v>2.5236114883268246</v>
+      </c>
+      <c r="H49" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>58.097184368250609</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>19.90745396662172</v>
       </c>
       <c r="C50" s="4">
         <v>31.553912412754983</v>
       </c>
-      <c r="H50">
+      <c r="D50" s="4">
+        <v>49.345050531983404</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.23936116126951479</v>
+      </c>
+      <c r="F50" s="4">
+        <v>3.4591037892939176</v>
+      </c>
+      <c r="G50" s="4">
+        <v>2.523611488326825</v>
+      </c>
+      <c r="H50" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>57.964213509501988</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>19.861890463360329</v>
       </c>
       <c r="C51" s="4">
         <v>31.481692891688219</v>
       </c>
-      <c r="H51">
+      <c r="D51" s="4">
+        <v>49.232111259356323</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.23936116126951482</v>
+      </c>
+      <c r="F51" s="4">
+        <v>3.451186710241557</v>
+      </c>
+      <c r="G51" s="4">
+        <v>2.5236114883268246</v>
+      </c>
+      <c r="H51" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>60.865441389529444</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>20.793221611679392</v>
       </c>
       <c r="C52" s="4">
         <v>33.141145907290252</v>
       </c>
-      <c r="H52">
+      <c r="D52" s="4">
+        <v>51.590193540727768</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.24055315968329685</v>
+      </c>
+      <c r="F52" s="4">
+        <v>3.5964904314368034</v>
+      </c>
+      <c r="G52" s="4">
+        <v>2.5096563250826383</v>
+      </c>
+      <c r="H52" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>61.719309092476081</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>21.08492508033245</v>
       </c>
       <c r="C53" s="4">
         <v>33.606075652032814</v>
       </c>
-      <c r="H53">
+      <c r="D53" s="4">
+        <v>52.313940860184026</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.24055315968329685</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3.6469447936044421</v>
+      </c>
+      <c r="G53" s="4">
+        <v>2.5096563250826383</v>
+      </c>
+      <c r="H53" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>59.60653387877479</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>20.36314598481912</v>
       </c>
       <c r="C54" s="4">
         <v>32.455672565682633</v>
       </c>
-      <c r="H54">
+      <c r="D54" s="4">
+        <v>50.523130185119186</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.24055315968329682</v>
+      </c>
+      <c r="F54" s="4">
+        <v>3.5221025897793874</v>
+      </c>
+      <c r="G54" s="4">
+        <v>2.5096563250826383</v>
+      </c>
+      <c r="H54" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>50.454823626680074</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>17.236683166947902</v>
       </c>
       <c r="C55" s="4">
         <v>27.472579404082872</v>
       </c>
-      <c r="H55">
+      <c r="D55" s="4">
+        <v>42.766043530434224</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.24055315968329682</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2.9813353234698248</v>
+      </c>
+      <c r="G55" s="4">
+        <v>2.5096563250826387</v>
+      </c>
+      <c r="H55" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>60.471348603554077</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>20.658589241531832</v>
       </c>
       <c r="C56" s="4">
         <v>32.926562948178301</v>
       </c>
-      <c r="H56">
+      <c r="D56" s="4">
+        <v>51.256156316363352</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.24055315968329677</v>
+      </c>
+      <c r="F56" s="4">
+        <v>3.5732038027440485</v>
+      </c>
+      <c r="G56" s="4">
+        <v>2.5096563250826387</v>
+      </c>
+      <c r="H56" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>62.879693406736891</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>21.481342614655834</v>
       </c>
       <c r="C57" s="4">
         <v>25.140928110930986</v>
       </c>
-      <c r="H57">
+      <c r="D57" s="4">
+        <v>50.158317986270546</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.2405531596832968</v>
+      </c>
+      <c r="F57" s="4">
+        <v>3.4966705552708373</v>
+      </c>
+      <c r="G57" s="4">
+        <v>3.4177485445043683</v>
+      </c>
+      <c r="H57" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>53.782718263805428</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>18.373578737082891</v>
       </c>
       <c r="C58" s="4">
         <v>29.284613281028243</v>
       </c>
-      <c r="H58">
+      <c r="D58" s="4">
+        <v>45.586802313956035</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.24055315968329677</v>
+      </c>
+      <c r="F58" s="4">
+        <v>3.177977965764212</v>
+      </c>
+      <c r="G58" s="4">
+        <v>2.5096563250826383</v>
+      </c>
+      <c r="H58" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>57.778381232722374</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>19.738601378856806</v>
       </c>
       <c r="C59" s="4">
         <v>31.460246060913299</v>
       </c>
-      <c r="H59">
+      <c r="D59" s="4">
+        <v>48.973568616539779</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.2405531596832968</v>
+      </c>
+      <c r="F59" s="4">
+        <v>3.4140785066768791</v>
+      </c>
+      <c r="G59" s="4">
+        <v>2.5096563250826387</v>
+      </c>
+      <c r="H59" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>59.475169616782999</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>20.318268528103264</v>
       </c>
       <c r="C60" s="4">
         <v>32.384144912645311</v>
       </c>
-      <c r="H60">
+      <c r="D60" s="4">
+        <v>50.411784443664388</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.24055315968329685</v>
+      </c>
+      <c r="F60" s="4">
+        <v>3.5143403802151361</v>
+      </c>
+      <c r="G60" s="4">
+        <v>2.5096563250826387</v>
+      </c>
+      <c r="H60" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>56.399056481808586</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>19.267388083340332</v>
       </c>
       <c r="C61" s="4">
         <v>30.709205704021478</v>
       </c>
-      <c r="H61">
+      <c r="D61" s="4">
+        <v>47.804438331264308</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.24055315968329685</v>
+      </c>
+      <c r="F61" s="4">
+        <v>3.3325753062522332</v>
+      </c>
+      <c r="G61" s="4">
+        <v>2.5096563250826383</v>
+      </c>
+      <c r="H61" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>64.445426316065038</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>20.0723041697408</v>
       </c>
       <c r="C62" s="4">
         <v>37.682354089743974</v>
       </c>
-      <c r="H62">
+      <c r="D62" s="4">
+        <v>51.137150365057636</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.27382362116023046</v>
+      </c>
+      <c r="F62" s="4">
+        <v>3.026587381388254</v>
+      </c>
+      <c r="G62" s="4">
+        <v>2.1306847360901893</v>
+      </c>
+      <c r="H62" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>65.349516829132142</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>20.353894048381051</v>
       </c>
       <c r="C63" s="4">
         <v>38.210991431290743</v>
       </c>
-      <c r="H63">
+      <c r="D63" s="4">
+        <v>51.854542042840819</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0.2738236211602304</v>
+      </c>
+      <c r="F63" s="4">
+        <v>3.069046700767442</v>
+      </c>
+      <c r="G63" s="4">
+        <v>2.1306847360901893</v>
+      </c>
+      <c r="H63" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>63.112472354491757</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>19.657139605078896</v>
       </c>
       <c r="C64" s="4">
         <v>36.902952881053231</v>
       </c>
-      <c r="H64">
+      <c r="D64" s="4">
+        <v>50.07945750678757</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0.27382362116023046</v>
+      </c>
+      <c r="F64" s="4">
+        <v>2.9639871028163749</v>
+      </c>
+      <c r="G64" s="4">
+        <v>2.1306847360901888</v>
+      </c>
+      <c r="H64" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
         <v>53.42247659905464</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>16.639073726319307</v>
       </c>
       <c r="C65" s="4">
         <v>31.237044963962234</v>
       </c>
-      <c r="H65">
+      <c r="D65" s="4">
+        <v>42.390490293624225</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0.27382362116023046</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2.5089102951112348</v>
+      </c>
+      <c r="G65" s="4">
+        <v>2.1306847360901888</v>
+      </c>
+      <c r="H65" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
         <v>64.028153771572534</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>19.942339610368379</v>
       </c>
       <c r="C66" s="4">
         <v>37.438367624414695</v>
       </c>
-      <c r="H66">
+      <c r="D66" s="4">
+        <v>50.806046513773097</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0.2738236211602304</v>
+      </c>
+      <c r="F66" s="4">
+        <v>3.0069907724440146</v>
+      </c>
+      <c r="G66" s="4">
+        <v>2.1306847360901893</v>
+      </c>
+      <c r="H66" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
         <v>66.578152654582297</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>20.736567473199848</v>
       </c>
       <c r="C67" s="4">
         <v>38.929396023649169</v>
       </c>
-      <c r="H67">
+      <c r="D67" s="4">
+        <v>52.829458938289768</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0.2738236211602304</v>
+      </c>
+      <c r="F67" s="4">
+        <v>3.1267478271032623</v>
+      </c>
+      <c r="G67" s="4">
+        <v>2.1306847360901893</v>
+      </c>
+      <c r="H67" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
         <v>56.946111419213594</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <v>17.736552227686431</v>
       </c>
       <c r="C68" s="4">
         <v>33.297375115631688</v>
       </c>
-      <c r="H68">
+      <c r="D68" s="4">
+        <v>45.186478371138165</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0.27382362116023046</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2.6743927706403765</v>
+      </c>
+      <c r="G68" s="4">
+        <v>2.1306847360901888</v>
+      </c>
+      <c r="H68" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
         <v>61.176791384207064</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <v>19.054248454656822</v>
       </c>
       <c r="C69" s="4">
         <v>35.771126777997971</v>
       </c>
-      <c r="H69">
+      <c r="D69" s="4">
+        <v>48.543503529995355</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0.27382362116023046</v>
+      </c>
+      <c r="F69" s="4">
+        <v>2.8730806113250362</v>
+      </c>
+      <c r="G69" s="4">
+        <v>2.1306847360901888</v>
+      </c>
+      <c r="H69" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
         <v>62.973381506327584</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>19.613818085288088</v>
       </c>
       <c r="C70" s="4">
         <v>36.8216240592768</v>
       </c>
-      <c r="H70">
+      <c r="D70" s="4">
+        <v>49.969089556359378</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0.27382362116023046</v>
+      </c>
+      <c r="F70" s="4">
+        <v>2.957454899834961</v>
+      </c>
+      <c r="G70" s="4">
+        <v>2.1306847360901893</v>
+      </c>
+      <c r="H70" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
         <v>59.716337478483297</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>18.599372496853348</v>
       </c>
       <c r="C71" s="4">
         <v>34.917174149345499</v>
       </c>
-      <c r="H71">
+      <c r="D71" s="4">
+        <v>47.384640050499456</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0.27382362116023046</v>
+      </c>
+      <c r="F71" s="4">
+        <v>2.8044924800201954</v>
+      </c>
+      <c r="G71" s="4">
+        <v>2.1306847360901893</v>
+      </c>
+      <c r="H71" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
         <v>65.341752128367844</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>20.254290650565142</v>
       </c>
       <c r="C72" s="4">
         <v>38.336031260947657</v>
       </c>
-      <c r="H72">
+      <c r="D72" s="4">
+        <v>51.664194041883711</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.27538887767570741</v>
+      </c>
+      <c r="F72" s="4">
+        <v>3.0328926366039095</v>
+      </c>
+      <c r="G72" s="4">
+        <v>2.1133424597551271</v>
+      </c>
+      <c r="H72" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
         <v>66.258416996355749</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <v>20.538433576957964</v>
       </c>
       <c r="C73" s="4">
         <v>38.87383889374513</v>
       </c>
-      <c r="H73">
+      <c r="D73" s="4">
+        <v>52.388979497866963</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0.27538887767570747</v>
+      </c>
+      <c r="F73" s="4">
+        <v>3.0754404110023086</v>
+      </c>
+      <c r="G73" s="4">
+        <v>2.1133424597551267</v>
+      </c>
+      <c r="H73" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
         <v>63.990259053770316</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>19.83536197703727</v>
       </c>
       <c r="C74" s="4">
         <v>37.543109751053962</v>
       </c>
-      <c r="H74">
+      <c r="D74" s="4">
+        <v>50.595600100369936</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0.27538887767570741</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2.9701619435806275</v>
+      </c>
+      <c r="G74" s="4">
+        <v>2.1133424597551271</v>
+      </c>
+      <c r="H74" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
         <v>54.16549200713083</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>16.789932663391141</v>
       </c>
       <c r="C75" s="4">
         <v>31.778915122609309</v>
       </c>
-      <c r="H75">
+      <c r="D75" s="4">
+        <v>42.827386751626257</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.27538887767570747</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2.5141370795157219</v>
+      </c>
+      <c r="G75" s="4">
+        <v>2.1133424597551271</v>
+      </c>
+      <c r="H75" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
         <v>64.91867603545036</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>20.123147761460768</v>
       </c>
       <c r="C76" s="4">
         <v>38.08781235350267</v>
       </c>
-      <c r="H76">
+      <c r="D76" s="4">
+        <v>51.329677677583746</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.27538887767570741</v>
+      </c>
+      <c r="F76" s="4">
+        <v>3.0132552022661865</v>
+      </c>
+      <c r="G76" s="4">
+        <v>2.1133424597551276</v>
+      </c>
+      <c r="H76" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>67.504141047723905</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>20.924576528209744</v>
       </c>
       <c r="C77" s="4">
         <v>39.604705676777584</v>
       </c>
-      <c r="H77">
+      <c r="D77" s="4">
+        <v>53.373944348305756</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.27538887767570741</v>
+      </c>
+      <c r="F77" s="4">
+        <v>3.1332617454411609</v>
+      </c>
+      <c r="G77" s="4">
+        <v>2.1133424597551267</v>
+      </c>
+      <c r="H77" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
         <v>57.738134569545196</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <v>17.897361504717008</v>
       </c>
       <c r="C78" s="4">
         <v>33.874985896589187</v>
       </c>
-      <c r="H78">
+      <c r="D78" s="4">
+        <v>45.652191605714862</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.27538887767570747</v>
+      </c>
+      <c r="F78" s="4">
+        <v>2.6799643028120501</v>
+      </c>
+      <c r="G78" s="4">
+        <v>2.1133424597551271</v>
+      </c>
+      <c r="H78" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
         <v>62.027656067180843</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>19.227004685914178</v>
       </c>
       <c r="C79" s="4">
         <v>36.391649819295274</v>
       </c>
-      <c r="H79">
+      <c r="D79" s="4">
+        <v>49.043815854867297</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0.27538887767570747</v>
+      </c>
+      <c r="F79" s="4">
+        <v>2.879066067625077</v>
+      </c>
+      <c r="G79" s="4">
+        <v>2.1133424597551276</v>
+      </c>
+      <c r="H79" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
         <v>63.849233689464484</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>19.79164768066914</v>
       </c>
       <c r="C80" s="4">
         <v>37.460370115238966</v>
       </c>
-      <c r="H80">
+      <c r="D80" s="4">
+        <v>50.484094645603264</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0.27538887767570752</v>
+      </c>
+      <c r="F80" s="4">
+        <v>2.9636161321347165</v>
+      </c>
+      <c r="G80" s="4">
+        <v>2.1133424597551267</v>
+      </c>
+      <c r="H80" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
         <v>60.546889741969636</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <v>18.768004574048852</v>
       </c>
       <c r="C81" s="4">
         <v>35.522883643237833</v>
       </c>
-      <c r="H81">
+      <c r="D81" s="4">
+        <v>47.873008579817423</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0.27538887767570747</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2.8103350474430462</v>
+      </c>
+      <c r="G81" s="4">
+        <v>2.1133424597551271</v>
+      </c>
+      <c r="H81" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
         <v>64.419126065281887</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <v>20.342303612910019</v>
       </c>
       <c r="C82" s="4">
         <v>37.296054581401862</v>
       </c>
-      <c r="H82">
+      <c r="D82" s="4">
+        <v>51.638545406376977</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0.26924035716400246</v>
+      </c>
+      <c r="F82" s="4">
+        <v>3.1294551441176917</v>
+      </c>
+      <c r="G82" s="4">
+        <v>2.1817110513404234</v>
+      </c>
+      <c r="H82" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
         <v>65.322847617996274</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>20.627681253522788</v>
       </c>
       <c r="C83" s="4">
         <v>37.819272613299226</v>
       </c>
-      <c r="H83">
+      <c r="D83" s="4">
+        <v>52.36297104337293</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0.26924035716400241</v>
+      </c>
+      <c r="F83" s="4">
+        <v>3.1733575723984822</v>
+      </c>
+      <c r="G83" s="4">
+        <v>2.1817110513404239</v>
+      </c>
+      <c r="H83" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
         <v>63.086716083715814</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <v>20.342303612910019</v>
       </c>
       <c r="C84" s="4">
         <v>35.963644599835789</v>
       </c>
-      <c r="H84">
+      <c r="D84" s="4">
+        <v>51.345895418002449</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0.26204721930844521</v>
+      </c>
+      <c r="F84" s="4">
+        <v>3.2270051402425333</v>
+      </c>
+      <c r="G84" s="4">
+        <v>2.2625408341403643</v>
+      </c>
+      <c r="H84" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
         <v>53.400674826418026</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <v>16.862891610054369</v>
       </c>
       <c r="C85" s="4">
         <v>30.916819346345534</v>
       </c>
-      <c r="H85">
+      <c r="D85" s="4">
+        <v>42.806125139926529</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0.26924035716400241</v>
+      </c>
+      <c r="F85" s="4">
+        <v>2.5941832300788579</v>
+      </c>
+      <c r="G85" s="4">
+        <v>2.1817110513404239</v>
+      </c>
+      <c r="H85" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
         <v>64.002023810182948</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>20.21059085570413</v>
       </c>
       <c r="C86" s="4">
         <v>37.054569335910777</v>
       </c>
-      <c r="H86">
+      <c r="D86" s="4">
+        <v>51.304195112378856</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0.26924035716400241</v>
+      </c>
+      <c r="F86" s="4">
+        <v>3.1091924849111758</v>
+      </c>
+      <c r="G86" s="4">
+        <v>2.1817110513404234</v>
+      </c>
+      <c r="H86" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
         <v>66.550982035787612</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <v>21.015502149740136</v>
       </c>
       <c r="C87" s="4">
         <v>38.530312502800768</v>
       </c>
-      <c r="H87">
+      <c r="D87" s="4">
+        <v>53.347446909034062</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0.26924035716400241</v>
+      </c>
+      <c r="F87" s="4">
+        <v>3.2330198467287823</v>
+      </c>
+      <c r="G87" s="4">
+        <v>2.1817110513404239</v>
+      </c>
+      <c r="H87" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
         <v>56.922871647253587</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
         <v>17.975132670904127</v>
       </c>
       <c r="C88" s="4">
         <v>32.956028086048086</v>
       </c>
-      <c r="H88">
+      <c r="D88" s="4">
+        <v>45.629527622577363</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0.26924035716400241</v>
+      </c>
+      <c r="F88" s="4">
+        <v>2.7652901300450052</v>
+      </c>
+      <c r="G88" s="4">
+        <v>2.1817110513404239</v>
+      </c>
+      <c r="H88" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
         <v>61.151825067006797</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
         <v>19.310553681463865</v>
       </c>
       <c r="C89" s="4">
         <v>35.404420158388312</v>
       </c>
-      <c r="H89">
+      <c r="D89" s="4">
+        <v>49.019468103391681</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0.26924035716400241</v>
+      </c>
+      <c r="F89" s="4">
+        <v>2.9707309803333071</v>
+      </c>
+      <c r="G89" s="4">
+        <v>2.1817110513404239</v>
+      </c>
+      <c r="H89" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
         <v>62.947681998682825</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="4">
         <v>19.877650274989232</v>
       </c>
       <c r="C90" s="4">
         <v>36.444148298697186</v>
       </c>
-      <c r="H90">
+      <c r="D90" s="4">
+        <v>50.459031869216936</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0.26924035716400252</v>
+      </c>
+      <c r="F90" s="4">
+        <v>3.0579729852502551</v>
+      </c>
+      <c r="G90" s="4">
+        <v>2.181711051340423</v>
+      </c>
+      <c r="H90" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
         <v>59.691967174160489</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="4">
         <v>18.849559031243242</v>
       </c>
       <c r="C91" s="4">
         <v>34.559221799169499</v>
       </c>
-      <c r="H91">
+      <c r="D91" s="4">
+        <v>47.849242074398241</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0.26924035716400246</v>
+      </c>
+      <c r="F91" s="4">
+        <v>2.8998116731104946</v>
+      </c>
+      <c r="G91" s="4">
+        <v>2.1817110513404234</v>
+      </c>
+      <c r="H91" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
         <v>60.261955843810277</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
         <v>20.928771371225444</v>
       </c>
       <c r="C92" s="4">
         <v>32.356927348843016</v>
       </c>
-      <c r="H92">
+      <c r="D92" s="4">
+        <v>51.650336262345206</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0.23395528925692802</v>
+      </c>
+      <c r="F92" s="4">
+        <v>3.7119926171103725</v>
+      </c>
+      <c r="G92" s="4">
+        <v>2.5872384167495794</v>
+      </c>
+      <c r="H92" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
         <v>61.107357382626326</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4">
         <v>21.22237643722465</v>
       </c>
       <c r="C93" s="4">
         <v>32.810855466326792</v>
       </c>
-      <c r="H93">
+      <c r="D93" s="4">
+        <v>52.374927310629914</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0.23395528925692805</v>
+      </c>
+      <c r="F93" s="4">
+        <v>3.7640673336813451</v>
+      </c>
+      <c r="G93" s="4">
+        <v>2.587238416749579</v>
+      </c>
+      <c r="H93" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
         <v>59.015530498119965</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="4">
         <v>20.49589210725226</v>
       </c>
       <c r="C94" s="4">
         <v>31.687674355116954</v>
       </c>
-      <c r="H94">
+      <c r="D94" s="4">
+        <v>50.582028947566499</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0.23395528925692799</v>
+      </c>
+      <c r="F94" s="4">
+        <v>3.6352157913967598</v>
+      </c>
+      <c r="G94" s="4">
+        <v>2.5872384167495794</v>
+      </c>
+      <c r="H94" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
         <v>49.954560159014676</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="4">
         <v>17.349048066542821</v>
       </c>
       <c r="C95" s="4">
         <v>26.822496070290917</v>
       </c>
-      <c r="H95">
+      <c r="D95" s="4">
+        <v>42.815899250566389</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0.23395528925692802</v>
+      </c>
+      <c r="F95" s="4">
+        <v>3.0770816496873583</v>
+      </c>
+      <c r="G95" s="4">
+        <v>2.5872384167495794</v>
+      </c>
+      <c r="H95" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
         <v>59.871770518202879</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="4">
         <v>20.793261340764275</v>
       </c>
       <c r="C96" s="4">
         <v>32.147422063850513</v>
       </c>
-      <c r="H96">
+      <c r="D96" s="4">
+        <v>51.315909624675363</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0.23395528925692802</v>
+      </c>
+      <c r="F96" s="4">
+        <v>3.6879581325391557</v>
+      </c>
+      <c r="G96" s="4">
+        <v>2.5872384167495794</v>
+      </c>
+      <c r="H96" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
         <v>62.256236396914794</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="4">
         <v>21.621378193582547</v>
       </c>
       <c r="C97" s="4">
         <v>33.427732138804728</v>
       </c>
-      <c r="H97">
+      <c r="D97" s="4">
+        <v>53.359627965991173</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0.23395528925692802</v>
+      </c>
+      <c r="F97" s="4">
+        <v>3.8348355382521553</v>
+      </c>
+      <c r="G97" s="4">
+        <v>2.5872384167495799</v>
+      </c>
+      <c r="H97" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
         <v>53.249458464143878</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="4">
         <v>18.493354990437162</v>
       </c>
       <c r="C98" s="4">
         <v>28.591651810227663</v>
       </c>
-      <c r="H98">
+      <c r="D98" s="4">
+        <v>45.639946413111879</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0.23395528925692807</v>
+      </c>
+      <c r="F98" s="4">
+        <v>3.2800395193998662</v>
+      </c>
+      <c r="G98" s="4">
+        <v>2.5872384167495786</v>
+      </c>
+      <c r="H98" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
         <v>57.205504126552277</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="4">
         <v>19.867276132612933</v>
       </c>
       <c r="C99" s="4">
         <v>30.715802616401703</v>
       </c>
-      <c r="H99">
+      <c r="D99" s="4">
+        <v>49.030660933931301</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0.23395528925692802</v>
+      </c>
+      <c r="F99" s="4">
+        <v>3.5237224879691631</v>
+      </c>
+      <c r="G99" s="4">
+        <v>2.5872384167495794</v>
+      </c>
+      <c r="H99" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
         <v>58.885468722917494</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="4">
         <v>20.450722097098534</v>
       </c>
       <c r="C100" s="4">
         <v>31.61783926011945</v>
       </c>
-      <c r="H100">
+      <c r="D100" s="4">
+        <v>50.470553401676547</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0.23395528925692802</v>
+      </c>
+      <c r="F100" s="4">
+        <v>3.6272042965396869</v>
+      </c>
+      <c r="G100" s="4">
+        <v>2.5872384167495794</v>
+      </c>
+      <c r="H100" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
         <v>55.839855486926368</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="4">
         <v>19.392991025998832</v>
       </c>
       <c r="C101" s="4">
         <v>29.982534118927926</v>
       </c>
-      <c r="H101">
+      <c r="D101" s="4">
+        <v>47.860167702086798</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0.23395528925692805</v>
+      </c>
+      <c r="F101" s="4">
+        <v>3.4396017919698996</v>
+      </c>
+      <c r="G101" s="4">
+        <v>2.587238416749579</v>
+      </c>
+      <c r="H101" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
         <v>60.199468829440576</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="4">
         <v>20.355720459362519</v>
       </c>
       <c r="C102" s="4">
         <v>33.058508216957222</v>
       </c>
-      <c r="H102">
+      <c r="D102" s="4">
+        <v>50.667653993112623</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0.24455565437400836</v>
+      </c>
+      <c r="F102" s="4">
+        <v>3.4665024616583122</v>
+      </c>
+      <c r="G102" s="4">
+        <v>2.4629932271319053</v>
+      </c>
+      <c r="H102" s="4">
         <v>0.03</v>
       </c>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A103">
+    </row>
+    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
         <v>60.520916922987574</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="4">
         <v>20.464414234601243</v>
       </c>
       <c r="C103" s="4">
         <v>33.235031276852581</v>
       </c>
-      <c r="H103">
+      <c r="D103" s="4">
+        <v>50.938204898249836</v>
+      </c>
+      <c r="E103" s="4">
+        <v>0.24455565437400836</v>
+      </c>
+      <c r="F103" s="4">
+        <v>3.4850126018512944</v>
+      </c>
+      <c r="G103" s="4">
+        <v>2.4629932271319062</v>
+      </c>
+      <c r="H103" s="4">
         <v>0.03</v>
       </c>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4"/>
-      <c r="S103" s="4"/>
-      <c r="T103" s="4"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104">
+    </row>
+    <row r="104" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
         <v>60.476579254912131</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="4">
         <v>20.449421989740731</v>
       </c>
       <c r="C104" s="4">
         <v>33.210683268591154</v>
       </c>
-      <c r="H104">
+      <c r="D104" s="4">
+        <v>50.900887532024022</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0.24455565437400839</v>
+      </c>
+      <c r="F104" s="4">
+        <v>3.4824594790660561</v>
+      </c>
+      <c r="G104" s="4">
+        <v>2.4629932271319062</v>
+      </c>
+      <c r="H104" s="4">
         <v>0.03</v>
       </c>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
-      <c r="S104" s="4"/>
-      <c r="T104" s="4"/>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105">
+    </row>
+    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
         <v>60.831280599515722</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="4">
         <v>20.56935994862484</v>
       </c>
       <c r="C105" s="4">
         <v>33.405467334682605</v>
       </c>
-      <c r="H105">
+      <c r="D105" s="4">
+        <v>51.199426461830619</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0.24455565437400836</v>
+      </c>
+      <c r="F105" s="4">
+        <v>3.5028844613479686</v>
+      </c>
+      <c r="G105" s="4">
+        <v>2.4629932271319053</v>
+      </c>
+      <c r="H105" s="4">
         <v>0.03</v>
       </c>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-      <c r="S105" s="4"/>
-      <c r="T105" s="4"/>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106">
+    </row>
+    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
         <v>59.079942710535491</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="4">
         <v>19.977166276634545</v>
       </c>
       <c r="C106" s="4">
         <v>32.4437210083561</v>
       </c>
-      <c r="H106">
+      <c r="D106" s="4">
+        <v>49.72539049591056</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0.24455565437400842</v>
+      </c>
+      <c r="F106" s="4">
+        <v>3.4020361113310256</v>
+      </c>
+      <c r="G106" s="4">
+        <v>2.4629932271319053</v>
+      </c>
+      <c r="H106" s="4">
         <v>0.03</v>
       </c>
-      <c r="T106" s="4"/>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107">
+    </row>
+    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
         <v>61.474176786609732</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="4">
         <v>20.78674749910229</v>
       </c>
       <c r="C107" s="4">
         <v>31.70789630598383</v>
       </c>
-      <c r="H107">
+      <c r="D107" s="4">
+        <v>51.17689564051264</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0.24455565437400836</v>
+      </c>
+      <c r="F107" s="4">
+        <v>3.5013429818949713</v>
+      </c>
+      <c r="G107" s="4">
+        <v>2.6222802419319722</v>
+      </c>
+      <c r="H107" s="4">
         <v>0.03</v>
       </c>
-      <c r="T107" s="4"/>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A108">
+    </row>
+    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
         <v>59.423559638120217</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="4">
         <v>20.093356174303526</v>
       </c>
       <c r="C108" s="4">
         <v>32.63241807238218</v>
       </c>
-      <c r="H108">
+      <c r="D108" s="4">
+        <v>50.014600084160691</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0.24455565437400842</v>
+      </c>
+      <c r="F108" s="4">
+        <v>3.4218228129166279</v>
+      </c>
+      <c r="G108" s="4">
+        <v>2.4629932271319057</v>
+      </c>
+      <c r="H108" s="4">
         <v>0.03</v>
       </c>
-      <c r="T108" s="4"/>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109">
+    </row>
+    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
         <v>59.157533629667526</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="4">
         <v>20.003402705140445</v>
       </c>
       <c r="C109" s="4">
         <v>32.486330022813604</v>
       </c>
-      <c r="H109">
+      <c r="D109" s="4">
+        <v>49.790695886805757</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0.24455565437400839</v>
+      </c>
+      <c r="F109" s="4">
+        <v>3.4065040762051946</v>
+      </c>
+      <c r="G109" s="4">
+        <v>2.4629932271319053</v>
+      </c>
+      <c r="H109" s="4">
         <v>0.03</v>
       </c>
-      <c r="T109" s="4"/>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A110">
+    </row>
+    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
         <v>60.243806497516019</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="4">
         <v>20.370712704223031</v>
       </c>
       <c r="C110" s="4">
         <v>33.082856225218649</v>
       </c>
-      <c r="H110">
+      <c r="D110" s="4">
+        <v>50.704971359338444</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0.24455565437400836</v>
+      </c>
+      <c r="F110" s="4">
+        <v>3.4690555844435509</v>
+      </c>
+      <c r="G110" s="4">
+        <v>2.4629932271319053</v>
+      </c>
+      <c r="H110" s="4">
         <v>0.03</v>
       </c>
-      <c r="T110" s="4"/>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A111">
+    </row>
+    <row r="111" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
         <v>55.776786438914563</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="4">
         <v>18.860244034526275</v>
       </c>
       <c r="C111" s="4">
         <v>30.629794392879532</v>
       </c>
-      <c r="H111">
+      <c r="D111" s="4">
+        <v>46.945246712086671</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0.24455565437400839</v>
+      </c>
+      <c r="F111" s="4">
+        <v>3.2118284638307175</v>
+      </c>
+      <c r="G111" s="4">
+        <v>2.4629932271319053</v>
+      </c>
+      <c r="H111" s="4">
         <v>0.03</v>
       </c>
-      <c r="T111" s="4"/>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A112">
+    </row>
+    <row r="112" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
         <v>64.661664537919577</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="4">
         <v>20.667371717314893</v>
       </c>
       <c r="C112" s="4">
         <v>37.105168914833058</v>
       </c>
-      <c r="H112">
+      <c r="D112" s="4">
+        <v>52.293122773241933</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0.26511303634780387</v>
+      </c>
+      <c r="F112" s="4">
+        <v>3.2363307929009126</v>
+      </c>
+      <c r="G112" s="4">
+        <v>2.227977645352043</v>
+      </c>
+      <c r="H112" s="4">
         <v>0.03</v>
       </c>
-      <c r="T112" s="4"/>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A113">
+    </row>
+    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
         <v>65.006939491261448</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="4">
         <v>20.777729621900075</v>
       </c>
       <c r="C113" s="4">
         <v>37.303299995394681</v>
       </c>
-      <c r="H113">
+      <c r="D113" s="4">
+        <v>52.572353220751431</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0.26511303634780392</v>
+      </c>
+      <c r="F113" s="4">
+        <v>3.2536118816496011</v>
+      </c>
+      <c r="G113" s="4">
+        <v>2.2279776453520426</v>
+      </c>
+      <c r="H113" s="4">
         <v>0.03</v>
       </c>
-      <c r="T113" s="4"/>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A114">
+    </row>
+    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
         <v>64.959315359766023</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="4">
         <v>20.762507841957294</v>
       </c>
       <c r="C114" s="4">
         <v>37.275971570489631</v>
       </c>
-      <c r="H114">
+      <c r="D114" s="4">
+        <v>52.533838676267365</v>
+      </c>
+      <c r="E114" s="4">
+        <v>0.26511303634780387</v>
+      </c>
+      <c r="F114" s="4">
+        <v>3.2512282832015069</v>
+      </c>
+      <c r="G114" s="4">
+        <v>2.227977645352043</v>
+      </c>
+      <c r="H114" s="4">
         <v>0.03</v>
       </c>
-      <c r="T114" s="4"/>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A115">
+    </row>
+    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
         <v>65.340308411729453</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="4">
         <v>20.884282081499563</v>
       </c>
       <c r="C115" s="4">
         <v>37.494598969730035</v>
       </c>
-      <c r="H115">
+      <c r="D115" s="4">
+        <v>52.841955032139893</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0.26511303634780387</v>
+      </c>
+      <c r="F115" s="4">
+        <v>3.270297070786266</v>
+      </c>
+      <c r="G115" s="4">
+        <v>2.227977645352043</v>
+      </c>
+      <c r="H115" s="4">
         <v>0.03</v>
       </c>
-      <c r="T115" s="4"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A116">
+    </row>
+    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
         <v>63.459155217659983</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="4">
         <v>20.283021773759597</v>
       </c>
       <c r="C116" s="4">
         <v>36.415126185980526</v>
       </c>
-      <c r="H116">
+      <c r="D116" s="4">
+        <v>51.320630525019247</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0.26511303634780392</v>
+      </c>
+      <c r="F116" s="4">
+        <v>3.1761449320865149</v>
+      </c>
+      <c r="G116" s="4">
+        <v>2.2279776453520421</v>
+      </c>
+      <c r="H116" s="4">
         <v>0.03</v>
       </c>
-      <c r="T116" s="4"/>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117">
+    </row>
+    <row r="117" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
         <v>66.030858318413181</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="4">
         <v>21.104997890669932</v>
       </c>
       <c r="C117" s="4">
         <v>37.890861130853274</v>
       </c>
-      <c r="H117">
+      <c r="D117" s="4">
+        <v>53.400415927158875</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0.26511303634780387</v>
+      </c>
+      <c r="F117" s="4">
+        <v>3.3048592482836434</v>
+      </c>
+      <c r="G117" s="4">
+        <v>2.227977645352043</v>
+      </c>
+      <c r="H117" s="4">
         <v>0.03</v>
       </c>
-      <c r="T117" s="4"/>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A118">
+    </row>
+    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
         <v>63.82824223674956</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="4">
         <v>20.400990568316171</v>
       </c>
       <c r="C118" s="4">
         <v>36.626921478994667</v>
       </c>
-      <c r="H118">
+      <c r="D118" s="4">
+        <v>51.619118244770767</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0.26511303634780392</v>
+      </c>
+      <c r="F118" s="4">
+        <v>3.1946178200592508</v>
+      </c>
+      <c r="G118" s="4">
+        <v>2.2279776453520426</v>
+      </c>
+      <c r="H118" s="4">
         <v>0.03</v>
       </c>
-      <c r="T118" s="4"/>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A119">
+    </row>
+    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
         <v>63.542497447776981</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="4">
         <v>20.309659888659468</v>
       </c>
       <c r="C119" s="4">
         <v>36.462950929564357</v>
       </c>
-      <c r="H119">
+      <c r="D119" s="4">
+        <v>51.388030977866364</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0.26511303634780392</v>
+      </c>
+      <c r="F119" s="4">
+        <v>3.180316229370681</v>
+      </c>
+      <c r="G119" s="4">
+        <v>2.2279776453520426</v>
+      </c>
+      <c r="H119" s="4">
         <v>0.03</v>
       </c>
-      <c r="T119" s="4"/>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120">
+    </row>
+    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
         <v>64.709288669415002</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="4">
         <v>20.682593497257674</v>
       </c>
       <c r="C120" s="4">
         <v>37.132497339738109</v>
       </c>
-      <c r="H120">
+      <c r="D120" s="4">
+        <v>52.331637317725999</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0.26511303634780387</v>
+      </c>
+      <c r="F120" s="4">
+        <v>3.2387143913490077</v>
+      </c>
+      <c r="G120" s="4">
+        <v>2.2279776453520426</v>
+      </c>
+      <c r="H120" s="4">
         <v>0.03</v>
       </c>
-      <c r="T120" s="4"/>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121">
+    </row>
+    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
         <v>59.911157421250472</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="4">
         <v>19.148999168022193</v>
       </c>
       <c r="C121" s="4">
         <v>34.379158530554214</v>
       </c>
-      <c r="H121">
+      <c r="D121" s="4">
+        <v>48.451296960956256</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0.26511303634780387</v>
+      </c>
+      <c r="F121" s="4">
+        <v>2.998566847703442</v>
+      </c>
+      <c r="G121" s="4">
+        <v>2.2279776453520426</v>
+      </c>
+      <c r="H121" s="4">
         <v>0.03</v>
       </c>
-      <c r="T121" s="4"/>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A122">
+    </row>
+    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
         <v>63.21037237656585</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="4">
         <v>18.882754039410734</v>
       </c>
       <c r="C122" s="4">
         <v>38.033366990684868</v>
       </c>
-      <c r="H122">
+      <c r="D122" s="4">
+        <v>48.604554527156466</v>
+      </c>
+      <c r="E122" s="4">
+        <v>0.28700915199426208</v>
+      </c>
+      <c r="F122" s="4">
+        <v>2.6812358636919096</v>
+      </c>
+      <c r="G122" s="4">
+        <v>1.9859145306841226</v>
+      </c>
+      <c r="H122" s="4">
         <v>0.03</v>
       </c>
-      <c r="T122" s="4"/>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123">
+    </row>
+    <row r="123" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
         <v>63.547897841290656</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="4">
         <v>18.983582591637379</v>
       </c>
       <c r="C123" s="4">
         <v>38.236454385774152</v>
       </c>
-      <c r="H123">
+      <c r="D123" s="4">
+        <v>48.864089066152523</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0.28700915199426208</v>
+      </c>
+      <c r="F123" s="4">
+        <v>2.6955529029198728</v>
+      </c>
+      <c r="G123" s="4">
+        <v>1.9859145306841222</v>
+      </c>
+      <c r="H123" s="4">
         <v>0.03</v>
       </c>
-      <c r="T123" s="4"/>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124">
+    </row>
+    <row r="124" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
         <v>63.501342604776895</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="4">
         <v>18.969675205123359</v>
       </c>
       <c r="C124" s="4">
         <v>38.208442331279088</v>
       </c>
-      <c r="H124">
+      <c r="D124" s="4">
+        <v>48.82829119870479</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0.28700915199426213</v>
+      </c>
+      <c r="F124" s="4">
+        <v>2.6935781388884288</v>
+      </c>
+      <c r="G124" s="4">
+        <v>1.9859145306841217</v>
+      </c>
+      <c r="H124" s="4">
         <v>0.03</v>
       </c>
-      <c r="T124" s="4"/>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A125">
+    </row>
+    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
         <v>63.873784496887019</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="4">
         <v>19.080934297235519</v>
       </c>
       <c r="C125" s="4">
         <v>38.432538767239663</v>
       </c>
-      <c r="H125">
+      <c r="D125" s="4">
+        <v>49.114674138286624</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0.28700915199426213</v>
+      </c>
+      <c r="F125" s="4">
+        <v>2.709376251139973</v>
+      </c>
+      <c r="G125" s="4">
+        <v>1.9859145306841219</v>
+      </c>
+      <c r="H125" s="4">
         <v>0.03</v>
       </c>
-      <c r="T125" s="4"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126">
+    </row>
+    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
         <v>62.034852654593259</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="4">
         <v>18.531592529931725</v>
       </c>
       <c r="C126" s="4">
         <v>37.32606261468429</v>
       </c>
-      <c r="H126">
+      <c r="D126" s="4">
+        <v>47.700658374101266</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0.28700915199426208</v>
+      </c>
+      <c r="F126" s="4">
+        <v>2.6313730718979707</v>
+      </c>
+      <c r="G126" s="4">
+        <v>1.9859145306841219</v>
+      </c>
+      <c r="H126" s="4">
         <v>0.03</v>
       </c>
-      <c r="T126" s="4"/>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A127">
+    </row>
+    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
         <v>64.548835426336623</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="4">
         <v>19.282591401688812</v>
       </c>
       <c r="C127" s="4">
         <v>38.83871355741821</v>
       </c>
-      <c r="H127">
+      <c r="D127" s="4">
+        <v>49.633743216278731</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0.28700915199426202</v>
+      </c>
+      <c r="F127" s="4">
+        <v>2.7380103295959013</v>
+      </c>
+      <c r="G127" s="4">
+        <v>1.9859145306841224</v>
+      </c>
+      <c r="H127" s="4">
         <v>0.03</v>
       </c>
-      <c r="T127" s="4"/>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A128">
+    </row>
+    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
         <v>62.395655737574941</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="4">
         <v>18.63937477541538</v>
       </c>
       <c r="C128" s="4">
         <v>37.543156037021106</v>
       </c>
-      <c r="H128">
+      <c r="D128" s="4">
+        <v>47.978091846821179</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0.28700915199426208</v>
+      </c>
+      <c r="F128" s="4">
+        <v>2.646677493141655</v>
+      </c>
+      <c r="G128" s="4">
+        <v>1.9859145306841217</v>
+      </c>
+      <c r="H128" s="4">
         <v>0.03</v>
       </c>
-      <c r="T128" s="4"/>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A129">
+    </row>
+    <row r="129" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
         <v>62.116324318492346</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="4">
         <v>18.555930456331261</v>
       </c>
       <c r="C129" s="4">
         <v>37.375083710050667</v>
       </c>
-      <c r="H129">
+      <c r="D129" s="4">
+        <v>47.763304642134791</v>
+      </c>
+      <c r="E129" s="4">
+        <v>0.28700915199426208</v>
+      </c>
+      <c r="F129" s="4">
+        <v>2.6348289089529962</v>
+      </c>
+      <c r="G129" s="4">
+        <v>1.9859145306841219</v>
+      </c>
+      <c r="H129" s="4">
         <v>0.03</v>
       </c>
-      <c r="T129" s="4"/>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A130">
+    </row>
+    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
         <v>63.256927613079611</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="4">
         <v>18.896661425924751</v>
       </c>
       <c r="C130" s="4">
         <v>38.061379045179947</v>
       </c>
-      <c r="H130">
+      <c r="D130" s="4">
+        <v>48.640352394604186</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0.28700915199426208</v>
+      </c>
+      <c r="F130" s="4">
+        <v>2.6832106277233523</v>
+      </c>
+      <c r="G130" s="4">
+        <v>1.9859145306841219</v>
+      </c>
+      <c r="H130" s="4">
         <v>0.03</v>
       </c>
-      <c r="T130" s="4"/>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A131">
+    </row>
+    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
         <v>58.566487534317687</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="4">
         <v>17.495492234637233</v>
       </c>
       <c r="C131" s="4">
         <v>35.239164554801377</v>
       </c>
-      <c r="H131">
+      <c r="D131" s="4">
+        <v>45.033717249245328</v>
+      </c>
+      <c r="E131" s="4">
+        <v>0.28700915199426208</v>
+      </c>
+      <c r="F131" s="4">
+        <v>2.4842531515554578</v>
+      </c>
+      <c r="G131" s="4">
+        <v>1.9859145306841222</v>
+      </c>
+      <c r="H131" s="4">
         <v>0.03</v>
       </c>
-      <c r="T131" s="4"/>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A132">
+    </row>
+    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
         <v>62.92783038539762</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="4">
         <v>20.372591556338733</v>
       </c>
       <c r="C132" s="4">
         <v>35.764374976945973</v>
       </c>
-      <c r="H132">
+      <c r="D132" s="4">
+        <v>51.364745473513437</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0.26063356572649182</v>
+      </c>
+      <c r="F132" s="4">
+        <v>3.2510097318342561</v>
+      </c>
+      <c r="G132" s="4">
+        <v>2.2785346109888494</v>
+      </c>
+      <c r="H132" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
         <v>63.263847156006449</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="4">
         <v>20.481375418451385</v>
       </c>
       <c r="C133" s="4">
         <v>35.955346598071273</v>
       </c>
-      <c r="H133">
+      <c r="D133" s="4">
+        <v>51.639018649490588</v>
+      </c>
+      <c r="E133" s="4">
+        <v>0.26063356572649188</v>
+      </c>
+      <c r="F133" s="4">
+        <v>3.2683692019545263</v>
+      </c>
+      <c r="G133" s="4">
+        <v>2.2785346109888485</v>
+      </c>
+      <c r="H133" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
         <v>63.217500015232822</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="4">
         <v>20.372591556338733</v>
       </c>
       <c r="C134" s="4">
         <v>36.054044606781176</v>
       </c>
-      <c r="H134">
+      <c r="D134" s="4">
+        <v>51.430684612105445</v>
+      </c>
+      <c r="E134" s="4">
+        <v>0.26225189539283955</v>
+      </c>
+      <c r="F134" s="4">
+        <v>3.2290300189702501</v>
+      </c>
+      <c r="G134" s="4">
+        <v>2.2602281412285135</v>
+      </c>
+      <c r="H134" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
         <v>63.588277141421869</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="4">
         <v>20.586408112904984</v>
       </c>
       <c r="C135" s="4">
         <v>36.139732990881896</v>
       </c>
-      <c r="H135">
+      <c r="D135" s="4">
+        <v>51.903834129744382</v>
+      </c>
+      <c r="E135" s="4">
+        <v>0.26063356572649188</v>
+      </c>
+      <c r="F135" s="4">
+        <v>3.2851300696568573</v>
+      </c>
+      <c r="G135" s="4">
+        <v>2.2785346109888485</v>
+      </c>
+      <c r="H135" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="136" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
         <v>61.757565080863436</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="4">
         <v>19.993723622773974</v>
       </c>
       <c r="C136" s="4">
         <v>35.099266917164805</v>
       </c>
-      <c r="H136">
+      <c r="D136" s="4">
+        <v>50.4095182054551</v>
+      </c>
+      <c r="E136" s="4">
+        <v>0.26063356572649188</v>
+      </c>
+      <c r="F136" s="4">
+        <v>3.1905508876222761</v>
+      </c>
+      <c r="G136" s="4">
+        <v>2.2785346109888494</v>
+      </c>
+      <c r="H136" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="137" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
         <v>64.260310682639513</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="4">
         <v>20.803975837130292</v>
       </c>
       <c r="C137" s="4">
         <v>36.52167623313246</v>
       </c>
-      <c r="H137">
+      <c r="D137" s="4">
+        <v>52.452380481698675</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0.26063356572649188</v>
+      </c>
+      <c r="F137" s="4">
+        <v>3.3198490098973994</v>
+      </c>
+      <c r="G137" s="4">
+        <v>2.2785346109888489</v>
+      </c>
+      <c r="H137" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="138" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
         <v>62.116755421859075</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="4">
         <v>20.110009820204738</v>
       </c>
       <c r="C138" s="4">
         <v>35.303408994919423</v>
       </c>
-      <c r="H138">
+      <c r="D138" s="4">
+        <v>50.70270677287894</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0.26063356572649188</v>
+      </c>
+      <c r="F138" s="4">
+        <v>3.2091075625784278</v>
+      </c>
+      <c r="G138" s="4">
+        <v>2.2785346109888489</v>
+      </c>
+      <c r="H138" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
         <v>61.838672577217288</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="4">
         <v>20.01998179638737</v>
       </c>
       <c r="C139" s="4">
         <v>35.145363515367464</v>
       </c>
-      <c r="H139">
+      <c r="D139" s="4">
+        <v>50.47572207551854</v>
+      </c>
+      <c r="E139" s="4">
+        <v>0.26063356572649188</v>
+      </c>
+      <c r="F139" s="4">
+        <v>3.194741104547858</v>
+      </c>
+      <c r="G139" s="4">
+        <v>2.2785346109888485</v>
+      </c>
+      <c r="H139" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
         <v>62.974177526171246</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="4">
         <v>20.38759622697496</v>
       </c>
       <c r="C140" s="4">
         <v>35.790715890204638</v>
       </c>
-      <c r="H140">
+      <c r="D140" s="4">
+        <v>51.402576256406832</v>
+      </c>
+      <c r="E140" s="4">
+        <v>0.26063356572649188</v>
+      </c>
+      <c r="F140" s="4">
+        <v>3.2534041415060164</v>
+      </c>
+      <c r="G140" s="4">
+        <v>2.2785346109888489</v>
+      </c>
+      <c r="H140" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
         <v>58.304703093227921</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="4">
         <v>18.875875660374977</v>
       </c>
       <c r="C141" s="4">
         <v>33.136868879394619</v>
       </c>
-      <c r="H141">
+      <c r="D141" s="4">
+        <v>47.591124879896817</v>
+      </c>
+      <c r="E141" s="4">
+        <v>0.26063356572649188</v>
+      </c>
+      <c r="F141" s="4">
+        <v>3.01216736707604</v>
+      </c>
+      <c r="G141" s="4">
+        <v>2.2785346109888489</v>
+      </c>
+      <c r="H141" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
         <v>63.202167596987337</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="4">
         <v>20.384369825580386</v>
       </c>
       <c r="C142" s="4">
         <v>36.023007829546827</v>
       </c>
-      <c r="H142">
+      <c r="D142" s="4">
+        <v>51.448674526480552</v>
+      </c>
+      <c r="E142" s="4">
+        <v>0.2619638224458995</v>
+      </c>
+      <c r="F142" s="4">
+        <v>3.2348116500868671</v>
+      </c>
+      <c r="G142" s="4">
+        <v>2.2634833739630924</v>
+      </c>
+      <c r="H142" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
         <v>63.539649250515716</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="4">
         <v>20.493216580310975</v>
       </c>
       <c r="C143" s="4">
         <v>36.215360476767749</v>
       </c>
-      <c r="H143">
+      <c r="D143" s="4">
+        <v>51.72339585980184</v>
+      </c>
+      <c r="E143" s="4">
+        <v>0.26196382244589955</v>
+      </c>
+      <c r="F143" s="4">
+        <v>3.2520846270436921</v>
+      </c>
+      <c r="G143" s="4">
+        <v>2.2634833739630924</v>
+      </c>
+      <c r="H143" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="144" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
         <v>63.493100056925599</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="4">
         <v>20.478203234830897</v>
       </c>
       <c r="C144" s="4">
         <v>36.18882907715107</v>
       </c>
-      <c r="H144">
+      <c r="D144" s="4">
+        <v>51.685503262102365</v>
+      </c>
+      <c r="E144" s="4">
+        <v>0.2619638224458995</v>
+      </c>
+      <c r="F144" s="4">
+        <v>3.2497021474634415</v>
+      </c>
+      <c r="G144" s="4">
+        <v>2.2634833739630928</v>
+      </c>
+      <c r="H144" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
         <v>63.86549360564657</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="4">
         <v>20.598309998671546</v>
       </c>
       <c r="C145" s="4">
         <v>36.401080274084507</v>
       </c>
-      <c r="H145">
+      <c r="D145" s="4">
+        <v>51.988644043698272</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0.2619638224458995</v>
+      </c>
+      <c r="F145" s="4">
+        <v>3.2687619841054558</v>
+      </c>
+      <c r="G145" s="4">
+        <v>2.2634833739630928</v>
+      </c>
+      <c r="H145" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
         <v>62.026800458836775</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="4">
         <v>20.005282852208332</v>
       </c>
       <c r="C146" s="4">
         <v>35.353089989225666</v>
       </c>
-      <c r="H146">
+      <c r="D146" s="4">
+        <v>50.491886434568471</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0.26196382244589955</v>
+      </c>
+      <c r="F146" s="4">
+        <v>3.174654040685509</v>
+      </c>
+      <c r="G146" s="4">
+        <v>2.263483373963092</v>
+      </c>
+      <c r="H146" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
         <v>64.540456912703334</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="4">
         <v>20.816003508132724</v>
       </c>
       <c r="C147" s="4">
         <v>36.785785568526371</v>
       </c>
-      <c r="H147">
+      <c r="D147" s="4">
+        <v>52.538086710340849</v>
+      </c>
+      <c r="E147" s="4">
+        <v>0.26196382244589955</v>
+      </c>
+      <c r="F147" s="4">
+        <v>3.3033079380191057</v>
+      </c>
+      <c r="G147" s="4">
+        <v>2.263483373963092</v>
+      </c>
+      <c r="H147" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
         <v>62.387556709160208</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="4">
         <v>20.121636279678963</v>
       </c>
       <c r="C148" s="4">
         <v>35.558708336254924</v>
       </c>
-      <c r="H148">
+      <c r="D148" s="4">
+        <v>50.785554066739508</v>
+      </c>
+      <c r="E148" s="4">
+        <v>0.2619638224458995</v>
+      </c>
+      <c r="F148" s="4">
+        <v>3.1931182574324612</v>
+      </c>
+      <c r="G148" s="4">
+        <v>2.2634833739630928</v>
+      </c>
+      <c r="H148" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
         <v>62.108261547619485</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="4">
         <v>20.031556206798474</v>
       </c>
       <c r="C149" s="4">
         <v>35.399519938554853</v>
       </c>
-      <c r="H149">
+      <c r="D149" s="4">
+        <v>50.558198480542579</v>
+      </c>
+      <c r="E149" s="4">
+        <v>0.26196382244589955</v>
+      </c>
+      <c r="F149" s="4">
+        <v>3.1788233799509498</v>
+      </c>
+      <c r="G149" s="4">
+        <v>2.2634833739630924</v>
+      </c>
+      <c r="H149" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
         <v>63.248716790577454</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="4">
         <v>20.399383171060464</v>
       </c>
       <c r="C150" s="4">
         <v>36.0495392291635</v>
       </c>
-      <c r="H150">
+      <c r="D150" s="4">
+        <v>51.486567124180034</v>
+      </c>
+      <c r="E150" s="4">
+        <v>0.26196382244589955</v>
+      </c>
+      <c r="F150" s="4">
+        <v>3.2371941296671181</v>
+      </c>
+      <c r="G150" s="4">
+        <v>2.2634833739630924</v>
+      </c>
+      <c r="H150" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
         <v>58.558885536372728</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="4">
         <v>18.886788613942276</v>
       </c>
       <c r="C151" s="4">
         <v>33.376500717783031</v>
       </c>
-      <c r="H151">
+      <c r="D151" s="4">
+        <v>47.668887905956581</v>
+      </c>
+      <c r="E151" s="4">
+        <v>0.2619638224458995</v>
+      </c>
+      <c r="F151" s="4">
+        <v>2.9971593119567519</v>
+      </c>
+      <c r="G151" s="4">
+        <v>2.263483373963092</v>
+      </c>
+      <c r="H151" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
         <v>63.914115435513999</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="4">
         <v>20.682717906767191</v>
       </c>
       <c r="C152" s="4">
         <v>36.337158226491077</v>
       </c>
-      <c r="H152">
+      <c r="D152" s="4">
+        <v>52.153150448051157</v>
+      </c>
+      <c r="E152" s="4">
+        <v>0.26079054704379873</v>
+      </c>
+      <c r="F152" s="4">
+        <v>3.298334424083472</v>
+      </c>
+      <c r="G152" s="4">
+        <v>2.2767567874021317</v>
+      </c>
+      <c r="H152" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="153" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
         <v>58.786939142335406</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="4">
         <v>19.023554821938614</v>
       </c>
       <c r="C153" s="4">
         <v>33.422199379750587</v>
       </c>
-      <c r="H153">
+      <c r="D153" s="4">
+        <v>47.969436181339354</v>
+      </c>
+      <c r="E153" s="4">
+        <v>0.26079054704379873</v>
+      </c>
+      <c r="F153" s="4">
+        <v>3.0337427614921602</v>
+      </c>
+      <c r="G153" s="4">
+        <v>2.2767567874021313</v>
+      </c>
+      <c r="H153" s="4">
         <v>0.04</v>
       </c>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-      <c r="P153" s="4"/>
-      <c r="Q153" s="4"/>
-      <c r="R153" s="4"/>
-      <c r="S153" s="4"/>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154">
+    </row>
+    <row r="154" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
         <v>64.253586012002998</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="4">
         <v>20.792571170374561</v>
       </c>
       <c r="C154" s="4">
         <v>36.530157784836916</v>
       </c>
-      <c r="H154">
+      <c r="D154" s="4">
+        <v>52.430154360687318</v>
+      </c>
+      <c r="E154" s="4">
+        <v>0.26079054704379878</v>
+      </c>
+      <c r="F154" s="4">
+        <v>3.3158530501454524</v>
+      </c>
+      <c r="G154" s="4">
+        <v>2.2767567874021308</v>
+      </c>
+      <c r="H154" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="155" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
         <v>61.689997865413694</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="4">
         <v>19.962989627960273</v>
       </c>
       <c r="C155" s="4">
         <v>35.072678361466664</v>
       </c>
-      <c r="H155">
+      <c r="D155" s="4">
+        <v>50.338297227331431</v>
+      </c>
+      <c r="E155" s="4">
+        <v>0.26079054704379878</v>
+      </c>
+      <c r="F155" s="4">
+        <v>3.1835572188497974</v>
+      </c>
+      <c r="G155" s="4">
+        <v>2.2767567874021313</v>
+      </c>
+      <c r="H155" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="5">
+    <row r="156" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
         <v>75.022997404067624</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B156" s="4">
         <v>24.277571257229106</v>
       </c>
       <c r="C156" s="4">
         <v>42.652902394428821</v>
       </c>
-      <c r="H156">
+      <c r="D156" s="4">
+        <v>61.217864692593373</v>
+      </c>
+      <c r="E156" s="4">
+        <v>0.26079054704379878</v>
+      </c>
+      <c r="F156" s="4">
+        <v>3.8716163596979785</v>
+      </c>
+      <c r="G156" s="4">
+        <v>2.2767567874021308</v>
+      </c>
+      <c r="H156" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
         <v>61.760233157101069</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="4">
         <v>19.98571788939628</v>
       </c>
       <c r="C157" s="4">
         <v>35.838373985342272</v>
       </c>
-      <c r="H157">
+      <c r="D157" s="4">
+        <v>50.558888055849678</v>
+      </c>
+      <c r="E157" s="4">
+        <v>0.26079054704379878</v>
+      </c>
+      <c r="F157" s="4">
+        <v>3.1975080984627855</v>
+      </c>
+      <c r="G157" s="4">
+        <v>2.2306500733063777</v>
+      </c>
+      <c r="H157" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
         <v>62.485997837870649</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="4">
         <v>20.220576590901697</v>
       </c>
       <c r="C158" s="4">
         <v>35.52522905000172</v>
       </c>
-      <c r="H158">
+      <c r="D158" s="4">
+        <v>50.987823643167957</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0.26079054704379873</v>
+      </c>
+      <c r="F158" s="4">
+        <v>3.2246353765123756</v>
+      </c>
+      <c r="G158" s="4">
+        <v>2.2767567874021313</v>
+      </c>
+      <c r="H158" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
         <v>63.281997810327596</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="4">
         <v>20.478163553843117</v>
       </c>
       <c r="C159" s="4">
         <v>35.977779738536775</v>
       </c>
-      <c r="H159">
+      <c r="D159" s="4">
+        <v>51.637350059004497</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0.26079054704379878</v>
+      </c>
+      <c r="F159" s="4">
+        <v>3.265713534174953</v>
+      </c>
+      <c r="G159" s="4">
+        <v>2.2767567874021308</v>
+      </c>
+      <c r="H159" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
         <v>57.323703898848365</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="4">
         <v>18.550049375355119</v>
       </c>
       <c r="C160" s="4">
         <v>32.590304731708208</v>
       </c>
-      <c r="H160">
+      <c r="D160" s="4">
+        <v>46.775453799286915</v>
+      </c>
+      <c r="E160" s="4">
+        <v>0.26079054704379867</v>
+      </c>
+      <c r="F160" s="4">
+        <v>2.9582314422594811</v>
+      </c>
+      <c r="G160" s="4">
+        <v>2.2767567874021317</v>
+      </c>
+      <c r="H160" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
         <v>65.166644803938908</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="4">
         <v>21.088038569042666</v>
       </c>
       <c r="C161" s="4">
         <v>37.049260045215355</v>
       </c>
-      <c r="H161">
+      <c r="D161" s="4">
+        <v>53.175199367088069</v>
+      </c>
+      <c r="E161" s="4">
+        <v>0.26079054704379873</v>
+      </c>
+      <c r="F161" s="4">
+        <v>3.3629721133466468</v>
+      </c>
+      <c r="G161" s="4">
+        <v>2.2767567874021317</v>
+      </c>
+      <c r="H161" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
         <v>64.884242401559106</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="4">
         <v>20.492432363009954</v>
       </c>
       <c r="C162" s="4">
         <v>37.560999250879171</v>
       </c>
-      <c r="H162">
+      <c r="D162" s="4">
+        <v>52.017448892079379</v>
+      </c>
+      <c r="E162" s="4">
+        <v>0.26918678980182781</v>
+      </c>
+      <c r="F162" s="4">
+        <v>3.1532827323168289</v>
+      </c>
+      <c r="G162" s="4">
+        <v>2.1823096053580415</v>
+      </c>
+      <c r="H162" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="163" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
         <v>59.679242736379095</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="4">
         <v>18.848533942680586</v>
       </c>
       <c r="C163" s="4">
         <v>34.547864146138316</v>
       </c>
-      <c r="H163">
+      <c r="D163" s="4">
+        <v>47.84462057436312</v>
+      </c>
+      <c r="E163" s="4">
+        <v>0.26918678980182781</v>
+      </c>
+      <c r="F163" s="4">
+        <v>2.9003270845595446</v>
+      </c>
+      <c r="G163" s="4">
+        <v>2.1823096053580415</v>
+      </c>
+      <c r="H163" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
         <v>65.228865667061896</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="4">
         <v>20.601274952483816</v>
       </c>
       <c r="C164" s="4">
         <v>37.760499063750146</v>
       </c>
-      <c r="H164">
+      <c r="D164" s="4">
+        <v>52.293732045535478</v>
+      </c>
+      <c r="E164" s="4">
+        <v>0.26918678980182781</v>
+      </c>
+      <c r="F164" s="4">
+        <v>3.1700309373053246</v>
+      </c>
+      <c r="G164" s="4">
+        <v>2.1823096053580411</v>
+      </c>
+      <c r="H164" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
         <v>62.626365834471876</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="4">
         <v>19.779325742319131</v>
       </c>
       <c r="C165" s="4">
         <v>36.253931511379704</v>
       </c>
-      <c r="H165">
+      <c r="D165" s="4">
+        <v>50.207317886677352</v>
+      </c>
+      <c r="E165" s="4">
+        <v>0.26918678980182775</v>
+      </c>
+      <c r="F165" s="4">
+        <v>3.0435531134266833</v>
+      </c>
+      <c r="G165" s="4">
+        <v>2.182309605358042</v>
+      </c>
+      <c r="H165" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="5">
+    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
         <v>76.16174167611581</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166" s="4">
         <v>24.054212273723586</v>
       </c>
       <c r="C166" s="4">
         <v>44.089458644484367</v>
       </c>
-      <c r="H166">
+      <c r="D166" s="4">
+        <v>61.058576913797921</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0.26918678980182781</v>
+      </c>
+      <c r="F166" s="4">
+        <v>3.7013533024576097</v>
+      </c>
+      <c r="G166" s="4">
+        <v>2.1823096053580411</v>
+      </c>
+      <c r="H166" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
         <v>62.697667199748317</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="4">
         <v>19.801844898761999</v>
       </c>
       <c r="C167" s="4">
         <v>36.295207334732318</v>
       </c>
-      <c r="H167">
+      <c r="D167" s="4">
+        <v>50.264479918426872</v>
+      </c>
+      <c r="E167" s="4">
+        <v>0.26918678980182775</v>
+      </c>
+      <c r="F167" s="4">
+        <v>3.0470182592863715</v>
+      </c>
+      <c r="G167" s="4">
+        <v>2.182309605358042</v>
+      </c>
+      <c r="H167" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
         <v>63.434447974271521</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="4">
         <v>20.034542848671634</v>
       </c>
       <c r="C168" s="4">
         <v>36.721724176042677</v>
       </c>
-      <c r="H168">
+      <c r="D168" s="4">
+        <v>50.855154246505435</v>
+      </c>
+      <c r="E168" s="4">
+        <v>0.26918678980182781</v>
+      </c>
+      <c r="F168" s="4">
+        <v>3.0828247665031556</v>
+      </c>
+      <c r="G168" s="4">
+        <v>2.1823096053580411</v>
+      </c>
+      <c r="H168" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="169" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
         <v>64.242530114071158</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="4">
         <v>20.289759955024138</v>
       </c>
       <c r="C169" s="4">
         <v>37.189516840705643</v>
       </c>
-      <c r="H169">
+      <c r="D169" s="4">
+        <v>51.502990606333533</v>
+      </c>
+      <c r="E169" s="4">
+        <v>0.26918678980182781</v>
+      </c>
+      <c r="F169" s="4">
+        <v>3.1220964195796292</v>
+      </c>
+      <c r="G169" s="4">
+        <v>2.1823096053580411</v>
+      </c>
+      <c r="H169" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="170" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
         <v>58.193797626453289</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="4">
         <v>18.379384850120832</v>
       </c>
       <c r="C170" s="4">
         <v>33.687951159625513</v>
       </c>
-      <c r="H170">
+      <c r="D170" s="4">
+        <v>46.653744912914419</v>
+      </c>
+      <c r="E170" s="4">
+        <v>0.26918678980182775</v>
+      </c>
+      <c r="F170" s="4">
+        <v>2.8281365458160281</v>
+      </c>
+      <c r="G170" s="4">
+        <v>2.1823096053580415</v>
+      </c>
+      <c r="H170" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="171" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
         <v>66.155783415655591</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="4">
         <v>20.894023986241102</v>
       </c>
       <c r="C171" s="4">
         <v>38.297084767334127</v>
       </c>
-      <c r="H171">
+      <c r="D171" s="4">
+        <v>53.036838458279462</v>
+      </c>
+      <c r="E171" s="4">
+        <v>0.26918678980182775</v>
+      </c>
+      <c r="F171" s="4">
+        <v>3.2150778334812795</v>
+      </c>
+      <c r="G171" s="4">
+        <v>2.1823096053580415</v>
+      </c>
+      <c r="H171" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="172" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
         <v>62.793117663600945</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="4">
         <v>20.146123936294693</v>
       </c>
       <c r="C172" s="4">
         <v>35.931619081874686</v>
       </c>
-      <c r="H172">
+      <c r="D172" s="4">
+        <v>50.921492090427506</v>
+      </c>
+      <c r="E172" s="4">
+        <v>0.26380370366650929</v>
+      </c>
+      <c r="F172" s="4">
+        <v>3.1722932394855281</v>
+      </c>
+      <c r="G172" s="4">
+        <v>2.2427181909492284</v>
+      </c>
+      <c r="H172" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="173" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
         <v>57.75586756531208</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="4">
         <v>18.530006301844679</v>
       </c>
       <c r="C173" s="4">
         <v>33.049192496185839</v>
       </c>
-      <c r="H173">
+      <c r="D173" s="4">
+        <v>46.83658118647012</v>
+      </c>
+      <c r="E173" s="4">
+        <v>0.26380370366650929</v>
+      </c>
+      <c r="F173" s="4">
+        <v>2.9178125730213038</v>
+      </c>
+      <c r="G173" s="4">
+        <v>2.2427181909492284</v>
+      </c>
+      <c r="H173" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174">
+    <row r="174" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
         <v>63.126634222620069</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="4">
         <v>20.253127158666953</v>
       </c>
       <c r="C174" s="4">
         <v>36.122464677730804</v>
       </c>
-      <c r="H174">
+      <c r="D174" s="4">
+        <v>51.191954227904134</v>
+      </c>
+      <c r="E174" s="4">
+        <v>0.26380370366650935</v>
+      </c>
+      <c r="F174" s="4">
+        <v>3.1891424160322455</v>
+      </c>
+      <c r="G174" s="4">
+        <v>2.242718190949228</v>
+      </c>
+      <c r="H174" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
         <v>60.608009173475637</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="4">
         <v>19.445068341441946</v>
       </c>
       <c r="C175" s="4">
         <v>34.68125138488638</v>
       </c>
-      <c r="H175">
+      <c r="D175" s="4">
+        <v>49.149498775925437</v>
+      </c>
+      <c r="E175" s="4">
+        <v>0.26380370366650935</v>
+      </c>
+      <c r="F175" s="4">
+        <v>3.0619020828001333</v>
+      </c>
+      <c r="G175" s="4">
+        <v>2.242718190949228</v>
+      </c>
+      <c r="H175" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="5">
+    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
         <v>73.707159543226823</v>
       </c>
-      <c r="B176" s="5">
+      <c r="B176" s="4">
         <v>23.647712144269722</v>
       </c>
       <c r="C176" s="4">
         <v>42.176876684200529</v>
       </c>
-      <c r="H176">
+      <c r="D176" s="4">
+        <v>59.772132382335123</v>
+      </c>
+      <c r="E176" s="4">
+        <v>0.26380370366650929</v>
+      </c>
+      <c r="F176" s="4">
+        <v>3.7236680168246785</v>
+      </c>
+      <c r="G176" s="4">
+        <v>2.242718190949228</v>
+      </c>
+      <c r="H176" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
         <v>60.677012599479596</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="4">
         <v>19.467206939174137</v>
       </c>
       <c r="C177" s="4">
         <v>34.72073668058075</v>
       </c>
-      <c r="H177">
+      <c r="D177" s="4">
+        <v>49.205456459541288</v>
+      </c>
+      <c r="E177" s="4">
+        <v>0.26380370366650935</v>
+      </c>
+      <c r="F177" s="4">
+        <v>3.0653881193270398</v>
+      </c>
+      <c r="G177" s="4">
+        <v>2.2427181909492275</v>
+      </c>
+      <c r="H177" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row r="178" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
         <v>61.390048001520491</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="4">
         <v>19.695972449073455</v>
       </c>
       <c r="C178" s="4">
         <v>35.128751402755881</v>
       </c>
-      <c r="H178">
+      <c r="D178" s="4">
+        <v>49.783685856905123</v>
+      </c>
+      <c r="E178" s="4">
+        <v>0.2638037036665094</v>
+      </c>
+      <c r="F178" s="4">
+        <v>3.1014104967717473</v>
+      </c>
+      <c r="G178" s="4">
+        <v>2.242718190949228</v>
+      </c>
+      <c r="H178" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179">
+    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
         <v>62.17208682956533</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="4">
         <v>19.946876556704964</v>
       </c>
       <c r="C179" s="4">
         <v>35.576251420625383</v>
       </c>
-      <c r="H179">
+      <c r="D179" s="4">
+        <v>50.417872937884809</v>
+      </c>
+      <c r="E179" s="4">
+        <v>0.26380370366650929</v>
+      </c>
+      <c r="F179" s="4">
+        <v>3.1409189107433635</v>
+      </c>
+      <c r="G179" s="4">
+        <v>2.242718190949228</v>
+      </c>
+      <c r="H179" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
         <v>56.318296190229646</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="4">
         <v>18.068785515757348</v>
       </c>
       <c r="C180" s="4">
         <v>32.226582169219853</v>
       </c>
-      <c r="H180">
+      <c r="D180" s="4">
+        <v>45.670796111139829</v>
+      </c>
+      <c r="E180" s="4">
+        <v>0.26380370366650929</v>
+      </c>
+      <c r="F180" s="4">
+        <v>2.8451868120440715</v>
+      </c>
+      <c r="G180" s="4">
+        <v>2.242718190949228</v>
+      </c>
+      <c r="H180" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181">
+    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
         <v>64.023678760671515</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="4">
         <v>20.540928929185448</v>
       </c>
       <c r="C181" s="4">
         <v>36.635773521757585</v>
       </c>
-      <c r="H181">
+      <c r="D181" s="4">
+        <v>51.919404114910236</v>
+      </c>
+      <c r="E181" s="4">
+        <v>0.26380370366650935</v>
+      </c>
+      <c r="F181" s="4">
+        <v>3.2344608908820383</v>
+      </c>
+      <c r="G181" s="4">
+        <v>2.242718190949228</v>
+      </c>
+      <c r="H181" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182">
+    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
         <v>62.600632841097941</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="4">
         <v>20.479873806582347</v>
       </c>
       <c r="C182" s="4">
         <v>35.294134432321478</v>
       </c>
-      <c r="H182">
+      <c r="D182" s="4">
+        <v>51.481936877788947</v>
+      </c>
+      <c r="E182" s="4">
+        <v>0.25689096925104982</v>
+      </c>
+      <c r="F182" s="4">
+        <v>3.319228180652698</v>
+      </c>
+      <c r="G182" s="4">
+        <v>2.3210512608947731</v>
+      </c>
+      <c r="H182" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183">
+    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
         <v>57.578823832965909</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="4">
         <v>18.836982830889479</v>
       </c>
       <c r="C183" s="4">
         <v>32.462846725113273</v>
       </c>
-      <c r="H183">
+      <c r="D183" s="4">
+        <v>47.352067216164116</v>
+      </c>
+      <c r="E183" s="4">
+        <v>0.25689096925104982</v>
+      </c>
+      <c r="F183" s="4">
+        <v>3.0529604255014373</v>
+      </c>
+      <c r="G183" s="4">
+        <v>2.3210512608947731</v>
+      </c>
+      <c r="H183" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184">
+    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
         <v>62.933127044832709</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="4">
         <v>20.479873806582347</v>
       </c>
       <c r="C184" s="4">
         <v>35.626628636056246</v>
       </c>
-      <c r="H184">
+      <c r="D184" s="4">
+        <v>51.559925539205288</v>
+      </c>
+      <c r="E184" s="4">
+        <v>0.2587950010374</v>
+      </c>
+      <c r="F184" s="4">
+        <v>3.2932319601805822</v>
+      </c>
+      <c r="G184" s="4">
+        <v>2.2993894837251605</v>
+      </c>
+      <c r="H184" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185">
+    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
         <v>60.42222254076669</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="4">
         <v>19.767204205254387</v>
       </c>
       <c r="C185" s="4">
         <v>34.065950267094173</v>
       </c>
-      <c r="H185">
+      <c r="D185" s="4">
+        <v>49.690440905851226</v>
+      </c>
+      <c r="E185" s="4">
+        <v>0.25689096925104982</v>
+      </c>
+      <c r="F185" s="4">
+        <v>3.203723903303977</v>
+      </c>
+      <c r="G185" s="4">
+        <v>2.3210512608947726</v>
+      </c>
+      <c r="H185" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="5">
+    <row r="186" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
         <v>73.481219025384007</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B186" s="4">
         <v>24.039470920583565</v>
       </c>
       <c r="C186" s="4">
         <v>41.42859113127259</v>
       </c>
-      <c r="H186">
+      <c r="D186" s="4">
+        <v>60.429987811309402</v>
+      </c>
+      <c r="E186" s="4">
+        <v>0.25689096925104982</v>
+      </c>
+      <c r="F186" s="4">
+        <v>3.8961416501470953</v>
+      </c>
+      <c r="G186" s="4">
+        <v>2.3210512608947731</v>
+      </c>
+      <c r="H186" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187">
+    <row r="187" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
         <v>60.491014444987677</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="4">
         <v>19.7897095610858</v>
       </c>
       <c r="C187" s="4">
         <v>34.104735030206612</v>
       </c>
-      <c r="H187">
+      <c r="D187" s="4">
+        <v>49.747014462859795</v>
+      </c>
+      <c r="E187" s="4">
+        <v>0.25689096925104976</v>
+      </c>
+      <c r="F187" s="4">
+        <v>3.2073714067992012</v>
+      </c>
+      <c r="G187" s="4">
+        <v>2.3210512608947731</v>
+      </c>
+      <c r="H187" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188">
+    <row r="188" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
         <v>61.201864121937881</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="4">
         <v>20.022264904677026</v>
       </c>
       <c r="C188" s="4">
         <v>34.505510915701848</v>
       </c>
-      <c r="H188">
+      <c r="D188" s="4">
+        <v>50.331607885281571</v>
+      </c>
+      <c r="E188" s="4">
+        <v>0.25689096925104982</v>
+      </c>
+      <c r="F188" s="4">
+        <v>3.2450622762498353</v>
+      </c>
+      <c r="G188" s="4">
+        <v>2.3210512608947722</v>
+      </c>
+      <c r="H188" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="189" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
         <v>61.981505703109057</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="4">
         <v>20.277325604099666</v>
       </c>
       <c r="C189" s="4">
         <v>34.945071564309501</v>
       </c>
-      <c r="H189">
+      <c r="D189" s="4">
+        <v>50.972774864711909</v>
+      </c>
+      <c r="E189" s="4">
+        <v>0.25689096925104976</v>
+      </c>
+      <c r="F189" s="4">
+        <v>3.2864006491956941</v>
+      </c>
+      <c r="G189" s="4">
+        <v>2.3210512608947735</v>
+      </c>
+      <c r="H189" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190">
+    <row r="190" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
         <v>56.145659161695356</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="4">
         <v>18.368121251068455</v>
       </c>
       <c r="C190" s="4">
         <v>31.654830826937417</v>
       </c>
-      <c r="H190">
+      <c r="D190" s="4">
+        <v>46.173451445152466</v>
+      </c>
+      <c r="E190" s="4">
+        <v>0.25689096925104976</v>
+      </c>
+      <c r="F190" s="4">
+        <v>2.9769707693509648</v>
+      </c>
+      <c r="G190" s="4">
+        <v>2.3210512608947731</v>
+      </c>
+      <c r="H190" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191">
+    <row r="191" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
         <v>63.82742179970554</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="4">
         <v>20.881219318909146</v>
       </c>
       <c r="C191" s="4">
         <v>35.985796041160015</v>
       </c>
-      <c r="H191">
+      <c r="D191" s="4">
+        <v>52.490831977774924</v>
+      </c>
+      <c r="E191" s="4">
+        <v>0.25689096925104976</v>
+      </c>
+      <c r="F191" s="4">
+        <v>3.3842753263175052</v>
+      </c>
+      <c r="G191" s="4">
+        <v>2.3210512608947731</v>
+      </c>
+      <c r="H191" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row r="192" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
         <v>62.847785831563165</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="4">
         <v>20.814313108354778</v>
       </c>
       <c r="C192" s="4">
         <v>35.095368353756797</v>
       </c>
-      <c r="H192">
+      <c r="D192" s="4">
+        <v>52.136019575047513</v>
+      </c>
+      <c r="E192" s="4">
+        <v>0.25240788162546524</v>
+      </c>
+      <c r="F192" s="4">
+        <v>3.4356399166722702</v>
+      </c>
+      <c r="G192" s="4">
+        <v>2.3723145343338961</v>
+      </c>
+      <c r="H192" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="193" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
         <v>57.806150264855354</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="4">
         <v>19.14459348537687</v>
       </c>
       <c r="C193" s="4">
         <v>32.280025617686192</v>
       </c>
-      <c r="H193">
+      <c r="D193" s="4">
+        <v>47.953679543203052</v>
+      </c>
+      <c r="E193" s="4">
+        <v>0.25240788162546518</v>
+      </c>
+      <c r="F193" s="4">
+        <v>3.1600336376425182</v>
+      </c>
+      <c r="G193" s="4">
+        <v>2.3723145343338969</v>
+      </c>
+      <c r="H193" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A194">
+    <row r="194" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
         <v>63.181592752646559</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="4">
         <v>20.924865320835053</v>
       </c>
       <c r="C194" s="4">
         <v>35.281772324866488</v>
       </c>
-      <c r="H194">
+      <c r="D194" s="4">
+        <v>52.412932499530385</v>
+      </c>
+      <c r="E194" s="4">
+        <v>0.25240788162546518</v>
+      </c>
+      <c r="F194" s="4">
+        <v>3.4538878209915942</v>
+      </c>
+      <c r="G194" s="4">
+        <v>2.3723145343338969</v>
+      </c>
+      <c r="H194" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A195">
+    <row r="195" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
         <v>60.660774969292653</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="4">
         <v>20.090005509346096</v>
       </c>
       <c r="C195" s="4">
         <v>33.874100956831192</v>
       </c>
-      <c r="H195">
+      <c r="D195" s="4">
+        <v>50.321762483608133</v>
+      </c>
+      <c r="E195" s="4">
+        <v>0.25240788162546524</v>
+      </c>
+      <c r="F195" s="4">
+        <v>3.3160846814767155</v>
+      </c>
+      <c r="G195" s="4">
+        <v>2.3723145343338965</v>
+      </c>
+      <c r="H195" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A196" s="5">
+    <row r="196" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
         <v>73.7713295594301</v>
       </c>
-      <c r="B196" s="5">
+      <c r="B196" s="4">
         <v>24.432038958140254</v>
       </c>
       <c r="C196" s="4">
         <v>41.1952776152431</v>
       </c>
-      <c r="H196">
+      <c r="D196" s="4">
+        <v>61.197756310710545</v>
+      </c>
+      <c r="E196" s="4">
+        <v>0.25240788162546524</v>
+      </c>
+      <c r="F196" s="4">
+        <v>4.0327868545700705</v>
+      </c>
+      <c r="G196" s="4">
+        <v>2.3723145343338961</v>
+      </c>
+      <c r="H196" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A197">
+    <row r="197" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
         <v>60.72983847020646</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="4">
         <v>20.11287838089374</v>
       </c>
       <c r="C197" s="4">
         <v>33.912667295681473</v>
       </c>
-      <c r="H197">
+      <c r="D197" s="4">
+        <v>50.379054812811489</v>
+      </c>
+      <c r="E197" s="4">
+        <v>0.25240788162546524</v>
+      </c>
+      <c r="F197" s="4">
+        <v>3.3198601099565757</v>
+      </c>
+      <c r="G197" s="4">
+        <v>2.3723145343338965</v>
+      </c>
+      <c r="H197" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A198">
+    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
         <v>61.443494646315784</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="4">
         <v>20.349231386886046</v>
       </c>
       <c r="C198" s="4">
         <v>34.311186130467725</v>
       </c>
-      <c r="H198">
+      <c r="D198" s="4">
+        <v>50.971075547912754</v>
+      </c>
+      <c r="E198" s="4">
+        <v>0.25240788162546524</v>
+      </c>
+      <c r="F198" s="4">
+        <v>3.3588728709151243</v>
+      </c>
+      <c r="G198" s="4">
+        <v>2.3723145343338965</v>
+      </c>
+      <c r="H198" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A199">
+    <row r="199" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
         <v>62.226214323338915</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="4">
         <v>20.608457264425994</v>
       </c>
       <c r="C199" s="4">
         <v>34.748271304104257</v>
       </c>
-      <c r="H199">
+      <c r="D199" s="4">
+        <v>51.620388612217383</v>
+      </c>
+      <c r="E199" s="4">
+        <v>0.25240788162546524</v>
+      </c>
+      <c r="F199" s="4">
+        <v>3.4016610603535344</v>
+      </c>
+      <c r="G199" s="4">
+        <v>2.3723145343338961</v>
+      </c>
+      <c r="H199" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row r="200" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
         <v>56.367327329151074</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="4">
         <v>18.668075328134314</v>
       </c>
       <c r="C200" s="4">
         <v>31.47656022497199</v>
       </c>
-      <c r="H200">
+      <c r="D200" s="4">
+        <v>46.760089351466618</v>
+      </c>
+      <c r="E200" s="4">
+        <v>0.25240788162546524</v>
+      </c>
+      <c r="F200" s="4">
+        <v>3.0813788776454416</v>
+      </c>
+      <c r="G200" s="4">
+        <v>2.3723145343338961</v>
+      </c>
+      <c r="H200" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row r="201" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
         <v>64.079418264526041</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="4">
         <v>21.222212650954408</v>
       </c>
       <c r="C201" s="4">
         <v>35.783134729920164</v>
       </c>
-      <c r="H201">
+      <c r="D201" s="4">
+        <v>53.157732779173912</v>
+      </c>
+      <c r="E201" s="4">
+        <v>0.25240788162546524</v>
+      </c>
+      <c r="F201" s="4">
+        <v>3.5029683912297682</v>
+      </c>
+      <c r="G201" s="4">
+        <v>2.3723145343338965</v>
+      </c>
+      <c r="H201" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A202">
+    <row r="202" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
         <v>69.637767494939496</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="4">
         <v>21.384652624149478</v>
       </c>
       <c r="C202" s="4">
         <v>41.124897329406863</v>
       </c>
-      <c r="H202">
+      <c r="D202" s="4">
+        <v>54.676779682396059</v>
+      </c>
+      <c r="E202" s="4">
+        <v>0.27841168718939369</v>
+      </c>
+      <c r="F202" s="4">
+        <v>3.1590593966841256</v>
+      </c>
+      <c r="G202" s="4">
+        <v>2.0799714054345486</v>
+      </c>
+      <c r="H202" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A203">
+    <row r="203" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
         <v>65.367009018817399</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="4">
         <v>20.073170511226348</v>
       </c>
       <c r="C203" s="4">
         <v>38.602781670515604</v>
       </c>
-      <c r="H203">
+      <c r="D203" s="4">
+        <v>51.32355156099451</v>
+      </c>
+      <c r="E203" s="4">
+        <v>0.27841168718939369</v>
+      </c>
+      <c r="F203" s="4">
+        <v>2.9653199908948409</v>
+      </c>
+      <c r="G203" s="4">
+        <v>2.0799714054345491</v>
+      </c>
+      <c r="H203" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A204">
+    <row r="204" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
         <v>66.855673401922814</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="4">
         <v>20.530315704873839</v>
       </c>
       <c r="C204" s="4">
         <v>39.481919128757696</v>
       </c>
-      <c r="H204">
+      <c r="D204" s="4">
+        <v>52.492391077597333</v>
+      </c>
+      <c r="E204" s="4">
+        <v>0.27841168718939363</v>
+      </c>
+      <c r="F204" s="4">
+        <v>3.0328520123413925</v>
+      </c>
+      <c r="G204" s="4">
+        <v>2.0799714054345491</v>
+      </c>
+      <c r="H204" s="4">
         <v>0.05</v>
       </c>
-      <c r="I204" s="4"/>
-      <c r="J204" s="4"/>
-      <c r="K204" s="4"/>
-      <c r="L204" s="4"/>
-      <c r="M204" s="4"/>
-      <c r="N204" s="4"/>
-      <c r="O204" s="4"/>
-      <c r="P204" s="4"/>
-      <c r="Q204" s="4"/>
-      <c r="R204" s="4"/>
-      <c r="S204" s="4"/>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A205">
+    </row>
+    <row r="205" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
         <v>71.638922895179576</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="4">
         <v>21.99917567134775</v>
       </c>
       <c r="C205" s="4">
         <v>42.306688666715914</v>
       </c>
-      <c r="H205">
+      <c r="D205" s="4">
+        <v>56.248006573567082</v>
+      </c>
+      <c r="E205" s="4">
+        <v>0.27841168718939363</v>
+      </c>
+      <c r="F205" s="4">
+        <v>3.2498401468253912</v>
+      </c>
+      <c r="G205" s="4">
+        <v>2.0799714054345491</v>
+      </c>
+      <c r="H205" s="4">
         <v>0.05</v>
       </c>
-      <c r="I205" s="4"/>
-      <c r="J205" s="4"/>
-      <c r="K205" s="4"/>
-      <c r="L205" s="4"/>
-      <c r="M205" s="4"/>
-      <c r="N205" s="4"/>
-      <c r="O205" s="4"/>
-      <c r="P205" s="4"/>
-      <c r="Q205" s="4"/>
-      <c r="R205" s="4"/>
-      <c r="S205" s="4"/>
-      <c r="T205" s="4"/>
-      <c r="U205" s="4"/>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A206">
+    </row>
+    <row r="206" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
         <v>64.549463824816883</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="4">
         <v>19.822115363895346</v>
       </c>
       <c r="C206" s="4">
         <v>38.119976672956426</v>
       </c>
-      <c r="H206">
+      <c r="D206" s="4">
+        <v>50.681647892040516</v>
+      </c>
+      <c r="E206" s="4">
+        <v>0.27841168718939369</v>
+      </c>
+      <c r="F206" s="4">
+        <v>2.9282327332151792</v>
+      </c>
+      <c r="G206" s="4">
+        <v>2.0799714054345486</v>
+      </c>
+      <c r="H206" s="4">
         <v>0.05</v>
       </c>
-      <c r="I206" s="4"/>
-      <c r="J206" s="4"/>
-      <c r="K206" s="4"/>
-      <c r="L206" s="4"/>
-      <c r="M206" s="4"/>
-      <c r="N206" s="4"/>
-      <c r="O206" s="4"/>
-      <c r="P206" s="4"/>
-      <c r="Q206" s="4"/>
-      <c r="R206" s="4"/>
-      <c r="S206" s="4"/>
-      <c r="T206" s="4"/>
-      <c r="U206" s="4"/>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A207">
+    </row>
+    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
         <v>65.330402517593498</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="4">
         <v>20.06192923597272</v>
       </c>
       <c r="C207" s="4">
         <v>37.312138160534545</v>
       </c>
-      <c r="H207">
+      <c r="D207" s="4">
+        <v>51.038377369262889</v>
+      </c>
+      <c r="E207" s="4">
+        <v>0.27841168718939369</v>
+      </c>
+      <c r="F207" s="4">
+        <v>2.9488434863290167</v>
+      </c>
+      <c r="G207" s="4">
+        <v>2.150713438040647</v>
+      </c>
+      <c r="H207" s="4">
         <v>0.05</v>
       </c>
-      <c r="I207" s="4"/>
-      <c r="J207" s="4"/>
-      <c r="K207" s="4"/>
-      <c r="L207" s="4"/>
-      <c r="M207" s="4"/>
-      <c r="N207" s="4"/>
-      <c r="O207" s="4"/>
-      <c r="P207" s="4"/>
-      <c r="Q207" s="4"/>
-      <c r="R207" s="4"/>
-      <c r="S207" s="4"/>
-      <c r="T207" s="4"/>
-      <c r="U207" s="4"/>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A208">
+    </row>
+    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
         <v>64.0613771418315</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="4">
         <v>19.672231693846989</v>
       </c>
       <c r="C208" s="4">
         <v>37.831734883368853</v>
       </c>
-      <c r="H208">
+      <c r="D208" s="4">
+        <v>50.29842182102319</v>
+      </c>
+      <c r="E208" s="4">
+        <v>0.27841168718939363</v>
+      </c>
+      <c r="F208" s="4">
+        <v>2.9060910868392615</v>
+      </c>
+      <c r="G208" s="4">
+        <v>2.0799714054345486</v>
+      </c>
+      <c r="H208" s="4">
         <v>0.05</v>
       </c>
-      <c r="I208" s="4"/>
-      <c r="J208" s="4"/>
-      <c r="K208" s="4"/>
-      <c r="L208" s="4"/>
-      <c r="M208" s="4"/>
-      <c r="N208" s="4"/>
-      <c r="O208" s="4"/>
-      <c r="P208" s="4"/>
-      <c r="Q208" s="4"/>
-      <c r="R208" s="4"/>
-      <c r="S208" s="4"/>
-      <c r="T208" s="4"/>
-      <c r="U208" s="4"/>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A209">
+    </row>
+    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
         <v>69.259500315625829</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="4">
         <v>21.268492779862001</v>
       </c>
       <c r="C209" s="4">
         <v>40.901509942476494</v>
       </c>
-      <c r="H209">
+      <c r="D209" s="4">
+        <v>54.379779477357637</v>
+      </c>
+      <c r="E209" s="4">
+        <v>0.27841168718939369</v>
+      </c>
+      <c r="F209" s="4">
+        <v>3.1418996207427887</v>
+      </c>
+      <c r="G209" s="4">
+        <v>2.0799714054345486</v>
+      </c>
+      <c r="H209" s="4">
         <v>0.05</v>
       </c>
-      <c r="I209" s="4"/>
-      <c r="J209" s="4"/>
-      <c r="K209" s="4"/>
-      <c r="L209" s="4"/>
-      <c r="M209" s="4"/>
-      <c r="N209" s="4"/>
-      <c r="O209" s="4"/>
-      <c r="P209" s="4"/>
-      <c r="Q209" s="4"/>
-      <c r="R209" s="4"/>
-      <c r="S209" s="4"/>
-      <c r="T209" s="4"/>
-      <c r="U209" s="4"/>
-    </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A210">
+    </row>
+    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
         <v>65.305998183444231</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="4">
         <v>20.054435052470303</v>
       </c>
       <c r="C210" s="4">
         <v>38.566751446817165</v>
       </c>
-      <c r="H210">
+      <c r="D210" s="4">
+        <v>51.275648302117361</v>
+      </c>
+      <c r="E210" s="4">
+        <v>0.27841168718939363</v>
+      </c>
+      <c r="F210" s="4">
+        <v>2.962552285097853</v>
+      </c>
+      <c r="G210" s="4">
+        <v>2.0799714054345486</v>
+      </c>
+      <c r="H210" s="4">
         <v>0.05</v>
       </c>
-      <c r="I210" s="4"/>
-      <c r="J210" s="4"/>
-      <c r="K210" s="4"/>
-      <c r="L210" s="4"/>
-      <c r="M210" s="4"/>
-      <c r="N210" s="4"/>
-      <c r="O210" s="4"/>
-      <c r="P210" s="4"/>
-      <c r="Q210" s="4"/>
-      <c r="R210" s="4"/>
-      <c r="S210" s="4"/>
-      <c r="T210" s="4"/>
-      <c r="U210" s="4"/>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A211">
+    </row>
+    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
         <v>67.648814261774064</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="4">
         <v>20.773876668702417</v>
       </c>
       <c r="C211" s="4">
         <v>39.950312036837509</v>
       </c>
-      <c r="H211">
+      <c r="D211" s="4">
+        <v>53.115133443000474</v>
+      </c>
+      <c r="E211" s="4">
+        <v>0.27841168718939369</v>
+      </c>
+      <c r="F211" s="4">
+        <v>3.0688321877022586</v>
+      </c>
+      <c r="G211" s="4">
+        <v>2.0799714054345482</v>
+      </c>
+      <c r="H211" s="4">
         <v>0.05</v>
       </c>
-      <c r="I211" s="4"/>
-      <c r="J211" s="4"/>
-      <c r="K211" s="4"/>
-      <c r="L211" s="4"/>
-      <c r="M211" s="4"/>
-      <c r="N211" s="4"/>
-      <c r="O211" s="4"/>
-      <c r="P211" s="4"/>
-      <c r="Q211" s="4"/>
-      <c r="R211" s="4"/>
-      <c r="S211" s="4"/>
-      <c r="T211" s="4"/>
-      <c r="U211" s="4"/>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A212">
+    </row>
+    <row r="212" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
         <v>68.630062198509592</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="4">
         <v>21.235734082317116</v>
       </c>
       <c r="C212" s="4">
         <v>40.31575008875344</v>
       </c>
-      <c r="D212" s="4"/>
-      <c r="E212" s="4"/>
-      <c r="F212" s="4"/>
-      <c r="G212" s="4"/>
-      <c r="H212">
+      <c r="D212" s="4">
+        <v>54.192215539906677</v>
+      </c>
+      <c r="E212" s="4">
+        <v>0.27596755849924332</v>
+      </c>
+      <c r="F212" s="4">
+        <v>3.171662235681556</v>
+      </c>
+      <c r="G212" s="4">
+        <v>2.1069417322577437</v>
+      </c>
+      <c r="H212" s="4">
         <v>0.05</v>
       </c>
-      <c r="I212" s="4"/>
-      <c r="J212" s="4"/>
-      <c r="K212" s="4"/>
-      <c r="L212" s="4"/>
-      <c r="M212" s="4"/>
-      <c r="N212" s="4"/>
-      <c r="O212" s="4"/>
-      <c r="P212" s="4"/>
-      <c r="Q212" s="4"/>
-      <c r="R212" s="4"/>
-      <c r="S212" s="4"/>
-      <c r="T212" s="4"/>
-      <c r="U212" s="4"/>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A213">
+    </row>
+    <row r="213" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
         <v>64.421104467744158</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="4">
         <v>19.933384874535271</v>
       </c>
       <c r="C213" s="4">
         <v>37.843257968363801</v>
       </c>
-      <c r="D213" s="4"/>
-      <c r="E213" s="4"/>
-      <c r="F213" s="4"/>
-      <c r="G213" s="4"/>
-      <c r="H213">
+      <c r="D213" s="4">
+        <v>50.868704861973036</v>
+      </c>
+      <c r="E213" s="4">
+        <v>0.27596755849924337</v>
+      </c>
+      <c r="F213" s="4">
+        <v>2.9771499205442602</v>
+      </c>
+      <c r="G213" s="4">
+        <v>2.1069417322577437</v>
+      </c>
+      <c r="H213" s="4">
         <v>0.05</v>
       </c>
-      <c r="I213" s="4"/>
-      <c r="J213" s="4"/>
-      <c r="K213" s="4"/>
-      <c r="L213" s="4"/>
-      <c r="M213" s="4"/>
-      <c r="N213" s="4"/>
-      <c r="O213" s="4"/>
-      <c r="P213" s="4"/>
-      <c r="Q213" s="4"/>
-      <c r="R213" s="4"/>
-      <c r="S213" s="4"/>
-      <c r="T213" s="4"/>
-      <c r="U213" s="4"/>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A214">
+    </row>
+    <row r="214" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
         <v>65.888226876753833</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="4">
         <v>20.387346598390657</v>
       </c>
       <c r="C214" s="4">
         <v>38.705098078899624</v>
       </c>
-      <c r="D214" s="4"/>
-      <c r="E214" s="4"/>
-      <c r="F214" s="4"/>
-      <c r="G214" s="4"/>
-      <c r="H214">
+      <c r="D214" s="4">
+        <v>52.027185726852757</v>
+      </c>
+      <c r="E214" s="4">
+        <v>0.27596755849924337</v>
+      </c>
+      <c r="F214" s="4">
+        <v>3.0449513561064028</v>
+      </c>
+      <c r="G214" s="4">
+        <v>2.1069417322577433</v>
+      </c>
+      <c r="H214" s="4">
         <v>0.05</v>
       </c>
-      <c r="I214" s="4"/>
-      <c r="J214" s="4"/>
-      <c r="K214" s="4"/>
-      <c r="L214" s="4"/>
-      <c r="M214" s="4"/>
-      <c r="N214" s="4"/>
-      <c r="O214" s="4"/>
-      <c r="P214" s="4"/>
-      <c r="Q214" s="4"/>
-      <c r="R214" s="4"/>
-      <c r="S214" s="4"/>
-      <c r="T214" s="4"/>
-      <c r="U214" s="4"/>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A215">
+    </row>
+    <row r="215" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
         <v>70.602259535211118</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="4">
         <v>21.845977711106325</v>
       </c>
       <c r="C215" s="4">
         <v>41.474289253736018</v>
       </c>
-      <c r="D215" s="4"/>
-      <c r="E215" s="4"/>
-      <c r="F215" s="4"/>
-      <c r="G215" s="4"/>
-      <c r="H215">
+      <c r="D215" s="4">
+        <v>55.749517686138454</v>
+      </c>
+      <c r="E215" s="4">
+        <v>0.27596755849924337</v>
+      </c>
+      <c r="F215" s="4">
+        <v>3.2628051490601742</v>
+      </c>
+      <c r="G215" s="4">
+        <v>2.1069417322577442</v>
+      </c>
+      <c r="H215" s="4">
         <v>0.05</v>
       </c>
-      <c r="I215" s="4"/>
-      <c r="J215" s="4"/>
-      <c r="K215" s="4"/>
-      <c r="L215" s="4"/>
-      <c r="M215" s="4"/>
-      <c r="N215" s="4"/>
-      <c r="O215" s="4"/>
-      <c r="P215" s="4"/>
-      <c r="Q215" s="4"/>
-      <c r="R215" s="4"/>
-      <c r="S215" s="4"/>
-      <c r="T215" s="4"/>
-      <c r="U215" s="4"/>
-    </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A216">
+    </row>
+    <row r="216" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
         <v>63.61538970214049</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="4">
         <v>19.684078026188462</v>
       </c>
       <c r="C216" s="4">
         <v>37.369952333889209</v>
       </c>
-      <c r="D216" s="4"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="4"/>
-      <c r="G216" s="4"/>
-      <c r="H216">
+      <c r="D216" s="4">
+        <v>50.232489960768596</v>
+      </c>
+      <c r="E216" s="4">
+        <v>0.27596755849924332</v>
+      </c>
+      <c r="F216" s="4">
+        <v>2.9399147059322646</v>
+      </c>
+      <c r="G216" s="4">
+        <v>2.1069417322577437</v>
+      </c>
+      <c r="H216" s="4">
         <v>0.05</v>
       </c>
-      <c r="I216" s="4"/>
-      <c r="J216" s="4"/>
-      <c r="K216" s="4"/>
-      <c r="L216" s="4"/>
-      <c r="M216" s="4"/>
-      <c r="N216" s="4"/>
-      <c r="O216" s="4"/>
-      <c r="P216" s="4"/>
-      <c r="Q216" s="4"/>
-      <c r="R216" s="4"/>
-      <c r="S216" s="4"/>
-      <c r="T216" s="4"/>
-      <c r="U216" s="4"/>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A217">
+    </row>
+    <row r="217" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
         <v>64.385027687194736</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="4">
         <v>19.922221881325715</v>
       </c>
       <c r="C217" s="4">
         <v>37.822065178760454</v>
       </c>
-      <c r="D217" s="4"/>
-      <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
-      <c r="G217" s="4"/>
-      <c r="H217">
+      <c r="D217" s="4">
+        <v>50.840217627590746</v>
+      </c>
+      <c r="E217" s="4">
+        <v>0.27596755849924326</v>
+      </c>
+      <c r="F217" s="4">
+        <v>2.9754826721287992</v>
+      </c>
+      <c r="G217" s="4">
+        <v>2.1069417322577442</v>
+      </c>
+      <c r="H217" s="4">
         <v>0.05</v>
       </c>
-      <c r="I217" s="4"/>
-      <c r="J217" s="4"/>
-      <c r="K217" s="4"/>
-      <c r="L217" s="4"/>
-      <c r="M217" s="4"/>
-      <c r="N217" s="4"/>
-      <c r="O217" s="4"/>
-      <c r="P217" s="4"/>
-      <c r="Q217" s="4"/>
-      <c r="R217" s="4"/>
-      <c r="S217" s="4"/>
-      <c r="T217" s="4"/>
-      <c r="U217" s="4"/>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A218">
+    </row>
+    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
         <v>63.134365961481578</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="4">
         <v>19.53523811672768</v>
       </c>
       <c r="C218" s="4">
         <v>37.087381805844672</v>
       </c>
-      <c r="D218" s="4"/>
-      <c r="E218" s="4"/>
-      <c r="F218" s="4"/>
-      <c r="G218" s="4"/>
-      <c r="H218">
+      <c r="D218" s="4">
+        <v>49.852660169004743</v>
+      </c>
+      <c r="E218" s="4">
+        <v>0.27596755849924332</v>
+      </c>
+      <c r="F218" s="4">
+        <v>2.9176847270594304</v>
+      </c>
+      <c r="G218" s="4">
+        <v>2.1069417322577442</v>
+      </c>
+      <c r="H218" s="4">
         <v>0.05</v>
       </c>
-      <c r="I218" s="4"/>
-      <c r="J218" s="4"/>
-      <c r="K218" s="4"/>
-      <c r="L218" s="4"/>
-      <c r="M218" s="4"/>
-      <c r="N218" s="4"/>
-      <c r="O218" s="4"/>
-      <c r="P218" s="4"/>
-      <c r="Q218" s="4"/>
-      <c r="R218" s="4"/>
-      <c r="S218" s="4"/>
-      <c r="T218" s="4"/>
-      <c r="U218" s="4"/>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A219">
+    </row>
+    <row r="219" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
         <v>68.257268799498945</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="4">
         <v>21.120383152485012</v>
       </c>
       <c r="C219" s="4">
         <v>40.09675792951893</v>
       </c>
-      <c r="D219" s="4"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="4"/>
-      <c r="G219" s="4"/>
-      <c r="H219">
+      <c r="D219" s="4">
+        <v>53.897847451289714</v>
+      </c>
+      <c r="E219" s="4">
+        <v>0.27596755849924332</v>
+      </c>
+      <c r="F219" s="4">
+        <v>3.1544340020551109</v>
+      </c>
+      <c r="G219" s="4">
+        <v>2.1069417322577442</v>
+      </c>
+      <c r="H219" s="4">
         <v>0.05</v>
       </c>
-      <c r="I219" s="4"/>
-      <c r="J219" s="4"/>
-      <c r="K219" s="4"/>
-      <c r="L219" s="4"/>
-      <c r="M219" s="4"/>
-      <c r="N219" s="4"/>
-      <c r="O219" s="4"/>
-      <c r="P219" s="4"/>
-      <c r="Q219" s="4"/>
-      <c r="R219" s="4"/>
-      <c r="S219" s="4"/>
-      <c r="T219" s="4"/>
-      <c r="U219" s="4"/>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A220">
+    </row>
+    <row r="220" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
         <v>64.360976500161797</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="4">
         <v>19.914779885852674</v>
       </c>
       <c r="C220" s="4">
         <v>37.807936652358237</v>
       </c>
-      <c r="D220" s="4"/>
-      <c r="E220" s="4"/>
-      <c r="F220" s="4"/>
-      <c r="G220" s="4"/>
-      <c r="H220">
+      <c r="D220" s="4">
+        <v>50.821226138002558</v>
+      </c>
+      <c r="E220" s="4">
+        <v>0.27596755849924337</v>
+      </c>
+      <c r="F220" s="4">
+        <v>2.9743711731851561</v>
+      </c>
+      <c r="G220" s="4">
+        <v>2.1069417322577437</v>
+      </c>
+      <c r="H220" s="4">
         <v>0.05</v>
       </c>
-      <c r="I220" s="4"/>
-      <c r="J220" s="4"/>
-      <c r="K220" s="4"/>
-      <c r="L220" s="4"/>
-      <c r="M220" s="4"/>
-      <c r="N220" s="4"/>
-      <c r="O220" s="4"/>
-      <c r="P220" s="4"/>
-      <c r="Q220" s="4"/>
-      <c r="R220" s="4"/>
-      <c r="S220" s="4"/>
-      <c r="T220" s="4"/>
-      <c r="U220" s="4"/>
-    </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A221">
+    </row>
+    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
         <v>66.669890455324548</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="4">
         <v>20.629211451264428</v>
       </c>
       <c r="C221" s="4">
         <v>39.164275186971977</v>
       </c>
-      <c r="D221" s="4"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="4"/>
-      <c r="G221" s="4"/>
-      <c r="H221">
+      <c r="D221" s="4">
+        <v>52.644409138469008</v>
+      </c>
+      <c r="E221" s="4">
+        <v>0.27596755849924332</v>
+      </c>
+      <c r="F221" s="4">
+        <v>3.0810750717747584</v>
+      </c>
+      <c r="G221" s="4">
+        <v>2.1069417322577437</v>
+      </c>
+      <c r="H221" s="4">
         <v>0.05</v>
       </c>
-      <c r="I221" s="4"/>
-      <c r="J221" s="4"/>
-      <c r="K221" s="4"/>
-      <c r="L221" s="4"/>
-      <c r="M221" s="4"/>
-      <c r="N221" s="4"/>
-      <c r="O221" s="4"/>
-      <c r="P221" s="4"/>
-      <c r="Q221" s="4"/>
-      <c r="R221" s="4"/>
-      <c r="S221" s="4"/>
-      <c r="T221" s="4"/>
-      <c r="U221" s="4"/>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A222">
+    </row>
+    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
         <v>70.805473643959758</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="4">
         <v>21.203777478232539</v>
       </c>
       <c r="C222" s="4">
         <v>42.533770339649706</v>
       </c>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="4"/>
-      <c r="G222" s="4"/>
-      <c r="H222">
+      <c r="D222" s="4">
+        <v>54.547122657592112</v>
+      </c>
+      <c r="E222" s="4">
+        <v>0.28625955242148055</v>
+      </c>
+      <c r="F222" s="4">
+        <v>3.0214032590351687</v>
+      </c>
+      <c r="G222" s="4">
+        <v>1.9940651683508541</v>
+      </c>
+      <c r="H222" s="4">
         <v>0.05</v>
       </c>
-      <c r="I222" s="4"/>
-      <c r="J222" s="4"/>
-      <c r="K222" s="4"/>
-      <c r="L222" s="4"/>
-      <c r="M222" s="4"/>
-      <c r="N222" s="4"/>
-      <c r="O222" s="4"/>
-      <c r="P222" s="4"/>
-      <c r="Q222" s="4"/>
-      <c r="R222" s="4"/>
-      <c r="S222" s="4"/>
-      <c r="T222" s="4"/>
-      <c r="U222" s="4"/>
-    </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A223">
+    </row>
+    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
         <v>66.463101859241704</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="4">
         <v>19.903388111247892</v>
       </c>
       <c r="C223" s="4">
         <v>39.925251044244519</v>
       </c>
-      <c r="D223" s="4"/>
-      <c r="E223" s="4"/>
-      <c r="F223" s="4"/>
-      <c r="G223" s="4"/>
-      <c r="H223">
+      <c r="D223" s="4">
+        <v>51.20184616728946</v>
+      </c>
+      <c r="E223" s="4">
+        <v>0.28625955242148049</v>
+      </c>
+      <c r="F223" s="4">
+        <v>2.8361060554847395</v>
+      </c>
+      <c r="G223" s="4">
+        <v>1.9940651683508543</v>
+      </c>
+      <c r="H223" s="4">
         <v>0.05</v>
       </c>
-      <c r="I223" s="4"/>
-      <c r="J223" s="4"/>
-      <c r="K223" s="4"/>
-      <c r="L223" s="4"/>
-      <c r="M223" s="4"/>
-      <c r="N223" s="4"/>
-      <c r="O223" s="4"/>
-      <c r="P223" s="4"/>
-      <c r="Q223" s="4"/>
-      <c r="R223" s="4"/>
-      <c r="S223" s="4"/>
-      <c r="T223" s="4"/>
-      <c r="U223" s="4"/>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A224">
+    </row>
+    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
         <v>67.97672859562914</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="4">
         <v>20.356666690596825</v>
       </c>
       <c r="C224" s="4">
         <v>40.834506341500045</v>
       </c>
-      <c r="D224" s="4"/>
-      <c r="E224" s="4"/>
-      <c r="F224" s="4"/>
-      <c r="G224" s="4"/>
-      <c r="H224">
+      <c r="D224" s="4">
+        <v>52.367913972480665</v>
+      </c>
+      <c r="E224" s="4">
+        <v>0.28625955242148049</v>
+      </c>
+      <c r="F224" s="4">
+        <v>2.9006953664366035</v>
+      </c>
+      <c r="G224" s="4">
+        <v>1.9940651683508539</v>
+      </c>
+      <c r="H224" s="4">
         <v>0.05</v>
       </c>
-      <c r="I224" s="4"/>
-      <c r="J224" s="4"/>
-      <c r="K224" s="4"/>
-      <c r="L224" s="4"/>
-      <c r="M224" s="4"/>
-      <c r="N224" s="4"/>
-      <c r="O224" s="4"/>
-      <c r="P224" s="4"/>
-      <c r="Q224" s="4"/>
-      <c r="R224" s="4"/>
-      <c r="S224" s="4"/>
-      <c r="T224" s="4"/>
-      <c r="U224" s="4"/>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A225">
+    </row>
+    <row r="225" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
         <v>72.840184994513365</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="4">
         <v>21.813102781619634</v>
       </c>
       <c r="C225" s="4">
         <v>43.756047952353853</v>
       </c>
-      <c r="D225" s="4"/>
-      <c r="E225" s="4"/>
-      <c r="F225" s="4"/>
-      <c r="G225" s="4"/>
-      <c r="H225">
+      <c r="D225" s="4">
+        <v>56.114623641619644</v>
+      </c>
+      <c r="E225" s="4">
+        <v>0.28625955242148049</v>
+      </c>
+      <c r="F225" s="4">
+        <v>3.1082282344130867</v>
+      </c>
+      <c r="G225" s="4">
+        <v>1.9940651683508541</v>
+      </c>
+      <c r="H225" s="4">
         <v>0.05</v>
       </c>
-      <c r="I225" s="4"/>
-      <c r="J225" s="4"/>
-      <c r="K225" s="4"/>
-      <c r="L225" s="4"/>
-      <c r="M225" s="4"/>
-      <c r="N225" s="4"/>
-      <c r="O225" s="4"/>
-      <c r="P225" s="4"/>
-      <c r="Q225" s="4"/>
-      <c r="R225" s="4"/>
-      <c r="S225" s="4"/>
-      <c r="T225" s="4"/>
-      <c r="U225" s="4"/>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A226">
+    </row>
+    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
         <v>65.631847831881387</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="4">
         <v>19.654456432425114</v>
       </c>
       <c r="C226" s="4">
         <v>39.42590592198124</v>
       </c>
-      <c r="D226" s="4"/>
-      <c r="E226" s="4"/>
-      <c r="F226" s="4"/>
-      <c r="G226" s="4"/>
-      <c r="H226">
+      <c r="D226" s="4">
+        <v>50.561464667717232</v>
+      </c>
+      <c r="E226" s="4">
+        <v>0.28625955242148049</v>
+      </c>
+      <c r="F226" s="4">
+        <v>2.8006348765193709</v>
+      </c>
+      <c r="G226" s="4">
+        <v>1.9940651683508541</v>
+      </c>
+      <c r="H226" s="4">
         <v>0.05</v>
       </c>
-      <c r="I226" s="4"/>
-      <c r="J226" s="4"/>
-      <c r="K226" s="4"/>
-      <c r="L226" s="4"/>
-      <c r="M226" s="4"/>
-      <c r="N226" s="4"/>
-      <c r="O226" s="4"/>
-      <c r="P226" s="4"/>
-      <c r="Q226" s="4"/>
-      <c r="R226" s="4"/>
-      <c r="S226" s="4"/>
-      <c r="T226" s="4"/>
-      <c r="U226" s="4"/>
-    </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A227">
+    </row>
+    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
         <v>66.425881529658412</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="4">
         <v>19.892241916673736</v>
       </c>
       <c r="C227" s="4">
         <v>39.902892307426768</v>
       </c>
-      <c r="D227" s="4"/>
-      <c r="E227" s="4"/>
-      <c r="F227" s="4"/>
-      <c r="G227" s="4"/>
-      <c r="H227">
+      <c r="D227" s="4">
+        <v>51.173172368801154</v>
+      </c>
+      <c r="E227" s="4">
+        <v>0.28625955242148055</v>
+      </c>
+      <c r="F227" s="4">
+        <v>2.8345177937400199</v>
+      </c>
+      <c r="G227" s="4">
+        <v>1.9940651683508537</v>
+      </c>
+      <c r="H227" s="4">
         <v>0.05</v>
       </c>
-      <c r="I227" s="4"/>
-      <c r="J227" s="4"/>
-      <c r="K227" s="4"/>
-      <c r="L227" s="4"/>
-      <c r="M227" s="4"/>
-      <c r="N227" s="4"/>
-      <c r="O227" s="4"/>
-      <c r="P227" s="4"/>
-      <c r="Q227" s="4"/>
-      <c r="R227" s="4"/>
-      <c r="S227" s="4"/>
-      <c r="T227" s="4"/>
-      <c r="U227" s="4"/>
-    </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A228">
+    </row>
+    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
         <v>65.135576770770754</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="4">
         <v>19.505840504769726</v>
       </c>
       <c r="C228" s="4">
         <v>39.127789431077787</v>
       </c>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="4"/>
-      <c r="G228" s="4"/>
-      <c r="H228">
+      <c r="D228" s="4">
+        <v>50.179147354539779</v>
+      </c>
+      <c r="E228" s="4">
+        <v>0.28625955242148049</v>
+      </c>
+      <c r="F228" s="4">
+        <v>2.7794580532564641</v>
+      </c>
+      <c r="G228" s="4">
+        <v>1.9940651683508543</v>
+      </c>
+      <c r="H228" s="4">
         <v>0.05</v>
       </c>
-      <c r="I228" s="4"/>
-      <c r="J228" s="4"/>
-      <c r="K228" s="4"/>
-      <c r="L228" s="4"/>
-      <c r="M228" s="4"/>
-      <c r="N228" s="4"/>
-      <c r="O228" s="4"/>
-      <c r="P228" s="4"/>
-      <c r="Q228" s="4"/>
-      <c r="R228" s="4"/>
-      <c r="S228" s="4"/>
-      <c r="T228" s="4"/>
-      <c r="U228" s="4"/>
-    </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A229">
+    </row>
+    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
         <v>70.420863571599014</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="4">
         <v>21.088600134299615</v>
       </c>
       <c r="C229" s="4">
         <v>42.302730059199533</v>
       </c>
-      <c r="D229" s="4"/>
-      <c r="E229" s="4"/>
-      <c r="F229" s="4"/>
-      <c r="G229" s="4"/>
-      <c r="H229">
+      <c r="D229" s="4">
+        <v>54.250826739879585</v>
+      </c>
+      <c r="E229" s="4">
+        <v>0.28625955242148049</v>
+      </c>
+      <c r="F229" s="4">
+        <v>3.0049912210064176</v>
+      </c>
+      <c r="G229" s="4">
+        <v>1.9940651683508543</v>
+      </c>
+      <c r="H229" s="4">
         <v>0.05</v>
       </c>
-      <c r="I229" s="4"/>
-      <c r="J229" s="4"/>
-      <c r="K229" s="4"/>
-      <c r="L229" s="4"/>
-      <c r="M229" s="4"/>
-      <c r="N229" s="4"/>
-      <c r="O229" s="4"/>
-      <c r="P229" s="4"/>
-      <c r="Q229" s="4"/>
-      <c r="R229" s="4"/>
-      <c r="S229" s="4"/>
-      <c r="T229" s="4"/>
-      <c r="U229" s="4"/>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A230">
+    </row>
+    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
         <v>66.401067976602874</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="4">
         <v>19.884811120290969</v>
       </c>
       <c r="C230" s="4">
         <v>39.887986482881587</v>
       </c>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4"/>
-      <c r="F230" s="4"/>
-      <c r="G230" s="4"/>
-      <c r="H230">
+      <c r="D230" s="4">
+        <v>51.154056503142286</v>
+      </c>
+      <c r="E230" s="4">
+        <v>0.28625955242148049</v>
+      </c>
+      <c r="F230" s="4">
+        <v>2.8334589525768763</v>
+      </c>
+      <c r="G230" s="4">
+        <v>1.9940651683508543</v>
+      </c>
+      <c r="H230" s="4">
         <v>0.05</v>
       </c>
-      <c r="I230" s="4"/>
-      <c r="J230" s="4"/>
-      <c r="K230" s="4"/>
-      <c r="L230" s="4"/>
-      <c r="M230" s="4"/>
-      <c r="N230" s="4"/>
-      <c r="O230" s="4"/>
-      <c r="P230" s="4"/>
-      <c r="Q230" s="4"/>
-      <c r="R230" s="4"/>
-      <c r="S230" s="4"/>
-      <c r="T230" s="4"/>
-      <c r="U230" s="4"/>
-    </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A231">
+    </row>
+    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
         <v>68.783169069933919</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="4">
         <v>20.598167573036829</v>
       </c>
       <c r="C231" s="4">
         <v>41.31894563921815</v>
       </c>
-      <c r="D231" s="4"/>
-      <c r="E231" s="4"/>
-      <c r="F231" s="4"/>
-      <c r="G231" s="4"/>
-      <c r="H231">
+      <c r="D231" s="4">
+        <v>52.989179606394018</v>
+      </c>
+      <c r="E231" s="4">
+        <v>0.28625955242148055</v>
+      </c>
+      <c r="F231" s="4">
+        <v>2.9351077042388254</v>
+      </c>
+      <c r="G231" s="4">
+        <v>1.9940651683508537</v>
+      </c>
+      <c r="H231" s="4">
         <v>0.05</v>
       </c>
-      <c r="I231" s="4"/>
-      <c r="J231" s="4"/>
-      <c r="K231" s="4"/>
-      <c r="L231" s="4"/>
-      <c r="M231" s="4"/>
-      <c r="N231" s="4"/>
-      <c r="O231" s="4"/>
-      <c r="P231" s="4"/>
-      <c r="Q231" s="4"/>
-      <c r="R231" s="4"/>
-      <c r="S231" s="4"/>
-      <c r="T231" s="4"/>
-      <c r="U231" s="4"/>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A232">
+    </row>
+    <row r="232" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
         <v>57.836632442184033</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="4">
         <v>21.445278258435373</v>
       </c>
       <c r="C232" s="4">
         <v>29.242928097603539</v>
       </c>
-      <c r="D232" s="4"/>
-      <c r="E232" s="4"/>
-      <c r="F232" s="4"/>
-      <c r="G232" s="4"/>
-      <c r="H232">
+      <c r="D232" s="4">
+        <v>51.698218783893005</v>
+      </c>
+      <c r="E232" s="4">
+        <v>0.20535201644114384</v>
+      </c>
+      <c r="F232" s="4">
+        <v>4.2125386638043754</v>
+      </c>
+      <c r="G232" s="4">
+        <v>2.9333968454674437</v>
+      </c>
+      <c r="H232" s="4">
         <v>0.05</v>
       </c>
-      <c r="I232" s="4"/>
-      <c r="J232" s="4"/>
-      <c r="K232" s="4"/>
-      <c r="L232" s="4"/>
-      <c r="M232" s="4"/>
-      <c r="N232" s="4"/>
-      <c r="O232" s="4"/>
-      <c r="P232" s="4"/>
-      <c r="Q232" s="4"/>
-      <c r="R232" s="4"/>
-      <c r="S232" s="4"/>
-      <c r="T232" s="4"/>
-      <c r="U232" s="4"/>
-    </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A233">
+    </row>
+    <row r="233" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
         <v>54.289616259467302</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="4">
         <v>20.130078084884929</v>
       </c>
       <c r="C233" s="4">
         <v>27.449512146287397</v>
       </c>
-      <c r="H233">
+      <c r="D233" s="4">
+        <v>48.527660421467452</v>
+      </c>
+      <c r="E233" s="4">
+        <v>0.2053520164411439</v>
+      </c>
+      <c r="F233" s="4">
+        <v>3.9541912777291088</v>
+      </c>
+      <c r="G233" s="4">
+        <v>2.9333968454674433</v>
+      </c>
+      <c r="H233" s="4">
         <v>0.05</v>
       </c>
-      <c r="J233" s="4"/>
-      <c r="K233" s="4"/>
-      <c r="L233" s="4"/>
-      <c r="M233" s="4"/>
-      <c r="N233" s="4"/>
-      <c r="O233" s="4"/>
-      <c r="P233" s="4"/>
-      <c r="Q233" s="4"/>
-      <c r="R233" s="4"/>
-      <c r="S233" s="4"/>
-      <c r="T233" s="4"/>
-      <c r="U233" s="4"/>
-    </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A234">
+    </row>
+    <row r="234" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
         <v>55.526004757442841</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="4">
         <v>21.445278258435373</v>
       </c>
       <c r="C234" s="4">
         <v>26.932300412862347</v>
       </c>
-      <c r="H234">
+      <c r="D234" s="4">
+        <v>50.841405318377888</v>
+      </c>
+      <c r="E234" s="4">
+        <v>0.18537527715173674</v>
+      </c>
+      <c r="F234" s="4">
+        <v>4.4981431523094093</v>
+      </c>
+      <c r="G234" s="4">
+        <v>3.1850644660407132</v>
+      </c>
+      <c r="H234" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A235">
+    <row r="235" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
         <v>59.49866288208559</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="4">
         <v>22.061543482613295</v>
       </c>
       <c r="C235" s="4">
         <v>30.083271571934532</v>
       </c>
-      <c r="H235">
+      <c r="D235" s="4">
+        <v>53.183851845143828</v>
+      </c>
+      <c r="E235" s="4">
+        <v>0.20535201644114384</v>
+      </c>
+      <c r="F235" s="4">
+        <v>4.3335928675653559</v>
+      </c>
+      <c r="G235" s="4">
+        <v>2.9333968454674437</v>
+      </c>
+      <c r="H235" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A236">
+    <row r="236" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
         <v>53.610616018775808</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="4">
         <v>19.878311194519558</v>
       </c>
       <c r="C236" s="4">
         <v>27.106201092749732</v>
       </c>
-      <c r="H236">
+      <c r="D236" s="4">
+        <v>47.920724963517422</v>
+      </c>
+      <c r="E236" s="4">
+        <v>0.2053520164411439</v>
+      </c>
+      <c r="F236" s="4">
+        <v>3.9047362066804161</v>
+      </c>
+      <c r="G236" s="4">
+        <v>2.9333968454674433</v>
+      </c>
+      <c r="H236" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A237">
+    <row r="237" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
         <v>54.259213263615436</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="4">
         <v>20.118804940540212</v>
       </c>
       <c r="C237" s="4">
         <v>27.434140009561823</v>
       </c>
-      <c r="H237">
+      <c r="D237" s="4">
+        <v>48.500484206932377</v>
+      </c>
+      <c r="E237" s="4">
+        <v>0.20535201644114381</v>
+      </c>
+      <c r="F237" s="4">
+        <v>3.9519768715627515</v>
+      </c>
+      <c r="G237" s="4">
+        <v>2.9333968454674442</v>
+      </c>
+      <c r="H237" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A238">
+    <row r="238" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
         <v>53.205242740751039</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="4">
         <v>19.728002603256652</v>
       </c>
       <c r="C238" s="4">
         <v>26.90123926974217</v>
       </c>
-      <c r="H238">
+      <c r="D238" s="4">
+        <v>47.558375436383088</v>
+      </c>
+      <c r="E238" s="4">
+        <v>0.20535201644114381</v>
+      </c>
+      <c r="F238" s="4">
+        <v>3.8752107911289597</v>
+      </c>
+      <c r="G238" s="4">
+        <v>2.9333968454674437</v>
+      </c>
+      <c r="H238" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A239">
+    <row r="239" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
         <v>57.52246815171484</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="4">
         <v>21.32878910020662</v>
       </c>
       <c r="C239" s="4">
         <v>29.084082684772682</v>
       </c>
-      <c r="H239">
+      <c r="D239" s="4">
+        <v>51.417397900363881</v>
+      </c>
+      <c r="E239" s="4">
+        <v>0.20535201644114384</v>
+      </c>
+      <c r="F239" s="4">
+        <v>4.1896564667519938</v>
+      </c>
+      <c r="G239" s="4">
+        <v>2.9333968454674437</v>
+      </c>
+      <c r="H239" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A240">
+    <row r="240" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
         <v>54.238944599714202</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="4">
         <v>20.111289510977066</v>
       </c>
       <c r="C240" s="4">
         <v>27.423891918411449</v>
       </c>
-      <c r="H240">
+      <c r="D240" s="4">
+        <v>48.48236673057567</v>
+      </c>
+      <c r="E240" s="4">
+        <v>0.20535201644114384</v>
+      </c>
+      <c r="F240" s="4">
+        <v>3.9505006007851784</v>
+      </c>
+      <c r="G240" s="4">
+        <v>2.9333968454674437</v>
+      </c>
+      <c r="H240" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241">
+    <row r="241" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
         <v>56.184736334233094</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="4">
         <v>20.832770749039021</v>
       </c>
       <c r="C241" s="4">
         <v>28.407708668847732</v>
       </c>
-      <c r="H241">
+      <c r="D241" s="4">
+        <v>50.221644460820535</v>
+      </c>
+      <c r="E241" s="4">
+        <v>0.20535201644114387</v>
+      </c>
+      <c r="F241" s="4">
+        <v>4.0922225954321796</v>
+      </c>
+      <c r="G241" s="4">
+        <v>2.9333968454674433</v>
+      </c>
+      <c r="H241" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242">
+    <row r="242" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
         <v>62.115384651684622</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="4">
         <v>21.143323508258881</v>
       </c>
       <c r="C242" s="4">
         <v>33.924286640672783</v>
       </c>
-      <c r="H242">
+      <c r="D242" s="4">
+        <v>52.519117702166739</v>
+      </c>
+      <c r="E242" s="4">
+        <v>0.24197876652769423</v>
+      </c>
+      <c r="F242" s="4">
+        <v>3.6369509408699709</v>
+      </c>
+      <c r="G242" s="4">
+        <v>2.4930013983444597</v>
+      </c>
+      <c r="H242" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243">
+    <row r="243" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
         <v>58.305960325753375</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="4">
         <v>19.846641674039397</v>
       </c>
       <c r="C243" s="4">
         <v>31.843771427034181</v>
       </c>
-      <c r="H243">
+      <c r="D243" s="4">
+        <v>49.298215092081158</v>
+      </c>
+      <c r="E243" s="4">
+        <v>0.24197876652769418</v>
+      </c>
+      <c r="F243" s="4">
+        <v>3.4139033100123419</v>
+      </c>
+      <c r="G243" s="4">
+        <v>2.4930013983444606</v>
+      </c>
+      <c r="H243" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244">
+    <row r="244" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
         <v>59.633816805077984</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="4">
         <v>20.298627913395904</v>
       </c>
       <c r="C244" s="4">
         <v>32.568979587216781</v>
       </c>
-      <c r="H244">
+      <c r="D244" s="4">
+        <v>50.420929716168132</v>
+      </c>
+      <c r="E244" s="4">
+        <v>0.24197876652769418</v>
+      </c>
+      <c r="F244" s="4">
+        <v>3.4916513413398587</v>
+      </c>
+      <c r="G244" s="4">
+        <v>2.4930013983444601</v>
+      </c>
+      <c r="H244" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245">
+    <row r="245" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
         <v>63.900372050120978</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="4">
         <v>21.75091156772173</v>
       </c>
       <c r="C245" s="4">
         <v>34.899156626492008</v>
       </c>
-      <c r="H245">
+      <c r="D245" s="4">
+        <v>54.028340639463977</v>
+      </c>
+      <c r="E245" s="4">
+        <v>0.24197876652769418</v>
+      </c>
+      <c r="F245" s="4">
+        <v>3.7414646879004039</v>
+      </c>
+      <c r="G245" s="4">
+        <v>2.4930013983444606</v>
+      </c>
+      <c r="H245" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246">
+    <row r="246" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
         <v>57.576727669075105</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="4">
         <v>19.598419722917381</v>
       </c>
       <c r="C246" s="4">
         <v>31.445501371851933</v>
       </c>
-      <c r="H246">
+      <c r="D246" s="4">
+        <v>48.681642306721926</v>
+      </c>
+      <c r="E246" s="4">
+        <v>0.24197876652769412</v>
+      </c>
+      <c r="F246" s="4">
+        <v>3.37120562067674</v>
+      </c>
+      <c r="G246" s="4">
+        <v>2.4930013983444606</v>
+      </c>
+      <c r="H246" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247">
+    <row r="247" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
         <v>58.273308117245392</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="4">
         <v>19.835527258317516</v>
       </c>
       <c r="C247" s="4">
         <v>31.825938439488706</v>
       </c>
-      <c r="H247">
+      <c r="D247" s="4">
+        <v>49.270607355423287</v>
+      </c>
+      <c r="E247" s="4">
+        <v>0.24197876652769415</v>
+      </c>
+      <c r="F247" s="4">
+        <v>3.4119914731764207</v>
+      </c>
+      <c r="G247" s="4">
+        <v>2.4930013983444606</v>
+      </c>
+      <c r="H247" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248">
+    <row r="248" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
         <v>57.141364888968681</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="4">
         <v>19.450227513292294</v>
       </c>
       <c r="C248" s="4">
         <v>31.207728204578956</v>
       </c>
-      <c r="H248">
+      <c r="D248" s="4">
+        <v>48.313539151283578</v>
+      </c>
+      <c r="E248" s="4">
+        <v>0.24197876652769421</v>
+      </c>
+      <c r="F248" s="4">
+        <v>3.345714462864438</v>
+      </c>
+      <c r="G248" s="4">
+        <v>2.4930013983444597</v>
+      </c>
+      <c r="H248" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249">
+    <row r="249" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
         <v>61.77797849710214</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="4">
         <v>21.028474545799444</v>
       </c>
       <c r="C249" s="4">
         <v>33.740012436036217</v>
       </c>
-      <c r="H249">
+      <c r="D249" s="4">
+        <v>52.233837756702016</v>
+      </c>
+      <c r="E249" s="4">
+        <v>0.24197876652769415</v>
+      </c>
+      <c r="F249" s="4">
+        <v>3.6171952935654397</v>
+      </c>
+      <c r="G249" s="4">
+        <v>2.4930013983444606</v>
+      </c>
+      <c r="H249" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250">
+    <row r="250" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
         <v>58.251539978240075</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="4">
         <v>19.828117647836262</v>
       </c>
       <c r="C250" s="4">
         <v>31.81404978112506</v>
       </c>
-      <c r="H250">
+      <c r="D250" s="4">
+        <v>49.252202197651378</v>
+      </c>
+      <c r="E250" s="4">
+        <v>0.24197876652769421</v>
+      </c>
+      <c r="F250" s="4">
+        <v>3.4107169152858043</v>
+      </c>
+      <c r="G250" s="4">
+        <v>2.4930013983444601</v>
+      </c>
+      <c r="H250" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251">
+    <row r="251" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
         <v>60.341281322750923</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="4">
         <v>20.539440254036663</v>
       </c>
       <c r="C251" s="4">
         <v>32.955360984035373</v>
       </c>
-      <c r="H251">
+      <c r="D251" s="4">
+        <v>51.019097343755448</v>
+      </c>
+      <c r="E251" s="4">
+        <v>0.24197876652769421</v>
+      </c>
+      <c r="F251" s="4">
+        <v>3.533074472784846</v>
+      </c>
+      <c r="G251" s="4">
+        <v>2.4930013983444601</v>
+      </c>
+      <c r="H251" s="4">
         <v>0.05</v>
       </c>
     </row>

--- a/Glass-Compound-Analysis/dataset/Add_features.xlsx
+++ b/Glass-Compound-Analysis/dataset/Add_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Machine_Learning_with_TensorFlow\Glass-Compound-Analysis\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4867CCB2-0E4D-4D8F-B06F-CA7CE38EBAD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701AE011-BEA8-4720-A860-239F48080B1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>Erbium</t>
   </si>
@@ -350,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,6 +362,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12913,10 +12915,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3922BCE-2639-4CF8-BB49-23A2E999D01D}">
-  <dimension ref="A1:H251"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12928,11 +12930,12 @@
     <col min="5" max="5" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="23.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -12954,11 +12957,14 @@
       <c r="G1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>60.505570734569638</v>
       </c>
@@ -12980,11 +12986,14 @@
       <c r="G2" s="4">
         <v>2.3908848995504015</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="10">
+        <v>17.82964577997636</v>
+      </c>
+      <c r="I2" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>61.749309150887406</v>
       </c>
@@ -13006,11 +13015,14 @@
       <c r="G3" s="4">
         <v>2.3908848995504015</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="10">
+        <v>18.196147824939715</v>
+      </c>
+      <c r="I3" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>60.20615222693759</v>
       </c>
@@ -13032,11 +13044,14 @@
       <c r="G4" s="4">
         <v>2.3908848995504015</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="10">
+        <v>17.741413806188888</v>
+      </c>
+      <c r="I4" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>62.014179369177299</v>
       </c>
@@ -13058,11 +13073,14 @@
       <c r="G5" s="4">
         <v>2.3908848995504015</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="10">
+        <v>18.274199186367092</v>
+      </c>
+      <c r="I5" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>62.83182221694176</v>
       </c>
@@ -13084,11 +13102,14 @@
       <c r="G6" s="4">
         <v>2.3908848995504011</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="10">
+        <v>18.515140345555963</v>
+      </c>
+      <c r="I6" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>64.017980151022584</v>
       </c>
@@ -13110,11 +13131,14 @@
       <c r="G7" s="4">
         <v>2.6968771364667123</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="10">
+        <v>18.864674703252494</v>
+      </c>
+      <c r="I7" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>59.975830297989859</v>
       </c>
@@ -13136,11 +13160,14 @@
       <c r="G8" s="4">
         <v>2.3908848995504015</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="10">
+        <v>17.673543057121602</v>
+      </c>
+      <c r="I8" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>59.79157275483167</v>
       </c>
@@ -13162,11 +13189,14 @@
       <c r="G9" s="4">
         <v>2.3908848995504011</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="10">
+        <v>17.619246457867771</v>
+      </c>
+      <c r="I9" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>60.378893673648392</v>
       </c>
@@ -13188,11 +13218,14 @@
       <c r="G10" s="4">
         <v>2.3908848995504011</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="10">
+        <v>17.792316867989356</v>
+      </c>
+      <c r="I10" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>60.240700516279752</v>
       </c>
@@ -13214,11 +13247,14 @@
       <c r="G11" s="4">
         <v>2.3908848995504015</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="10">
+        <v>17.751594418548979</v>
+      </c>
+      <c r="I11" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>60.233516588594334</v>
       </c>
@@ -13240,11 +13276,14 @@
       <c r="G12" s="4">
         <v>2.4220674593713691</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="10">
+        <v>17.789516467753547</v>
+      </c>
+      <c r="I12" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>61.471662723266626</v>
       </c>
@@ -13266,11 +13305,14 @@
       <c r="G13" s="4">
         <v>2.4220674593713696</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="10">
+        <v>18.155193623923587</v>
+      </c>
+      <c r="I13" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>59.935444370988044</v>
       </c>
@@ -13292,11 +13334,14 @@
       <c r="G14" s="4">
         <v>2.4220674593713696</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="10">
+        <v>17.701483078305206</v>
+      </c>
+      <c r="I14" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>61.735341992687573</v>
       </c>
@@ -13318,11 +13363,14 @@
       <c r="G15" s="4">
         <v>2.4220674593713691</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="10">
+        <v>18.233069314589429</v>
+      </c>
+      <c r="I15" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>62.549308433073989</v>
       </c>
@@ -13344,11 +13392,14 @@
       <c r="G16" s="4">
         <v>2.4220674593713691</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="10">
+        <v>18.473468185775289</v>
+      </c>
+      <c r="I16" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>63.730132987437372</v>
       </c>
@@ -13370,11 +13421,14 @@
       <c r="G17" s="4">
         <v>2.4220674593713687</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="10">
+        <v>18.82221584397449</v>
+      </c>
+      <c r="I17" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>59.706158049752446</v>
       </c>
@@ -13396,11 +13450,14 @@
       <c r="G18" s="4">
         <v>2.4220674593713691</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="10">
+        <v>17.633765086421864</v>
+      </c>
+      <c r="I18" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>59.522728992763959</v>
       </c>
@@ -13422,11 +13479,14 @@
       <c r="G19" s="4">
         <v>2.4220674593713687</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="10">
+        <v>17.579590692915193</v>
+      </c>
+      <c r="I19" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>60.107409111914762</v>
       </c>
@@ -13448,11 +13508,14 @@
       <c r="G20" s="4">
         <v>2.4220674593713687</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="10">
+        <v>17.752271572217712</v>
+      </c>
+      <c r="I20" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>59.969837319173386</v>
       </c>
@@ -13474,11 +13537,14 @@
       <c r="G21" s="4">
         <v>2.4220674593713691</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="10">
+        <v>17.711640777087705</v>
+      </c>
+      <c r="I21" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>61.775623513456317</v>
       </c>
@@ -13500,11 +13566,14 @@
       <c r="G22" s="4">
         <v>2.2687844522455407</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="10">
+        <v>18.015802117577209</v>
+      </c>
+      <c r="I22" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>63.045468838818579</v>
       </c>
@@ -13526,11 +13595,14 @@
       <c r="G23" s="4">
         <v>2.2687844522455403</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="10">
+        <v>18.386130748848306</v>
+      </c>
+      <c r="I23" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>61.469920009202447</v>
       </c>
@@ -13552,11 +13624,14 @@
       <c r="G24" s="4">
         <v>2.2687844522455407</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="10">
+        <v>17.926648928567502</v>
+      </c>
+      <c r="I24" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>63.315898861812386</v>
       </c>
@@ -13578,11 +13653,14 @@
       <c r="G25" s="4">
         <v>2.2687844522455412</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="10">
+        <v>18.464997031433818</v>
+      </c>
+      <c r="I25" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>64.150704584967215</v>
       </c>
@@ -13604,11 +13682,14 @@
       <c r="G26" s="4">
         <v>2.2687844522455407</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="10">
+        <v>18.708453816806486</v>
+      </c>
+      <c r="I26" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>65.361760774896027</v>
       </c>
@@ -13630,11 +13711,14 @@
       <c r="G27" s="4">
         <v>2.2687844522455403</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="10">
+        <v>19.061637604037251</v>
+      </c>
+      <c r="I27" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>61.234763467468696</v>
       </c>
@@ -13656,11 +13740,14 @@
       <c r="G28" s="4">
         <v>2.2687844522455412</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="10">
+        <v>17.858069552406189</v>
+      </c>
+      <c r="I28" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>61.046638234081698</v>
       </c>
@@ -13682,11 +13769,14 @@
       <c r="G29" s="4">
         <v>2.2687844522455407</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="10">
+        <v>17.803206051477137</v>
+      </c>
+      <c r="I29" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>61.646287415502762</v>
       </c>
@@ -13708,11 +13798,14 @@
       <c r="G30" s="4">
         <v>2.2687844522455412</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="10">
+        <v>17.978083460688488</v>
+      </c>
+      <c r="I30" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>61.50519349046251</v>
       </c>
@@ -13734,11 +13827,14 @@
       <c r="G31" s="4">
         <v>2.2687844522455407</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="10">
+        <v>17.936935834991701</v>
+      </c>
+      <c r="I31" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>60.065644627839426</v>
       </c>
@@ -13760,11 +13856,14 @@
       <c r="G32" s="4">
         <v>2.4080202535296498</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="10">
+        <v>17.764709310165149</v>
+      </c>
+      <c r="I32" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>61.300340025594792</v>
       </c>
@@ -13786,11 +13885,14 @@
       <c r="G33" s="4">
         <v>2.4080202535296493</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="10">
+        <v>18.129876536183009</v>
+      </c>
+      <c r="I33" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>59.768403143194618</v>
       </c>
@@ -13812,11 +13914,14 @@
       <c r="G34" s="4">
         <v>2.4296949027072405</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="10">
+        <v>17.676798681679369</v>
+      </c>
+      <c r="I34" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>61.563284415857503</v>
       </c>
@@ -13838,11 +13943,14 @@
       <c r="G35" s="4">
         <v>2.4080202535296493</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="10">
+        <v>18.20764363061274</v>
+      </c>
+      <c r="I35" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>62.374982316233719</v>
       </c>
@@ -13864,11 +13972,14 @@
       <c r="G36" s="4">
         <v>2.4080202535296493</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="10">
+        <v>18.447707269939297</v>
+      </c>
+      <c r="I36" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>63.552515890018917</v>
       </c>
@@ -13890,11 +14001,14 @@
       <c r="G37" s="4">
         <v>2.4080202535296498</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="10">
+        <v>18.795968605863738</v>
+      </c>
+      <c r="I37" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>59.539755847313998</v>
       </c>
@@ -13916,11 +14030,14 @@
       <c r="G38" s="4">
         <v>2.4080202535296493</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="10">
+        <v>17.609175121305693</v>
+      </c>
+      <c r="I38" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>59.356838010609501</v>
       </c>
@@ -13942,11 +14059,14 @@
       <c r="G39" s="4">
         <v>2.4080202535296498</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="10">
+        <v>17.555076273006751</v>
+      </c>
+      <c r="I39" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>59.93988861510509</v>
       </c>
@@ -13968,11 +14088,14 @@
       <c r="G40" s="4">
         <v>2.4080202535296498</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="10">
+        <v>17.727516351959629</v>
+      </c>
+      <c r="I40" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>59.802700237576708</v>
       </c>
@@ -13994,11 +14117,14 @@
       <c r="G41" s="4">
         <v>2.4080202535296502</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="10">
+        <v>17.686942215735421</v>
+      </c>
+      <c r="I41" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>58.219074322103502</v>
       </c>
@@ -14020,11 +14146,14 @@
       <c r="G42" s="4">
         <v>2.5236114883268246</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="10">
+        <v>17.489511613773907</v>
+      </c>
+      <c r="I42" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>59.415812050841076</v>
       </c>
@@ -14046,11 +14175,14 @@
       <c r="G43" s="4">
         <v>2.5236114883268246</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="10">
+        <v>17.849021940056282</v>
+      </c>
+      <c r="I43" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>57.930970794814833</v>
       </c>
@@ -14072,11 +14204,14 @@
       <c r="G44" s="4">
         <v>2.5236114883268246</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="10">
+        <v>17.402962831520746</v>
+      </c>
+      <c r="I44" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>59.67067286344259</v>
       </c>
@@ -14098,11 +14233,14 @@
       <c r="G45" s="4">
         <v>2.5236114883268246</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="10">
+        <v>17.925584324357157</v>
+      </c>
+      <c r="I45" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>60.457417111038595</v>
       </c>
@@ -14124,11 +14262,14 @@
       <c r="G46" s="4">
         <v>2.5236114883268241</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="10">
+        <v>18.161929075894644</v>
+      </c>
+      <c r="I46" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>61.598750315297565</v>
       </c>
@@ -14150,11 +14291,14 @@
       <c r="G47" s="4">
         <v>2.5236114883268246</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="10">
+        <v>18.504795405589867</v>
+      </c>
+      <c r="I47" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>57.709352696900474</v>
       </c>
@@ -14176,11 +14320,14 @@
       <c r="G48" s="4">
         <v>2.5236114883268241</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="10">
+        <v>17.336386845172161</v>
+      </c>
+      <c r="I48" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>57.532058218568984</v>
       </c>
@@ -14202,11 +14349,14 @@
       <c r="G49" s="4">
         <v>2.5236114883268246</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="10">
+        <v>17.283126056093291</v>
+      </c>
+      <c r="I49" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>58.097184368250609</v>
       </c>
@@ -14228,11 +14378,14 @@
       <c r="G50" s="4">
         <v>2.523611488326825</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="10">
+        <v>17.452894821282189</v>
+      </c>
+      <c r="I50" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>57.964213509501988</v>
       </c>
@@ -14254,11 +14407,14 @@
       <c r="G51" s="4">
         <v>2.5236114883268246</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="10">
+        <v>17.412949229473035</v>
+      </c>
+      <c r="I51" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>60.865441389529444</v>
       </c>
@@ -14280,11 +14436,14 @@
       <c r="G52" s="4">
         <v>2.5096563250826383</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="10">
+        <v>18.395973856411725</v>
+      </c>
+      <c r="I52" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>61.719309092476081</v>
       </c>
@@ -14306,11 +14465,14 @@
       <c r="G53" s="4">
         <v>2.5096563250826383</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="10">
+        <v>18.654046870944121</v>
+      </c>
+      <c r="I53" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>59.60653387877479</v>
       </c>
@@ -14332,11 +14494,14 @@
       <c r="G54" s="4">
         <v>2.5096563250826383</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="10">
+        <v>18.015481591396018</v>
+      </c>
+      <c r="I54" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50.454823626680074</v>
       </c>
@@ -14358,11 +14523,14 @@
       <c r="G55" s="4">
         <v>2.5096563250826387</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="10">
+        <v>15.249468256151376</v>
+      </c>
+      <c r="I55" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>60.471348603554077</v>
       </c>
@@ -14384,11 +14552,14 @@
       <c r="G56" s="4">
         <v>2.5096563250826387</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="10">
+        <v>18.276863234319851</v>
+      </c>
+      <c r="I56" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>62.879693406736891</v>
       </c>
@@ -14410,11 +14581,14 @@
       <c r="G57" s="4">
         <v>3.4177485445043683</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="10">
+        <v>19.004761480436862</v>
+      </c>
+      <c r="I57" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>53.782718263805428</v>
       </c>
@@ -14436,11 +14610,14 @@
       <c r="G58" s="4">
         <v>2.5096563250826383</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="10">
+        <v>16.255291287149426</v>
+      </c>
+      <c r="I58" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>57.778381232722374</v>
       </c>
@@ -14462,11 +14639,14 @@
       <c r="G59" s="4">
         <v>2.5096563250826387</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="10">
+        <v>17.462940650025374</v>
+      </c>
+      <c r="I59" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59.475169616782999</v>
       </c>
@@ -14488,11 +14668,14 @@
       <c r="G60" s="4">
         <v>2.5096563250826387</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="10">
+        <v>17.975778050698725</v>
+      </c>
+      <c r="I60" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>56.399056481808586</v>
       </c>
@@ -14514,11 +14697,14 @@
       <c r="G61" s="4">
         <v>2.5096563250826383</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="10">
+        <v>17.046053472703814</v>
+      </c>
+      <c r="I61" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>64.445426316065038</v>
       </c>
@@ -14540,11 +14726,14 @@
       <c r="G62" s="4">
         <v>2.1306847360901893</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="10">
+        <v>18.929251710443328</v>
+      </c>
+      <c r="I62" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>65.349516829132142</v>
       </c>
@@ -14566,11 +14755,14 @@
       <c r="G63" s="4">
         <v>2.1306847360901893</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="10">
+        <v>19.194805961057462</v>
+      </c>
+      <c r="I63" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63.112472354491757</v>
       </c>
@@ -14592,11 +14784,14 @@
       <c r="G64" s="4">
         <v>2.1306847360901888</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="10">
+        <v>18.537729417871208</v>
+      </c>
+      <c r="I64" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>53.42247659905464</v>
       </c>
@@ -14618,11 +14813,14 @@
       <c r="G65" s="4">
         <v>2.1306847360901888</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="10">
+        <v>15.691532577955629</v>
+      </c>
+      <c r="I65" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>64.028153771572534</v>
       </c>
@@ -14644,11 +14842,14 @@
       <c r="G66" s="4">
         <v>2.1306847360901893</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="10">
+        <v>18.806688210159884</v>
+      </c>
+      <c r="I66" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66.578152654582297</v>
       </c>
@@ -14670,11 +14871,14 @@
       <c r="G67" s="4">
         <v>2.1306847360901893</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="10">
+        <v>19.555687378558719</v>
+      </c>
+      <c r="I67" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>56.946111419213594</v>
       </c>
@@ -14696,11 +14900,14 @@
       <c r="G68" s="4">
         <v>2.1306847360901888</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="10">
+        <v>16.726513247015841</v>
+      </c>
+      <c r="I68" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>61.176791384207064</v>
       </c>
@@ -14722,11 +14929,14 @@
       <c r="G69" s="4">
         <v>2.1306847360901888</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="10">
+        <v>17.969170958223</v>
+      </c>
+      <c r="I69" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>62.973381506327584</v>
       </c>
@@ -14748,11 +14958,14 @@
       <c r="G70" s="4">
         <v>2.1306847360901893</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="10">
+        <v>18.496874917776726</v>
+      </c>
+      <c r="I70" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>59.716337478483297</v>
       </c>
@@ -14774,11 +14987,14 @@
       <c r="G71" s="4">
         <v>2.1306847360901893</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="10">
+        <v>17.540198707230939</v>
+      </c>
+      <c r="I71" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>65.341752128367844</v>
       </c>
@@ -14800,11 +15016,14 @@
       <c r="G72" s="4">
         <v>2.1133424597551271</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="10">
+        <v>19.060433936133911</v>
+      </c>
+      <c r="I72" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>66.258416996355749</v>
       </c>
@@ -14826,11 +15045,14 @@
       <c r="G73" s="4">
         <v>2.1133424597551267</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="10">
+        <v>19.327828512935788</v>
+      </c>
+      <c r="I73" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>63.990259053770316</v>
       </c>
@@ -14852,11 +15074,14 @@
       <c r="G74" s="4">
         <v>2.1133424597551271</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="10">
+        <v>18.666198342131143</v>
+      </c>
+      <c r="I74" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>54.16549200713083</v>
       </c>
@@ -14878,11 +15103,14 @@
       <c r="G75" s="4">
         <v>2.1133424597551271</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="10">
+        <v>15.800276980511006</v>
+      </c>
+      <c r="I75" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>64.91867603545036</v>
       </c>
@@ -14904,11 +15132,14 @@
       <c r="G76" s="4">
         <v>2.1133424597551276</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="10">
+        <v>18.937021054533044</v>
+      </c>
+      <c r="I76" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>67.504141047723905</v>
       </c>
@@ -14930,11 +15161,14 @@
       <c r="G77" s="4">
         <v>2.1133424597551267</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="10">
+        <v>19.691210886538343</v>
+      </c>
+      <c r="I77" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>57.738134569545196</v>
       </c>
@@ -14956,11 +15190,14 @@
       <c r="G78" s="4">
         <v>2.1133424597551271</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="10">
+        <v>16.842430202918329</v>
+      </c>
+      <c r="I78" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>62.027656067180843</v>
       </c>
@@ -14982,11 +15219,14 @@
       <c r="G79" s="4">
         <v>2.1133424597551276</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="10">
+        <v>18.093699696927118</v>
+      </c>
+      <c r="I79" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>63.849233689464484</v>
       </c>
@@ -15008,11 +15248,14 @@
       <c r="G80" s="4">
         <v>2.1133424597551267</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="10">
+        <v>18.625060714930854</v>
+      </c>
+      <c r="I80" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>60.546889741969636</v>
       </c>
@@ -15034,11 +15277,14 @@
       <c r="G81" s="4">
         <v>2.1133424597551271</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="10">
+        <v>17.661754611324085</v>
+      </c>
+      <c r="I81" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>64.419126065281887</v>
       </c>
@@ -15060,11 +15306,14 @@
       <c r="G82" s="4">
         <v>2.1817110513404234</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="10">
+        <v>18.925388791857547</v>
+      </c>
+      <c r="I82" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>65.322847617996274</v>
       </c>
@@ -15086,11 +15335,14 @@
       <c r="G83" s="4">
         <v>2.1817110513404239</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="10">
+        <v>19.190888850448356</v>
+      </c>
+      <c r="I83" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>63.086716083715814</v>
       </c>
@@ -15112,11 +15364,14 @@
       <c r="G84" s="4">
         <v>2.2625408341403643</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="10">
+        <v>18.53394639778136</v>
+      </c>
+      <c r="I84" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>53.400674826418026</v>
       </c>
@@ -15138,11 +15393,14 @@
       <c r="G85" s="4">
         <v>2.1817110513404239</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="10">
+        <v>15.688330385192705</v>
+      </c>
+      <c r="I85" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>64.002023810182948</v>
       </c>
@@ -15164,11 +15422,14 @@
       <c r="G86" s="4">
         <v>2.1817110513404234</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="10">
+        <v>18.802850303277175</v>
+      </c>
+      <c r="I86" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>66.550982035787612</v>
       </c>
@@ -15190,11 +15451,14 @@
       <c r="G87" s="4">
         <v>2.1817110513404239</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="10">
+        <v>19.551696622379453</v>
+      </c>
+      <c r="I87" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>56.922871647253587</v>
       </c>
@@ -15216,11 +15480,14 @@
       <c r="G88" s="4">
         <v>2.1817110513404239</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="10">
+        <v>16.723099844315851</v>
+      </c>
+      <c r="I88" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>61.151825067006797</v>
       </c>
@@ -15242,11 +15509,14 @@
       <c r="G89" s="4">
         <v>2.1817110513404239</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="10">
+        <v>17.965503964644629</v>
+      </c>
+      <c r="I89" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>62.947681998682825</v>
       </c>
@@ -15268,11 +15538,14 @@
       <c r="G90" s="4">
         <v>2.181711051340423</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H90" s="10">
+        <v>18.493100234921233</v>
+      </c>
+      <c r="I90" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>59.691967174160489</v>
       </c>
@@ -15294,11 +15567,14 @@
       <c r="G91" s="4">
         <v>2.1817110513404234</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="10">
+        <v>17.536619254613324</v>
+      </c>
+      <c r="I91" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>60.261955843810277</v>
       </c>
@@ -15320,11 +15596,14 @@
       <c r="G92" s="4">
         <v>2.5872384167495794</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H92" s="10">
+        <v>18.304547918252041</v>
+      </c>
+      <c r="I92" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>61.107357382626326</v>
       </c>
@@ -15346,11 +15625,14 @@
       <c r="G93" s="4">
         <v>2.587238416749579</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H93" s="10">
+        <v>18.56133833868795</v>
+      </c>
+      <c r="I93" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>59.015530498119965</v>
       </c>
@@ -15372,11 +15654,14 @@
       <c r="G94" s="4">
         <v>2.5872384167495794</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="10">
+        <v>17.925946657352945</v>
+      </c>
+      <c r="I94" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>49.954560159014676</v>
       </c>
@@ -15398,11 +15683,14 @@
       <c r="G95" s="4">
         <v>2.5872384167495794</v>
       </c>
-      <c r="H95" s="4">
+      <c r="H95" s="10">
+        <v>15.17368009986037</v>
+      </c>
+      <c r="I95" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>59.871770518202879</v>
       </c>
@@ -15424,11 +15712,14 @@
       <c r="G96" s="4">
         <v>2.5872384167495794</v>
       </c>
-      <c r="H96" s="4">
+      <c r="H96" s="10">
+        <v>18.186029262666239</v>
+      </c>
+      <c r="I96" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>62.256236396914794</v>
       </c>
@@ -15450,11 +15741,14 @@
       <c r="G97" s="4">
         <v>2.5872384167495799</v>
       </c>
-      <c r="H97" s="4">
+      <c r="H97" s="10">
+        <v>18.910309935690599</v>
+      </c>
+      <c r="I97" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>53.249458464143878</v>
       </c>
@@ -15476,11 +15770,14 @@
       <c r="G98" s="4">
         <v>2.5872384167495786</v>
       </c>
-      <c r="H98" s="4">
+      <c r="H98" s="10">
+        <v>16.174504302584943</v>
+      </c>
+      <c r="I98" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>57.205504126552277</v>
       </c>
@@ -15502,11 +15799,14 @@
       <c r="G99" s="4">
         <v>2.5872384167495794</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H99" s="10">
+        <v>17.376151782829904</v>
+      </c>
+      <c r="I99" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>58.885468722917494</v>
       </c>
@@ -15528,11 +15828,14 @@
       <c r="G100" s="4">
         <v>2.5872384167495794</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H100" s="10">
+        <v>17.886440438824341</v>
+      </c>
+      <c r="I100" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>55.839855486926368</v>
       </c>
@@ -15554,11 +15857,14 @@
       <c r="G101" s="4">
         <v>2.587238416749579</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H101" s="10">
+        <v>16.961336488279592</v>
+      </c>
+      <c r="I101" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>60.199468829440576</v>
       </c>
@@ -15580,11 +15886,14 @@
       <c r="G102" s="4">
         <v>2.4629932271319053</v>
       </c>
-      <c r="H102" s="4">
+      <c r="H102" s="10">
+        <v>18.081573914145078</v>
+      </c>
+      <c r="I102" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>60.520916922987574</v>
       </c>
@@ -15606,11 +15915,14 @@
       <c r="G103" s="4">
         <v>2.4629932271319062</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="10">
+        <v>18.178124391683323</v>
+      </c>
+      <c r="I103" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>60.476579254912131</v>
       </c>
@@ -15632,11 +15944,14 @@
       <c r="G104" s="4">
         <v>2.4629932271319062</v>
       </c>
-      <c r="H104" s="4">
+      <c r="H104" s="10">
+        <v>18.164807084436671</v>
+      </c>
+      <c r="I104" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>60.831280599515722</v>
       </c>
@@ -15658,11 +15973,14 @@
       <c r="G105" s="4">
         <v>2.4629932271319053</v>
       </c>
-      <c r="H105" s="4">
+      <c r="H105" s="10">
+        <v>18.271345542409907</v>
+      </c>
+      <c r="I105" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>59.079942710535491</v>
       </c>
@@ -15684,11 +16002,14 @@
       <c r="G106" s="4">
         <v>2.4629932271319053</v>
       </c>
-      <c r="H106" s="4">
+      <c r="H106" s="10">
+        <v>17.745311906167053</v>
+      </c>
+      <c r="I106" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>61.474176786609732</v>
       </c>
@@ -15710,11 +16031,14 @@
       <c r="G107" s="4">
         <v>2.6222802419319722</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H107" s="10">
+        <v>18.464446497486396</v>
+      </c>
+      <c r="I107" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>59.423559638120217</v>
       </c>
@@ -15736,11 +16060,14 @@
       <c r="G108" s="4">
         <v>2.4629932271319057</v>
       </c>
-      <c r="H108" s="4">
+      <c r="H108" s="10">
+        <v>17.848521037328624</v>
+      </c>
+      <c r="I108" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>59.157533629667526</v>
       </c>
@@ -15762,11 +16089,14 @@
       <c r="G109" s="4">
         <v>2.4629932271319053</v>
       </c>
-      <c r="H109" s="4">
+      <c r="H109" s="10">
+        <v>17.768617193848698</v>
+      </c>
+      <c r="I109" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>60.243806497516019</v>
       </c>
@@ -15788,11 +16118,14 @@
       <c r="G110" s="4">
         <v>2.4629932271319053</v>
       </c>
-      <c r="H110" s="4">
+      <c r="H110" s="10">
+        <v>18.09489122139173</v>
+      </c>
+      <c r="I110" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>55.776786438914563</v>
       </c>
@@ -15814,11 +16147,14 @@
       <c r="G111" s="4">
         <v>2.4629932271319053</v>
       </c>
-      <c r="H111" s="4">
+      <c r="H111" s="10">
+        <v>16.753172516291297</v>
+      </c>
+      <c r="I111" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>64.661664537919577</v>
       </c>
@@ -15840,11 +16176,14 @@
       <c r="G112" s="4">
         <v>2.227977645352043</v>
       </c>
-      <c r="H112" s="4">
+      <c r="H112" s="10">
+        <v>18.73973052382134</v>
+      </c>
+      <c r="I112" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>65.006939491261448</v>
       </c>
@@ -15866,11 +16205,14 @@
       <c r="G113" s="4">
         <v>2.2279776453520426</v>
       </c>
-      <c r="H113" s="4">
+      <c r="H113" s="10">
+        <v>18.839795371030107</v>
+      </c>
+      <c r="I113" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>64.959315359766023</v>
       </c>
@@ -15892,11 +16234,14 @@
       <c r="G114" s="4">
         <v>2.227977645352043</v>
       </c>
-      <c r="H114" s="4">
+      <c r="H114" s="10">
+        <v>18.825993323139244</v>
+      </c>
+      <c r="I114" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>65.340308411729453</v>
       </c>
@@ -15918,11 +16263,14 @@
       <c r="G115" s="4">
         <v>2.227977645352043</v>
       </c>
-      <c r="H115" s="4">
+      <c r="H115" s="10">
+        <v>18.936409706266161</v>
+      </c>
+      <c r="I115" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>63.459155217659983</v>
       </c>
@@ -15944,11 +16292,14 @@
       <c r="G116" s="4">
         <v>2.2279776453520421</v>
       </c>
-      <c r="H116" s="4">
+      <c r="H116" s="10">
+        <v>18.391228814577012</v>
+      </c>
+      <c r="I116" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>66.030858318413181</v>
       </c>
@@ -15970,11 +16321,14 @@
       <c r="G117" s="4">
         <v>2.227977645352043</v>
       </c>
-      <c r="H117" s="4">
+      <c r="H117" s="10">
+        <v>19.136539400683699</v>
+      </c>
+      <c r="I117" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>63.82824223674956</v>
       </c>
@@ -15996,11 +16350,14 @@
       <c r="G118" s="4">
         <v>2.2279776453520426</v>
       </c>
-      <c r="H118" s="4">
+      <c r="H118" s="10">
+        <v>18.49819468573121</v>
+      </c>
+      <c r="I118" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>63.542497447776981</v>
       </c>
@@ -16022,11 +16379,14 @@
       <c r="G119" s="4">
         <v>2.2279776453520426</v>
       </c>
-      <c r="H119" s="4">
+      <c r="H119" s="10">
+        <v>18.415382398386022</v>
+      </c>
+      <c r="I119" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>64.709288669415002</v>
       </c>
@@ -16048,11 +16408,14 @@
       <c r="G120" s="4">
         <v>2.2279776453520426</v>
       </c>
-      <c r="H120" s="4">
+      <c r="H120" s="10">
+        <v>18.753532571712203</v>
+      </c>
+      <c r="I120" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>59.911157421250472</v>
       </c>
@@ -16074,11 +16437,14 @@
       <c r="G121" s="4">
         <v>2.2279776453520426</v>
       </c>
-      <c r="H121" s="4">
+      <c r="H121" s="10">
+        <v>17.362976246707603</v>
+      </c>
+      <c r="I121" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>63.21037237656585</v>
       </c>
@@ -16100,11 +16466,14 @@
       <c r="G122" s="4">
         <v>1.9859145306841226</v>
       </c>
-      <c r="H122" s="4">
+      <c r="H122" s="10">
+        <v>18.528236083802721</v>
+      </c>
+      <c r="I122" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>63.547897841290656</v>
       </c>
@@ -16126,11 +16495,14 @@
       <c r="G123" s="4">
         <v>1.9859145306841222</v>
       </c>
-      <c r="H123" s="4">
+      <c r="H123" s="10">
+        <v>18.627171610672594</v>
+      </c>
+      <c r="I123" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>63.501342604776895</v>
       </c>
@@ -16152,11 +16524,14 @@
       <c r="G124" s="4">
         <v>1.9859145306841217</v>
       </c>
-      <c r="H124" s="4">
+      <c r="H124" s="10">
+        <v>18.613525331104334</v>
+      </c>
+      <c r="I124" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>63.873784496887019</v>
       </c>
@@ -16178,11 +16553,14 @@
       <c r="G125" s="4">
         <v>1.9859145306841219</v>
       </c>
-      <c r="H125" s="4">
+      <c r="H125" s="10">
+        <v>18.722695567650401</v>
+      </c>
+      <c r="I125" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>62.034852654593259</v>
       </c>
@@ -16204,11 +16582,14 @@
       <c r="G126" s="4">
         <v>1.9859145306841219</v>
       </c>
-      <c r="H126" s="4">
+      <c r="H126" s="10">
+        <v>18.183667524704198</v>
+      </c>
+      <c r="I126" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>64.548835426336623</v>
       </c>
@@ -16230,11 +16611,14 @@
       <c r="G127" s="4">
         <v>1.9859145306841224</v>
       </c>
-      <c r="H127" s="4">
+      <c r="H127" s="10">
+        <v>18.920566621390147</v>
+      </c>
+      <c r="I127" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>62.395655737574941</v>
       </c>
@@ -16256,11 +16640,14 @@
       <c r="G128" s="4">
         <v>1.9859145306841217</v>
       </c>
-      <c r="H128" s="4">
+      <c r="H128" s="10">
+        <v>18.289426191358199</v>
+      </c>
+      <c r="I128" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>62.116324318492346</v>
       </c>
@@ -16282,11 +16669,14 @@
       <c r="G129" s="4">
         <v>1.9859145306841219</v>
       </c>
-      <c r="H129" s="4">
+      <c r="H129" s="10">
+        <v>18.207548513948648</v>
+      </c>
+      <c r="I129" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>63.256927613079611</v>
       </c>
@@ -16308,11 +16698,14 @@
       <c r="G130" s="4">
         <v>1.9859145306841219</v>
       </c>
-      <c r="H130" s="4">
+      <c r="H130" s="10">
+        <v>18.541882363370977</v>
+      </c>
+      <c r="I130" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>58.566487534317687</v>
       </c>
@@ -16334,11 +16727,14 @@
       <c r="G131" s="4">
         <v>1.9859145306841222</v>
       </c>
-      <c r="H131" s="4">
+      <c r="H131" s="10">
+        <v>17.167019696868955</v>
+      </c>
+      <c r="I131" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>62.92783038539762</v>
       </c>
@@ -16360,11 +16756,14 @@
       <c r="G132" s="4">
         <v>2.2785346109888494</v>
       </c>
-      <c r="H132" s="4">
+      <c r="H132" s="10">
+        <v>18.486780326035536</v>
+      </c>
+      <c r="I132" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>63.263847156006449</v>
       </c>
@@ -16386,11 +16785,14 @@
       <c r="G133" s="4">
         <v>2.2785346109888485</v>
       </c>
-      <c r="H133" s="4">
+      <c r="H133" s="10">
+        <v>18.585494490914016</v>
+      </c>
+      <c r="I133" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>63.217500015232822</v>
       </c>
@@ -16412,11 +16814,14 @@
       <c r="G134" s="4">
         <v>2.2602281412285135</v>
       </c>
-      <c r="H134" s="4">
+      <c r="H134" s="10">
+        <v>18.571878744034226</v>
+      </c>
+      <c r="I134" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>63.588277141421869</v>
       </c>
@@ -16438,11 +16843,14 @@
       <c r="G135" s="4">
         <v>2.2785346109888485</v>
       </c>
-      <c r="H135" s="4">
+      <c r="H135" s="10">
+        <v>18.680804719072551</v>
+      </c>
+      <c r="I135" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>61.757565080863436</v>
       </c>
@@ -16464,11 +16872,14 @@
       <c r="G136" s="4">
         <v>2.2785346109888494</v>
       </c>
-      <c r="H136" s="4">
+      <c r="H136" s="10">
+        <v>18.142982717320823</v>
+      </c>
+      <c r="I136" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>64.260310682639513</v>
       </c>
@@ -16490,11 +16901,14 @@
       <c r="G137" s="4">
         <v>2.2785346109888489</v>
       </c>
-      <c r="H137" s="4">
+      <c r="H137" s="10">
+        <v>18.878233048829511</v>
+      </c>
+      <c r="I137" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>62.116755421859075</v>
       </c>
@@ -16516,11 +16930,14 @@
       <c r="G138" s="4">
         <v>2.2785346109888489</v>
       </c>
-      <c r="H138" s="4">
+      <c r="H138" s="10">
+        <v>18.2485047556392</v>
+      </c>
+      <c r="I138" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>61.838672577217288</v>
       </c>
@@ -16542,11 +16959,14 @@
       <c r="G139" s="4">
         <v>2.2785346109888485</v>
       </c>
-      <c r="H139" s="4">
+      <c r="H139" s="10">
+        <v>18.166810274360458</v>
+      </c>
+      <c r="I139" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>62.974177526171246</v>
       </c>
@@ -16568,11 +16988,14 @@
       <c r="G140" s="4">
         <v>2.2785346109888489</v>
       </c>
-      <c r="H140" s="4">
+      <c r="H140" s="10">
+        <v>18.500396072915322</v>
+      </c>
+      <c r="I140" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>58.304703093227921</v>
       </c>
@@ -16594,11 +17017,14 @@
       <c r="G141" s="4">
         <v>2.2785346109888489</v>
       </c>
-      <c r="H141" s="4">
+      <c r="H141" s="10">
+        <v>17.128609574776434</v>
+      </c>
+      <c r="I141" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>63.202167596987337</v>
       </c>
@@ -16620,11 +17046,14 @@
       <c r="G142" s="4">
         <v>2.2634833739630924</v>
       </c>
-      <c r="H142" s="4">
+      <c r="H142" s="10">
+        <v>18.52703355152244</v>
+      </c>
+      <c r="I142" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>63.539649250515716</v>
       </c>
@@ -16646,11 +17075,14 @@
       <c r="G143" s="4">
         <v>2.2634833739630924</v>
       </c>
-      <c r="H143" s="4">
+      <c r="H143" s="10">
+        <v>18.625962657210923</v>
+      </c>
+      <c r="I143" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>63.493100056925599</v>
       </c>
@@ -16672,11 +17104,14 @@
       <c r="G144" s="4">
         <v>2.2634833739630928</v>
       </c>
-      <c r="H144" s="4">
+      <c r="H144" s="10">
+        <v>18.612317263322858</v>
+      </c>
+      <c r="I144" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>63.86549360564657</v>
       </c>
@@ -16698,11 +17133,14 @@
       <c r="G145" s="4">
         <v>2.2634833739630928</v>
       </c>
-      <c r="H145" s="4">
+      <c r="H145" s="10">
+        <v>18.72148041442739</v>
+      </c>
+      <c r="I145" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>62.026800458836775</v>
       </c>
@@ -16724,11 +17162,14 @@
       <c r="G146" s="4">
         <v>2.263483373963092</v>
       </c>
-      <c r="H146" s="4">
+      <c r="H146" s="10">
+        <v>18.18248735584876</v>
+      </c>
+      <c r="I146" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>64.540456912703334</v>
       </c>
@@ -16750,11 +17191,14 @@
       <c r="G147" s="4">
         <v>2.263483373963092</v>
       </c>
-      <c r="H147" s="4">
+      <c r="H147" s="10">
+        <v>18.919338625804357</v>
+      </c>
+      <c r="I147" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>62.387556709160208</v>
       </c>
@@ -16776,11 +17220,14 @@
       <c r="G148" s="4">
         <v>2.2634833739630928</v>
       </c>
-      <c r="H148" s="4">
+      <c r="H148" s="10">
+        <v>18.288239158481275</v>
+      </c>
+      <c r="I148" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>62.108261547619485</v>
       </c>
@@ -16802,11 +17249,14 @@
       <c r="G149" s="4">
         <v>2.2634833739630924</v>
       </c>
-      <c r="H149" s="4">
+      <c r="H149" s="10">
+        <v>18.206366795152874</v>
+      </c>
+      <c r="I149" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>63.248716790577454</v>
       </c>
@@ -16828,11 +17278,14 @@
       <c r="G150" s="4">
         <v>2.2634833739630924</v>
       </c>
-      <c r="H150" s="4">
+      <c r="H150" s="10">
+        <v>18.540678945410505</v>
+      </c>
+      <c r="I150" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>58.558885536372728</v>
       </c>
@@ -16854,11 +17307,14 @@
       <c r="G151" s="4">
         <v>2.263483373963092</v>
       </c>
-      <c r="H151" s="4">
+      <c r="H151" s="10">
+        <v>17.165905511187795</v>
+      </c>
+      <c r="I151" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>63.914115435513999</v>
       </c>
@@ -16880,11 +17336,14 @@
       <c r="G152" s="4">
         <v>2.2767567874021317</v>
       </c>
-      <c r="H152" s="4">
+      <c r="H152" s="10">
+        <v>18.680767389963037</v>
+      </c>
+      <c r="I152" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>58.786939142335406</v>
       </c>
@@ -16906,11 +17365,14 @@
       <c r="G153" s="4">
         <v>2.2767567874021313</v>
       </c>
-      <c r="H153" s="4">
+      <c r="H153" s="10">
+        <v>17.182200335603365</v>
+      </c>
+      <c r="I153" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="154" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>64.253586012002998</v>
       </c>
@@ -16932,11 +17394,14 @@
       <c r="G154" s="4">
         <v>2.2767567874021308</v>
       </c>
-      <c r="H154" s="4">
+      <c r="H154" s="10">
+        <v>18.77998758305991</v>
+      </c>
+      <c r="I154" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="155" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>61.689997865413694</v>
       </c>
@@ -16958,11 +17423,14 @@
       <c r="G155" s="4">
         <v>2.2767567874021313</v>
       </c>
-      <c r="H155" s="4">
+      <c r="H155" s="10">
+        <v>18.030704055880072</v>
+      </c>
+      <c r="I155" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="156" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>75.022997404067624</v>
       </c>
@@ -16984,11 +17452,14 @@
       <c r="G156" s="4">
         <v>2.2767567874021308</v>
       </c>
-      <c r="H156" s="4">
+      <c r="H156" s="10">
+        <v>21.927662674408992</v>
+      </c>
+      <c r="I156" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="157" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>61.760233157101069</v>
       </c>
@@ -17010,11 +17481,14 @@
       <c r="G157" s="4">
         <v>2.2306500733063777</v>
       </c>
-      <c r="H157" s="4">
+      <c r="H157" s="10">
+        <v>18.051232371693221</v>
+      </c>
+      <c r="I157" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>62.485997837870649</v>
       </c>
@@ -17036,11 +17510,14 @@
       <c r="G158" s="4">
         <v>2.2767567874021313</v>
       </c>
-      <c r="H158" s="4">
+      <c r="H158" s="10">
+        <v>18.263358301762398</v>
+      </c>
+      <c r="I158" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>63.281997810327596</v>
       </c>
@@ -17062,11 +17539,14 @@
       <c r="G159" s="4">
         <v>2.2767567874021308</v>
       </c>
-      <c r="H159" s="4">
+      <c r="H159" s="10">
+        <v>18.496012547644721</v>
+      </c>
+      <c r="I159" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="160" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>57.323703898848365</v>
       </c>
@@ -17088,11 +17568,14 @@
       <c r="G160" s="4">
         <v>2.2767567874021317</v>
       </c>
-      <c r="H160" s="4">
+      <c r="H160" s="10">
+        <v>16.754527089496154</v>
+      </c>
+      <c r="I160" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>65.166644803938908</v>
       </c>
@@ -17114,11 +17597,14 @@
       <c r="G161" s="4">
         <v>2.2767567874021317</v>
       </c>
-      <c r="H161" s="4">
+      <c r="H161" s="10">
+        <v>19.046855688630814</v>
+      </c>
+      <c r="I161" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>64.884242401559106</v>
       </c>
@@ -17140,11 +17626,14 @@
       <c r="G162" s="4">
         <v>2.1823096053580415</v>
       </c>
-      <c r="H162" s="4">
+      <c r="H162" s="10">
+        <v>18.822007425152947</v>
+      </c>
+      <c r="I162" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="163" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>59.679242736379095</v>
       </c>
@@ -17166,11 +17655,14 @@
       <c r="G163" s="4">
         <v>2.1823096053580415</v>
       </c>
-      <c r="H163" s="4">
+      <c r="H163" s="10">
+        <v>17.312110126212108</v>
+      </c>
+      <c r="I163" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="164" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>65.228865667061896</v>
       </c>
@@ -17192,11 +17684,14 @@
       <c r="G164" s="4">
         <v>2.1823096053580411</v>
       </c>
-      <c r="H164" s="4">
+      <c r="H164" s="10">
+        <v>18.921977794260904</v>
+      </c>
+      <c r="I164" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>62.626365834471876</v>
       </c>
@@ -17218,11 +17713,14 @@
       <c r="G165" s="4">
         <v>2.182309605358042</v>
       </c>
-      <c r="H165" s="4">
+      <c r="H165" s="10">
+        <v>18.167029144790479</v>
+      </c>
+      <c r="I165" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>76.16174167611581</v>
       </c>
@@ -17244,11 +17742,14 @@
       <c r="G166" s="4">
         <v>2.1823096053580411</v>
       </c>
-      <c r="H166" s="4">
+      <c r="H166" s="10">
+        <v>22.093451572858104</v>
+      </c>
+      <c r="I166" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="167" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>62.697667199748317</v>
       </c>
@@ -17270,11 +17771,14 @@
       <c r="G167" s="4">
         <v>2.182309605358042</v>
       </c>
-      <c r="H167" s="4">
+      <c r="H167" s="10">
+        <v>18.187712669433505</v>
+      </c>
+      <c r="I167" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>63.434447974271521</v>
       </c>
@@ -17296,11 +17800,14 @@
       <c r="G168" s="4">
         <v>2.1823096053580411</v>
       </c>
-      <c r="H168" s="4">
+      <c r="H168" s="10">
+        <v>18.401442424078102</v>
+      </c>
+      <c r="I168" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>64.242530114071158</v>
       </c>
@@ -17322,11 +17829,14 @@
       <c r="G169" s="4">
         <v>2.1823096053580411</v>
       </c>
-      <c r="H169" s="4">
+      <c r="H169" s="10">
+        <v>18.635855703365721</v>
+      </c>
+      <c r="I169" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>58.193797626453289</v>
       </c>
@@ -17348,11 +17858,14 @@
       <c r="G170" s="4">
         <v>2.1823096053580415</v>
       </c>
-      <c r="H170" s="4">
+      <c r="H170" s="10">
+        <v>16.88120336281575</v>
+      </c>
+      <c r="I170" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="171" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>66.155783415655591</v>
       </c>
@@ -17374,11 +17887,14 @@
       <c r="G171" s="4">
         <v>2.1823096053580415</v>
       </c>
-      <c r="H171" s="4">
+      <c r="H171" s="10">
+        <v>19.19086361462023</v>
+      </c>
+      <c r="I171" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="172" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>62.793117663600945</v>
       </c>
@@ -17400,11 +17916,14 @@
       <c r="G172" s="4">
         <v>2.2427181909492284</v>
       </c>
-      <c r="H172" s="4">
+      <c r="H172" s="10">
+        <v>18.516220522646115</v>
+      </c>
+      <c r="I172" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="173" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>57.75586756531208</v>
       </c>
@@ -17426,11 +17945,14 @@
       <c r="G173" s="4">
         <v>2.2427181909492284</v>
       </c>
-      <c r="H173" s="4">
+      <c r="H173" s="10">
+        <v>17.03085338181846</v>
+      </c>
+      <c r="I173" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="174" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>63.126634222620069</v>
       </c>
@@ -17452,11 +17974,14 @@
       <c r="G174" s="4">
         <v>2.242718190949228</v>
       </c>
-      <c r="H174" s="4">
+      <c r="H174" s="10">
+        <v>18.614566748865297</v>
+      </c>
+      <c r="I174" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>60.608009173475637</v>
       </c>
@@ -17478,11 +18003,14 @@
       <c r="G175" s="4">
         <v>2.242718190949228</v>
       </c>
-      <c r="H175" s="4">
+      <c r="H175" s="10">
+        <v>17.871883178451469</v>
+      </c>
+      <c r="I175" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>73.707159543226823</v>
       </c>
@@ -17504,11 +18032,14 @@
       <c r="G176" s="4">
         <v>2.242718190949228</v>
       </c>
-      <c r="H176" s="4">
+      <c r="H176" s="10">
+        <v>21.734515994439366</v>
+      </c>
+      <c r="I176" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>60.677012599479596</v>
       </c>
@@ -17530,11 +18061,14 @@
       <c r="G177" s="4">
         <v>2.2427181909492275</v>
       </c>
-      <c r="H177" s="4">
+      <c r="H177" s="10">
+        <v>17.892230673531301</v>
+      </c>
+      <c r="I177" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>61.390048001520491</v>
       </c>
@@ -17556,11 +18090,14 @@
       <c r="G178" s="4">
         <v>2.242718190949228</v>
       </c>
-      <c r="H178" s="4">
+      <c r="H178" s="10">
+        <v>18.102488122689554</v>
+      </c>
+      <c r="I178" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>62.17208682956533</v>
       </c>
@@ -17582,11 +18119,14 @@
       <c r="G179" s="4">
         <v>2.242718190949228</v>
       </c>
-      <c r="H179" s="4">
+      <c r="H179" s="10">
+        <v>18.333093066927635</v>
+      </c>
+      <c r="I179" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>56.318296190229646</v>
       </c>
@@ -17608,11 +18148,14 @@
       <c r="G180" s="4">
         <v>2.242718190949228</v>
       </c>
-      <c r="H180" s="4">
+      <c r="H180" s="10">
+        <v>16.606947234321982</v>
+      </c>
+      <c r="I180" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>64.023678760671515</v>
       </c>
@@ -17634,11 +18177,14 @@
       <c r="G181" s="4">
         <v>2.242718190949228</v>
       </c>
-      <c r="H181" s="4">
+      <c r="H181" s="10">
+        <v>18.8790841849031</v>
+      </c>
+      <c r="I181" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>62.600632841097941</v>
       </c>
@@ -17660,11 +18206,14 @@
       <c r="G182" s="4">
         <v>2.3210512608947731</v>
       </c>
-      <c r="H182" s="4">
+      <c r="H182" s="10">
+        <v>18.487819106438561</v>
+      </c>
+      <c r="I182" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>57.578823832965909</v>
       </c>
@@ -17686,11 +18235,14 @@
       <c r="G183" s="4">
         <v>2.3210512608947731</v>
       </c>
-      <c r="H183" s="4">
+      <c r="H183" s="10">
+        <v>17.004730320977007</v>
+      </c>
+      <c r="I183" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>62.933127044832709</v>
       </c>
@@ -17712,11 +18264,14 @@
       <c r="G184" s="4">
         <v>2.2993894837251605</v>
       </c>
-      <c r="H184" s="4">
+      <c r="H184" s="10">
+        <v>18.58601448264492</v>
+      </c>
+      <c r="I184" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>60.42222254076669</v>
       </c>
@@ -17738,11 +18293,14 @@
       <c r="G185" s="4">
         <v>2.3210512608947726</v>
       </c>
-      <c r="H185" s="4">
+      <c r="H185" s="10">
+        <v>17.844470089914143</v>
+      </c>
+      <c r="I185" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="186" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>73.481219025384007</v>
       </c>
@@ -17764,11 +18322,14 @@
       <c r="G186" s="4">
         <v>2.3210512608947731</v>
       </c>
-      <c r="H186" s="4">
+      <c r="H186" s="10">
+        <v>21.701178141605265</v>
+      </c>
+      <c r="I186" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="187" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>60.491014444987677</v>
       </c>
@@ -17790,11 +18351,14 @@
       <c r="G187" s="4">
         <v>2.3210512608947731</v>
       </c>
-      <c r="H187" s="4">
+      <c r="H187" s="10">
+        <v>17.864786374646492</v>
+      </c>
+      <c r="I187" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>61.201864121937881</v>
       </c>
@@ -17816,11 +18380,14 @@
       <c r="G188" s="4">
         <v>2.3210512608947722</v>
       </c>
-      <c r="H188" s="4">
+      <c r="H188" s="10">
+        <v>18.07472131688078</v>
+      </c>
+      <c r="I188" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="189" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>61.981505703109057</v>
       </c>
@@ -17842,11 +18409,14 @@
       <c r="G189" s="4">
         <v>2.3210512608947735</v>
       </c>
-      <c r="H189" s="4">
+      <c r="H189" s="10">
+        <v>18.304972543847413</v>
+      </c>
+      <c r="I189" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="190" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>56.145659161695356</v>
       </c>
@@ -17868,11 +18438,14 @@
       <c r="G190" s="4">
         <v>2.3210512608947731</v>
       </c>
-      <c r="H190" s="4">
+      <c r="H190" s="10">
+        <v>16.581474389053049</v>
+      </c>
+      <c r="I190" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="191" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>63.82742179970554</v>
       </c>
@@ -17894,11 +18467,14 @@
       <c r="G191" s="4">
         <v>2.3210512608947731</v>
       </c>
-      <c r="H191" s="4">
+      <c r="H191" s="10">
+        <v>18.850126184165472</v>
+      </c>
+      <c r="I191" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="192" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>62.847785831563165</v>
       </c>
@@ -17920,11 +18496,14 @@
       <c r="G192" s="4">
         <v>2.3723145343338961</v>
       </c>
-      <c r="H192" s="4">
+      <c r="H192" s="10">
+        <v>18.524278950618697</v>
+      </c>
+      <c r="I192" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>57.806150264855354</v>
       </c>
@@ -17946,11 +18525,14 @@
       <c r="G193" s="4">
         <v>2.3723145343338969</v>
       </c>
-      <c r="H193" s="4">
+      <c r="H193" s="10">
+        <v>17.038265364470163</v>
+      </c>
+      <c r="I193" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>63.181592752646559</v>
       </c>
@@ -17972,11 +18554,14 @@
       <c r="G194" s="4">
         <v>2.3723145343338969</v>
       </c>
-      <c r="H194" s="4">
+      <c r="H194" s="10">
+        <v>18.622667978012093</v>
+      </c>
+      <c r="I194" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>60.660774969292653</v>
       </c>
@@ -17998,11 +18583,14 @@
       <c r="G195" s="4">
         <v>2.3723145343338965</v>
       </c>
-      <c r="H195" s="4">
+      <c r="H195" s="10">
+        <v>17.879661184937824</v>
+      </c>
+      <c r="I195" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>73.7713295594301</v>
       </c>
@@ -18024,11 +18612,14 @@
       <c r="G196" s="4">
         <v>2.3723145343338961</v>
       </c>
-      <c r="H196" s="4">
+      <c r="H196" s="10">
+        <v>21.743975053940517</v>
+      </c>
+      <c r="I196" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>60.72983847020646</v>
       </c>
@@ -18050,11 +18641,14 @@
       <c r="G197" s="4">
         <v>2.3723145343338965</v>
       </c>
-      <c r="H197" s="4">
+      <c r="H197" s="10">
+        <v>17.900017535433012</v>
+      </c>
+      <c r="I197" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>61.443494646315784</v>
       </c>
@@ -18076,11 +18670,14 @@
       <c r="G198" s="4">
         <v>2.3723145343338965</v>
       </c>
-      <c r="H198" s="4">
+      <c r="H198" s="10">
+        <v>18.110366490549929</v>
+      </c>
+      <c r="I198" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>62.226214323338915</v>
       </c>
@@ -18102,11 +18699,14 @@
       <c r="G199" s="4">
         <v>2.3723145343338961</v>
       </c>
-      <c r="H199" s="4">
+      <c r="H199" s="10">
+        <v>18.341071796162026</v>
+      </c>
+      <c r="I199" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>56.367327329151074</v>
       </c>
@@ -18128,11 +18728,14 @@
       <c r="G200" s="4">
         <v>2.3723145343338961</v>
       </c>
-      <c r="H200" s="4">
+      <c r="H200" s="10">
+        <v>16.614174729153802</v>
+      </c>
+      <c r="I200" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>64.079418264526041</v>
       </c>
@@ -18154,11 +18757,14 @@
       <c r="G201" s="4">
         <v>2.3723145343338965</v>
       </c>
-      <c r="H201" s="4">
+      <c r="H201" s="10">
+        <v>18.887300534449501</v>
+      </c>
+      <c r="I201" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>69.637767494939496</v>
       </c>
@@ -18180,11 +18786,14 @@
       <c r="G202" s="4">
         <v>2.0799714054345486</v>
       </c>
-      <c r="H202" s="4">
+      <c r="H202" s="10">
+        <v>19.935464356107175</v>
+      </c>
+      <c r="I202" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>65.367009018817399</v>
       </c>
@@ -18206,11 +18815,14 @@
       <c r="G203" s="4">
         <v>2.0799714054345491</v>
       </c>
-      <c r="H203" s="4">
+      <c r="H203" s="10">
+        <v>18.71285834162715</v>
+      </c>
+      <c r="I203" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>66.855673401922814</v>
       </c>
@@ -18232,11 +18844,14 @@
       <c r="G204" s="4">
         <v>2.0799714054345491</v>
       </c>
-      <c r="H204" s="4">
+      <c r="H204" s="10">
+        <v>19.139023866674474</v>
+      </c>
+      <c r="I204" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>71.638922895179576</v>
       </c>
@@ -18258,11 +18873,14 @@
       <c r="G205" s="4">
         <v>2.0799714054345491</v>
       </c>
-      <c r="H205" s="4">
+      <c r="H205" s="10">
+        <v>20.508342602892103</v>
+      </c>
+      <c r="I205" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>64.549463824816883</v>
       </c>
@@ -18284,11 +18902,14 @@
       <c r="G206" s="4">
         <v>2.0799714054345486</v>
       </c>
-      <c r="H206" s="4">
+      <c r="H206" s="10">
+        <v>18.478816618855259</v>
+      </c>
+      <c r="I206" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>65.330402517593498</v>
       </c>
@@ -18310,11 +18931,14 @@
       <c r="G207" s="4">
         <v>2.150713438040647</v>
       </c>
-      <c r="H207" s="4">
+      <c r="H207" s="10">
+        <v>18.702378861503036</v>
+      </c>
+      <c r="I207" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>64.0613771418315</v>
       </c>
@@ -18336,11 +18960,14 @@
       <c r="G208" s="4">
         <v>2.0799714054345486</v>
       </c>
-      <c r="H208" s="4">
+      <c r="H208" s="10">
+        <v>18.339090217200397</v>
+      </c>
+      <c r="I208" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>69.259500315625829</v>
       </c>
@@ -18362,11 +18989,14 @@
       <c r="G209" s="4">
         <v>2.0799714054345486</v>
       </c>
-      <c r="H209" s="4">
+      <c r="H209" s="10">
+        <v>19.827176394824662</v>
+      </c>
+      <c r="I209" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>65.305998183444231</v>
       </c>
@@ -18388,11 +19018,14 @@
       <c r="G210" s="4">
         <v>2.0799714054345486</v>
       </c>
-      <c r="H210" s="4">
+      <c r="H210" s="10">
+        <v>18.695392541420293</v>
+      </c>
+      <c r="I210" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>67.648814261774064</v>
       </c>
@@ -18414,11 +19047,14 @@
       <c r="G211" s="4">
         <v>2.0799714054345482</v>
       </c>
-      <c r="H211" s="4">
+      <c r="H211" s="10">
+        <v>19.36607926936362</v>
+      </c>
+      <c r="I211" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>68.630062198509592</v>
       </c>
@@ -18440,11 +19076,14 @@
       <c r="G212" s="4">
         <v>2.1069417322577437</v>
       </c>
-      <c r="H212" s="4">
+      <c r="H212" s="10">
+        <v>19.790698950943959</v>
+      </c>
+      <c r="I212" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>64.421104467744158</v>
       </c>
@@ -18466,11 +19105,14 @@
       <c r="G213" s="4">
         <v>2.1069417322577437</v>
       </c>
-      <c r="H213" s="4">
+      <c r="H213" s="10">
+        <v>18.576971137236164</v>
+      </c>
+      <c r="I213" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>65.888226876753833</v>
       </c>
@@ -18492,11 +19134,14 @@
       <c r="G214" s="4">
         <v>2.1069417322577433</v>
       </c>
-      <c r="H214" s="4">
+      <c r="H214" s="10">
+        <v>19.000041975157167</v>
+      </c>
+      <c r="I214" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>70.602259535211118</v>
       </c>
@@ -18518,11 +19163,14 @@
       <c r="G215" s="4">
         <v>2.1069417322577442</v>
       </c>
-      <c r="H215" s="4">
+      <c r="H215" s="10">
+        <v>20.359417126509896</v>
+      </c>
+      <c r="I215" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>63.61538970214049</v>
       </c>
@@ -18544,11 +19192,14 @@
       <c r="G216" s="4">
         <v>2.1069417322577437</v>
       </c>
-      <c r="H216" s="4">
+      <c r="H216" s="10">
+        <v>18.344628955754956</v>
+      </c>
+      <c r="I216" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>64.385027687194736</v>
       </c>
@@ -18570,11 +19221,14 @@
       <c r="G217" s="4">
         <v>2.1069417322577442</v>
       </c>
-      <c r="H217" s="4">
+      <c r="H217" s="10">
+        <v>18.566567755975811</v>
+      </c>
+      <c r="I217" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>63.134365961481578</v>
       </c>
@@ -18596,11 +19250,14 @@
       <c r="G218" s="4">
         <v>2.1069417322577442</v>
       </c>
-      <c r="H218" s="4">
+      <c r="H218" s="10">
+        <v>18.205917205616924</v>
+      </c>
+      <c r="I218" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>68.257268799498945</v>
       </c>
@@ -18622,11 +19279,14 @@
       <c r="G219" s="4">
         <v>2.1069417322577442</v>
       </c>
-      <c r="H219" s="4">
+      <c r="H219" s="10">
+        <v>19.683197344586983</v>
+      </c>
+      <c r="I219" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>64.360976500161797</v>
       </c>
@@ -18648,11 +19308,14 @@
       <c r="G220" s="4">
         <v>2.1069417322577437</v>
       </c>
-      <c r="H220" s="4">
+      <c r="H220" s="10">
+        <v>18.559632168468909</v>
+      </c>
+      <c r="I220" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>66.669890455324548</v>
       </c>
@@ -18674,11 +19337,14 @@
       <c r="G221" s="4">
         <v>2.1069417322577437</v>
       </c>
-      <c r="H221" s="4">
+      <c r="H221" s="10">
+        <v>19.225448569131469</v>
+      </c>
+      <c r="I221" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>70.805473643959758</v>
       </c>
@@ -18700,11 +19366,14 @@
       <c r="G222" s="4">
         <v>1.9940651683508541</v>
       </c>
-      <c r="H222" s="4">
+      <c r="H222" s="10">
+        <v>20.101911304303339</v>
+      </c>
+      <c r="I222" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>66.463101859241704</v>
       </c>
@@ -18726,11 +19395,14 @@
       <c r="G223" s="4">
         <v>1.9940651683508543</v>
       </c>
-      <c r="H223" s="4">
+      <c r="H223" s="10">
+        <v>18.869097399185733</v>
+      </c>
+      <c r="I223" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>67.97672859562914</v>
       </c>
@@ -18752,11 +19424,14 @@
       <c r="G224" s="4">
         <v>1.9940651683508539</v>
       </c>
-      <c r="H224" s="4">
+      <c r="H224" s="10">
+        <v>19.2988211032553</v>
+      </c>
+      <c r="I224" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>72.840184994513365</v>
       </c>
@@ -18778,11 +19453,14 @@
       <c r="G225" s="4">
         <v>1.9940651683508541</v>
       </c>
-      <c r="H225" s="4">
+      <c r="H225" s="10">
+        <v>20.679572676987018</v>
+      </c>
+      <c r="I225" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>65.631847831881387</v>
       </c>
@@ -18804,11 +19482,14 @@
       <c r="G226" s="4">
         <v>1.9940651683508541</v>
       </c>
-      <c r="H226" s="4">
+      <c r="H226" s="10">
+        <v>18.633101594491791</v>
+      </c>
+      <c r="I226" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>66.425881529658412</v>
       </c>
@@ -18830,11 +19511,14 @@
       <c r="G227" s="4">
         <v>1.9940651683508537</v>
       </c>
-      <c r="H227" s="4">
+      <c r="H227" s="10">
+        <v>18.858530422856155</v>
+      </c>
+      <c r="I227" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>65.135576770770754</v>
       </c>
@@ -18856,11 +19540,14 @@
       <c r="G228" s="4">
         <v>1.9940651683508543</v>
       </c>
-      <c r="H228" s="4">
+      <c r="H228" s="10">
+        <v>18.492208576764067</v>
+      </c>
+      <c r="I228" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>70.420863571599014</v>
       </c>
@@ -18882,11 +19569,14 @@
       <c r="G229" s="4">
         <v>1.9940651683508543</v>
       </c>
-      <c r="H229" s="4">
+      <c r="H229" s="10">
+        <v>19.99271921556435</v>
+      </c>
+      <c r="I229" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>66.401067976602874</v>
       </c>
@@ -18908,11 +19598,14 @@
       <c r="G230" s="4">
         <v>1.9940651683508543</v>
       </c>
-      <c r="H230" s="4">
+      <c r="H230" s="10">
+        <v>18.85148577196977</v>
+      </c>
+      <c r="I230" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>68.783169069933919</v>
       </c>
@@ -18934,11 +19627,14 @@
       <c r="G231" s="4">
         <v>1.9940651683508537</v>
       </c>
-      <c r="H231" s="4">
+      <c r="H231" s="10">
+        <v>19.527772257062853</v>
+      </c>
+      <c r="I231" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="232" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>57.836632442184033</v>
       </c>
@@ -18960,11 +19656,14 @@
       <c r="G232" s="4">
         <v>2.9333968454674437</v>
       </c>
-      <c r="H232" s="4">
+      <c r="H232" s="10">
+        <v>18.167929473320406</v>
+      </c>
+      <c r="I232" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="233" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>54.289616259467302</v>
       </c>
@@ -18986,11 +19685,14 @@
       <c r="G233" s="4">
         <v>2.9333968454674433</v>
       </c>
-      <c r="H233" s="4">
+      <c r="H233" s="10">
+        <v>17.05372318005562</v>
+      </c>
+      <c r="I233" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="234" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>55.526004757442841</v>
       </c>
@@ -19012,11 +19714,14 @@
       <c r="G234" s="4">
         <v>3.1850644660407132</v>
       </c>
-      <c r="H234" s="4">
+      <c r="H234" s="10">
+        <v>17.442103659422202</v>
+      </c>
+      <c r="I234" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="235" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>59.49866288208559</v>
       </c>
@@ -19038,11 +19743,14 @@
       <c r="G235" s="4">
         <v>2.9333968454674437</v>
       </c>
-      <c r="H235" s="4">
+      <c r="H235" s="10">
+        <v>18.690014707878763</v>
+      </c>
+      <c r="I235" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="236" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>53.610616018775808</v>
       </c>
@@ -19064,11 +19772,14 @@
       <c r="G236" s="4">
         <v>2.9333968454674433</v>
       </c>
-      <c r="H236" s="4">
+      <c r="H236" s="10">
+        <v>16.840432261059217</v>
+      </c>
+      <c r="I236" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>54.259213263615436</v>
       </c>
@@ -19090,11 +19801,14 @@
       <c r="G237" s="4">
         <v>2.9333968454674442</v>
       </c>
-      <c r="H237" s="4">
+      <c r="H237" s="10">
+        <v>17.044172840399064</v>
+      </c>
+      <c r="I237" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="238" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>53.205242740751039</v>
       </c>
@@ -19116,11 +19830,14 @@
       <c r="G238" s="4">
         <v>2.9333968454674437</v>
       </c>
-      <c r="H238" s="4">
+      <c r="H238" s="10">
+        <v>16.713094398971812</v>
+      </c>
+      <c r="I238" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>57.52246815171484</v>
       </c>
@@ -19142,11 +19859,14 @@
       <c r="G239" s="4">
         <v>2.9333968454674437</v>
       </c>
-      <c r="H239" s="4">
+      <c r="H239" s="10">
+        <v>18.069242630202666</v>
+      </c>
+      <c r="I239" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>54.238944599714202</v>
       </c>
@@ -19168,11 +19888,14 @@
       <c r="G240" s="4">
         <v>2.9333968454674437</v>
       </c>
-      <c r="H240" s="4">
+      <c r="H240" s="10">
+        <v>17.037805947294693</v>
+      </c>
+      <c r="I240" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>56.184736334233094</v>
       </c>
@@ -19194,11 +19917,14 @@
       <c r="G241" s="4">
         <v>2.9333968454674433</v>
       </c>
-      <c r="H241" s="4">
+      <c r="H241" s="10">
+        <v>17.64902768531423</v>
+      </c>
+      <c r="I241" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>62.115384651684622</v>
       </c>
@@ -19220,11 +19946,14 @@
       <c r="G242" s="4">
         <v>2.4930013983444597</v>
       </c>
-      <c r="H242" s="4">
+      <c r="H242" s="10">
+        <v>18.827971218566383</v>
+      </c>
+      <c r="I242" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>58.305960325753375</v>
       </c>
@@ -19246,11 +19975,14 @@
       <c r="G243" s="4">
         <v>2.4930013983444606</v>
       </c>
-      <c r="H243" s="4">
+      <c r="H243" s="10">
+        <v>17.673285757466292</v>
+      </c>
+      <c r="I243" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>59.633816805077984</v>
       </c>
@@ -19272,11 +20004,14 @@
       <c r="G244" s="4">
         <v>2.4930013983444601</v>
       </c>
-      <c r="H244" s="4">
+      <c r="H244" s="10">
+        <v>18.075776118192611</v>
+      </c>
+      <c r="I244" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="245" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>63.900372050120978</v>
       </c>
@@ -19298,11 +20033,14 @@
       <c r="G245" s="4">
         <v>2.4930013983444606</v>
       </c>
-      <c r="H245" s="4">
+      <c r="H245" s="10">
+        <v>19.369023834624716</v>
+      </c>
+      <c r="I245" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>57.576727669075105</v>
       </c>
@@ -19324,11 +20062,14 @@
       <c r="G246" s="4">
         <v>2.4930013983444606</v>
       </c>
-      <c r="H246" s="4">
+      <c r="H246" s="10">
+        <v>17.452245969198557</v>
+      </c>
+      <c r="I246" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>58.273308117245392</v>
       </c>
@@ -19350,11 +20091,14 @@
       <c r="G247" s="4">
         <v>2.4930013983444606</v>
       </c>
-      <c r="H247" s="4">
+      <c r="H247" s="10">
+        <v>17.663388453514006</v>
+      </c>
+      <c r="I247" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="248" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>57.141364888968681</v>
       </c>
@@ -19376,11 +20120,14 @@
       <c r="G248" s="4">
         <v>2.4930013983444597</v>
       </c>
-      <c r="H248" s="4">
+      <c r="H248" s="10">
+        <v>17.320281916501404</v>
+      </c>
+      <c r="I248" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="249" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>61.77797849710214</v>
       </c>
@@ -19402,11 +20149,14 @@
       <c r="G249" s="4">
         <v>2.4930013983444606</v>
       </c>
-      <c r="H249" s="4">
+      <c r="H249" s="10">
+        <v>18.725699077726091</v>
+      </c>
+      <c r="I249" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>58.251539978240075</v>
       </c>
@@ -19428,11 +20178,14 @@
       <c r="G250" s="4">
         <v>2.4930013983444601</v>
       </c>
-      <c r="H250" s="4">
+      <c r="H250" s="10">
+        <v>17.656790250879148</v>
+      </c>
+      <c r="I250" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>60.341281322750923</v>
       </c>
@@ -19454,7 +20207,10 @@
       <c r="G251" s="4">
         <v>2.4930013983444601</v>
       </c>
-      <c r="H251" s="4">
+      <c r="H251" s="10">
+        <v>18.290217703825483</v>
+      </c>
+      <c r="I251" s="4">
         <v>0.05</v>
       </c>
     </row>
